--- a/tests/integration_test_files/invalid_section_levels.xlsx
+++ b/tests/integration_test_files/invalid_section_levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378A14D3-4703-B648-9202-484FB2590A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1008643-B531-874E-B17A-5E02452424D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="7" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="7" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="569">
   <si>
     <t>Epoch</t>
   </si>
@@ -1764,6 +1764,9 @@
   </si>
   <si>
     <t>&lt;p&gt;Error!!!!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>objectiveName</t>
   </si>
 </sst>
 </file>
@@ -1926,10 +1929,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2538,7 +2541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2551,7 +2554,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>492</v>
+        <v>568</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>84</v>
@@ -3432,7 +3435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -6685,34 +6688,34 @@
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -6832,16 +6835,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/invalid_section_levels.xlsx
+++ b/tests/integration_test_files/invalid_section_levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1008643-B531-874E-B17A-5E02452424D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB20B36E-B1F8-2843-9C0D-83D3E14293E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="7" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="566">
   <si>
     <t>Epoch</t>
   </si>
@@ -174,9 +174,6 @@
     <t>NCT12345678</t>
   </si>
   <si>
-    <t>Simple Test 1</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -495,12 +492,6 @@
     <t>protocolVersion</t>
   </si>
   <si>
-    <t>protocolAmendment</t>
-  </si>
-  <si>
-    <t>protocolEffectiveDate</t>
-  </si>
-  <si>
     <t>protocolStatus</t>
   </si>
   <si>
@@ -513,16 +504,10 @@
     <t>Something Public</t>
   </si>
   <si>
-    <t>Somethign Clever</t>
-  </si>
-  <si>
     <t>draft</t>
   </si>
   <si>
     <t>Somethign Clever But New</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>businessTherapeuticAreas</t>
@@ -1767,6 +1752,12 @@
   </si>
   <si>
     <t>objectiveName</t>
+  </si>
+  <si>
+    <t>SECTIONS1</t>
+  </si>
+  <si>
+    <t>Invalid Sections 1</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1888,9 +1879,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1905,9 +1893,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1929,10 +1914,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2253,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2269,269 +2254,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="B2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="B9" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="B11" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="B12" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="B13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="15">
-        <v>40179</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="15">
-        <v>40544</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2541,7 +2445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2554,205 +2458,205 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2965,90 +2869,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>132</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
         <v>133</v>
-      </c>
-      <c r="E2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3077,65 +2981,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>187</v>
+        <v>106</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" t="s">
         <v>189</v>
-      </c>
-      <c r="C3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3167,138 +3071,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3324,105 +3228,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>202</v>
+      <c r="A1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3448,1220 +3352,1220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>538</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>492</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>287</v>
+      <c r="A1" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="10" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="B12" s="28"/>
+        <v>561</v>
+      </c>
+      <c r="B12" s="26"/>
       <c r="C12" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B13" s="28"/>
+        <v>425</v>
+      </c>
+      <c r="B13" s="26"/>
       <c r="C13" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B14" s="28"/>
+        <v>426</v>
+      </c>
+      <c r="B14" s="26"/>
       <c r="C14" s="10" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B15" s="28"/>
+        <v>427</v>
+      </c>
+      <c r="B15" s="26"/>
       <c r="C15" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B16" s="28"/>
+        <v>428</v>
+      </c>
+      <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B17" s="28"/>
+        <v>510</v>
+      </c>
+      <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B18" s="28"/>
+        <v>511</v>
+      </c>
+      <c r="B18" s="26"/>
       <c r="C18" s="10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B19" s="28"/>
+        <v>488</v>
+      </c>
+      <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B20" s="28"/>
+        <v>512</v>
+      </c>
+      <c r="B20" s="26"/>
       <c r="C20" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B21" s="28"/>
+        <v>513</v>
+      </c>
+      <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B22" s="28"/>
+        <v>514</v>
+      </c>
+      <c r="B22" s="26"/>
       <c r="C22" s="10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B23" s="28"/>
+        <v>515</v>
+      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B24" s="28"/>
+        <v>516</v>
+      </c>
+      <c r="B24" s="26"/>
       <c r="C24" s="10" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B25" s="28"/>
+        <v>477</v>
+      </c>
+      <c r="B25" s="26"/>
       <c r="C25" s="10" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B26" s="28"/>
+        <v>478</v>
+      </c>
+      <c r="B26" s="26"/>
       <c r="C26" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="B27" s="28"/>
+        <v>479</v>
+      </c>
+      <c r="B27" s="26"/>
       <c r="C27" s="10" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B28" s="28"/>
+        <v>480</v>
+      </c>
+      <c r="B28" s="26"/>
       <c r="C28" s="10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B29" s="28"/>
+        <v>517</v>
+      </c>
+      <c r="B29" s="26"/>
       <c r="C29" s="10" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B30" s="28"/>
+        <v>489</v>
+      </c>
+      <c r="B30" s="26"/>
       <c r="C30" s="10" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B31" s="28"/>
+        <v>518</v>
+      </c>
+      <c r="B31" s="26"/>
       <c r="C31" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="B32" s="28"/>
+        <v>519</v>
+      </c>
+      <c r="B32" s="26"/>
       <c r="C32" s="10" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B33" s="28"/>
+        <v>520</v>
+      </c>
+      <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B34" s="28"/>
+        <v>433</v>
+      </c>
+      <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B35" s="28"/>
+        <v>521</v>
+      </c>
+      <c r="B35" s="26"/>
       <c r="C35" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B36" s="28"/>
+        <v>522</v>
+      </c>
+      <c r="B36" s="26"/>
       <c r="C36" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B37" s="28"/>
+        <v>434</v>
+      </c>
+      <c r="B37" s="26"/>
       <c r="C37" s="10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B38" s="28"/>
+        <v>435</v>
+      </c>
+      <c r="B38" s="26"/>
       <c r="C38" s="10" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B39" s="28"/>
+        <v>436</v>
+      </c>
+      <c r="B39" s="26"/>
       <c r="C39" s="10" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B40" s="28"/>
+        <v>523</v>
+      </c>
+      <c r="B40" s="26"/>
       <c r="C40" s="10" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B41" s="28"/>
+        <v>437</v>
+      </c>
+      <c r="B41" s="26"/>
       <c r="C41" s="10" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B42" s="28"/>
+        <v>438</v>
+      </c>
+      <c r="B42" s="26"/>
       <c r="C42" s="10" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B43" s="28"/>
+        <v>439</v>
+      </c>
+      <c r="B43" s="26"/>
       <c r="C43" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B44" s="28"/>
+        <v>524</v>
+      </c>
+      <c r="B44" s="26"/>
       <c r="C44" s="10" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B45" s="28"/>
+        <v>525</v>
+      </c>
+      <c r="B45" s="26"/>
       <c r="C45" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B46" s="28"/>
+        <v>440</v>
+      </c>
+      <c r="B46" s="26"/>
       <c r="C46" s="10" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B47" s="28"/>
+        <v>441</v>
+      </c>
+      <c r="B47" s="26"/>
       <c r="C47" s="10" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B48" s="28"/>
+        <v>442</v>
+      </c>
+      <c r="B48" s="26"/>
       <c r="C48" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B49" s="28"/>
+        <v>443</v>
+      </c>
+      <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B50" s="28"/>
+        <v>490</v>
+      </c>
+      <c r="B50" s="26"/>
       <c r="C50" s="10" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B51" s="28"/>
+        <v>526</v>
+      </c>
+      <c r="B51" s="26"/>
       <c r="C51" s="10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B52" s="28"/>
+        <v>444</v>
+      </c>
+      <c r="B52" s="26"/>
       <c r="C52" s="10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B53" s="28"/>
+        <v>445</v>
+      </c>
+      <c r="B53" s="26"/>
       <c r="C53" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B54" s="28"/>
+        <v>446</v>
+      </c>
+      <c r="B54" s="26"/>
       <c r="C54" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="B55" s="28"/>
+        <v>534</v>
+      </c>
+      <c r="B55" s="26"/>
       <c r="C55" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="B56" s="28"/>
+        <v>535</v>
+      </c>
+      <c r="B56" s="26"/>
       <c r="C56" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B57" s="28"/>
+        <v>536</v>
+      </c>
+      <c r="B57" s="26"/>
       <c r="C57" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B58" s="28"/>
+        <v>491</v>
+      </c>
+      <c r="B58" s="26"/>
       <c r="C58" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B59" s="28"/>
+        <v>537</v>
+      </c>
+      <c r="B59" s="26"/>
       <c r="C59" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B60" s="28"/>
+        <v>538</v>
+      </c>
+      <c r="B60" s="26"/>
       <c r="C60" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B61" s="28"/>
+        <v>539</v>
+      </c>
+      <c r="B61" s="26"/>
       <c r="C61" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B62" s="28"/>
+        <v>481</v>
+      </c>
+      <c r="B62" s="26"/>
       <c r="C62" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B63" s="28"/>
+        <v>448</v>
+      </c>
+      <c r="B63" s="26"/>
       <c r="C63" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B64" s="28"/>
+        <v>449</v>
+      </c>
+      <c r="B64" s="26"/>
       <c r="C64" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B65" s="28"/>
+        <v>450</v>
+      </c>
+      <c r="B65" s="26"/>
       <c r="C65" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B66" s="28"/>
+        <v>451</v>
+      </c>
+      <c r="B66" s="26"/>
       <c r="C66" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B67" s="28"/>
+        <v>540</v>
+      </c>
+      <c r="B67" s="26"/>
       <c r="C67" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B68" s="28"/>
+        <v>482</v>
+      </c>
+      <c r="B68" s="26"/>
       <c r="C68" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B69" s="28"/>
+        <v>453</v>
+      </c>
+      <c r="B69" s="26"/>
       <c r="C69" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B70" s="28"/>
+        <v>454</v>
+      </c>
+      <c r="B70" s="26"/>
       <c r="C70" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B71" s="28"/>
+        <v>455</v>
+      </c>
+      <c r="B71" s="26"/>
       <c r="C71" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B72" s="28"/>
+        <v>456</v>
+      </c>
+      <c r="B72" s="26"/>
       <c r="C72" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B73" s="28"/>
+        <v>457</v>
+      </c>
+      <c r="B73" s="26"/>
       <c r="C73" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B74" s="28"/>
+        <v>458</v>
+      </c>
+      <c r="B74" s="26"/>
       <c r="C74" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B75" s="28"/>
+        <v>459</v>
+      </c>
+      <c r="B75" s="26"/>
       <c r="C75" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B76" s="28"/>
+        <v>460</v>
+      </c>
+      <c r="B76" s="26"/>
       <c r="C76" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B77" s="28"/>
+        <v>461</v>
+      </c>
+      <c r="B77" s="26"/>
       <c r="C77" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B78" s="28"/>
+        <v>541</v>
+      </c>
+      <c r="B78" s="26"/>
       <c r="C78" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B79" s="28"/>
+        <v>462</v>
+      </c>
+      <c r="B79" s="26"/>
       <c r="C79" s="10" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B80" s="28"/>
+        <v>463</v>
+      </c>
+      <c r="B80" s="26"/>
       <c r="C80" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="B81" s="28"/>
+        <v>542</v>
+      </c>
+      <c r="B81" s="26"/>
       <c r="C81" s="10" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B82" s="28"/>
+        <v>464</v>
+      </c>
+      <c r="B82" s="26"/>
       <c r="C82" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B83" s="28"/>
+        <v>465</v>
+      </c>
+      <c r="B83" s="26"/>
       <c r="C83" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B84" s="28"/>
+        <v>466</v>
+      </c>
+      <c r="B84" s="26"/>
       <c r="C84" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B85" s="28"/>
+        <v>467</v>
+      </c>
+      <c r="B85" s="26"/>
       <c r="C85" s="10" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B86" s="28"/>
+        <v>468</v>
+      </c>
+      <c r="B86" s="26"/>
       <c r="C86" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B87" s="28"/>
+        <v>543</v>
+      </c>
+      <c r="B87" s="26"/>
       <c r="C87" s="10" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B88" s="28"/>
+        <v>544</v>
+      </c>
+      <c r="B88" s="26"/>
       <c r="C88" s="10" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="B89" s="28"/>
+        <v>545</v>
+      </c>
+      <c r="B89" s="26"/>
       <c r="C89" s="10" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B90" s="28"/>
+        <v>537</v>
+      </c>
+      <c r="B90" s="26"/>
       <c r="C90" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B91" s="28"/>
+        <v>483</v>
+      </c>
+      <c r="B91" s="26"/>
       <c r="C91" s="10" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B92" s="28"/>
+        <v>492</v>
+      </c>
+      <c r="B92" s="26"/>
       <c r="C92" s="10" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="B93" s="28"/>
+        <v>546</v>
+      </c>
+      <c r="B93" s="26"/>
       <c r="C93" s="10" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="B94" s="28"/>
+        <v>547</v>
+      </c>
+      <c r="B94" s="26"/>
       <c r="C94" s="10" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B95" s="28"/>
+        <v>469</v>
+      </c>
+      <c r="B95" s="26"/>
       <c r="C95" s="10" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B96" s="28"/>
+        <v>470</v>
+      </c>
+      <c r="B96" s="26"/>
       <c r="C96" s="10" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B97" s="28"/>
+        <v>471</v>
+      </c>
+      <c r="B97" s="26"/>
       <c r="C97" s="10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B98" s="28"/>
+        <v>472</v>
+      </c>
+      <c r="B98" s="26"/>
       <c r="C98" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B99" s="28"/>
+        <v>473</v>
+      </c>
+      <c r="B99" s="26"/>
       <c r="C99" s="10" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="B100" s="28"/>
+        <v>548</v>
+      </c>
+      <c r="B100" s="26"/>
       <c r="C100" s="10" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="B101" s="28"/>
+        <v>549</v>
+      </c>
+      <c r="B101" s="26"/>
       <c r="C101" s="10" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="B102" s="28"/>
+        <v>550</v>
+      </c>
+      <c r="B102" s="26"/>
       <c r="C102" s="10" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="B103" s="28"/>
+        <v>551</v>
+      </c>
+      <c r="B103" s="26"/>
       <c r="C103" s="10" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="B104" s="28"/>
+        <v>552</v>
+      </c>
+      <c r="B104" s="26"/>
       <c r="C104" s="10" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="B105" s="28"/>
+        <v>553</v>
+      </c>
+      <c r="B105" s="26"/>
       <c r="C105" s="10" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="B106" s="28"/>
+        <v>554</v>
+      </c>
+      <c r="B106" s="26"/>
       <c r="C106" s="10" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B107" s="28"/>
+        <v>493</v>
+      </c>
+      <c r="B107" s="26"/>
       <c r="C107" s="10" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="B108" s="28"/>
+        <v>555</v>
+      </c>
+      <c r="B108" s="26"/>
       <c r="C108" s="10" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="B109" s="28"/>
+        <v>556</v>
+      </c>
+      <c r="B109" s="26"/>
       <c r="C109" s="10" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="B110" s="28"/>
+        <v>557</v>
+      </c>
+      <c r="B110" s="26"/>
       <c r="C110" s="10" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="B111" s="28"/>
+        <v>558</v>
+      </c>
+      <c r="B111" s="26"/>
       <c r="C111" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="B112" s="28"/>
+        <v>559</v>
+      </c>
+      <c r="B112" s="26"/>
       <c r="C112" s="10" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B113" s="28"/>
+        <v>494</v>
+      </c>
+      <c r="B113" s="26"/>
       <c r="C113" s="10" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B114" s="28"/>
+        <v>509</v>
+      </c>
+      <c r="B114" s="26"/>
       <c r="C114" s="10" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B115" s="28"/>
+        <v>508</v>
+      </c>
+      <c r="B115" s="26"/>
       <c r="C115" s="10" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B116" s="28"/>
+        <v>507</v>
+      </c>
+      <c r="B116" s="26"/>
       <c r="C116" s="10" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B117" s="28"/>
+        <v>495</v>
+      </c>
+      <c r="B117" s="26"/>
       <c r="C117" s="10" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B118" s="28"/>
+        <v>506</v>
+      </c>
+      <c r="B118" s="26"/>
       <c r="C118" s="10" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B119" s="28"/>
+        <v>505</v>
+      </c>
+      <c r="B119" s="26"/>
       <c r="C119" s="10" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B120" s="28"/>
+        <v>504</v>
+      </c>
+      <c r="B120" s="26"/>
       <c r="C120" s="10" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B121" s="28"/>
+        <v>503</v>
+      </c>
+      <c r="B121" s="26"/>
       <c r="C121" s="10" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B122" s="28"/>
+        <v>496</v>
+      </c>
+      <c r="B122" s="26"/>
       <c r="C122" s="10" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B123" s="28"/>
+        <v>502</v>
+      </c>
+      <c r="B123" s="26"/>
       <c r="C123" s="10" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B124" s="28"/>
+        <v>474</v>
+      </c>
+      <c r="B124" s="26"/>
       <c r="C124" s="10" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B125" s="28"/>
+        <v>475</v>
+      </c>
+      <c r="B125" s="26"/>
       <c r="C125" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B126" s="28"/>
+        <v>476</v>
+      </c>
+      <c r="B126" s="26"/>
       <c r="C126" s="10" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B127" s="28"/>
+        <v>501</v>
+      </c>
+      <c r="B127" s="26"/>
       <c r="C127" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B128" s="28"/>
+        <v>500</v>
+      </c>
+      <c r="B128" s="26"/>
       <c r="C128" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B129" s="28"/>
+        <v>499</v>
+      </c>
+      <c r="B129" s="26"/>
       <c r="C129" s="10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B130" s="28"/>
+        <v>497</v>
+      </c>
+      <c r="B130" s="26"/>
       <c r="C130" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B131" s="28"/>
+        <v>498</v>
+      </c>
+      <c r="B131" s="26"/>
       <c r="C131" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -4680,1849 +4584,1849 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="25"/>
-    <col min="8" max="8" width="10.83203125" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="23"/>
+    <col min="8" max="8" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="25">
+      <c r="A1" s="23">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H1" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>288</v>
-      </c>
-      <c r="O1" s="26" t="str">
+        <v>283</v>
+      </c>
+      <c r="O1" s="24" t="str">
         <f>TEXT(H2,"0")</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
+      <c r="A2" s="23">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>421</v>
+        <v>288</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>416</v>
       </c>
       <c r="I2" t="s">
-        <v>293</v>
-      </c>
-      <c r="O2" s="26" t="str">
+        <v>288</v>
+      </c>
+      <c r="O2" s="24" t="str">
         <f>TEXT(H3,"0")</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="23">
         <v>1.2</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>422</v>
+        <v>289</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>417</v>
       </c>
       <c r="I3" t="s">
-        <v>294</v>
-      </c>
-      <c r="O3" s="26" t="str">
+        <v>289</v>
+      </c>
+      <c r="O3" s="24" t="str">
         <f>TEXT(H4,"0")</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+      <c r="A4" s="23">
         <v>1.3</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>423</v>
+        <v>290</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>418</v>
       </c>
       <c r="I4" t="s">
-        <v>295</v>
-      </c>
-      <c r="O4" s="26" t="str">
+        <v>290</v>
+      </c>
+      <c r="O4" s="24" t="str">
         <f>TEXT(H5,"0")</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="I5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="I6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="I7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="I8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="I9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B10" t="s">
+        <v>293</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="I5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
-        <v>2.1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="I10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>0.16737268518518519</v>
+      </c>
+      <c r="B11" t="s">
+        <v>294</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="I11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <v>4.2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="I12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
+        <v>0.16806712962962964</v>
+      </c>
+      <c r="B13" t="s">
         <v>296</v>
       </c>
-      <c r="H6" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H13" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="I13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
+        <v>0.1680787037037037</v>
+      </c>
+      <c r="B14" t="s">
         <v>297</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H14" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="I14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="I8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H9" s="25" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
+        <v>0.16809027777777777</v>
+      </c>
+      <c r="B15" t="s">
+        <v>298</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="I9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="I15" t="s">
         <v>298</v>
       </c>
-      <c r="H10" s="25" t="s">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>4.3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H16" s="23">
+        <v>4.3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>300</v>
+      </c>
+      <c r="H17" s="23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>287</v>
+      </c>
+      <c r="H18" s="23">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B19" t="s">
+        <v>301</v>
+      </c>
+      <c r="H19" s="23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
+        <v>5.2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>302</v>
+      </c>
+      <c r="H20" s="23">
+        <v>5.2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>5.3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>303</v>
+      </c>
+      <c r="H21" s="23">
+        <v>5.3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <v>5.4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>304</v>
+      </c>
+      <c r="H22" s="23">
+        <v>5.4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>0.21181712962962962</v>
+      </c>
+      <c r="B24" t="s">
+        <v>306</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="I10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
-        <v>0.16737268518518519</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="I11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
-        <v>4.2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>300</v>
-      </c>
-      <c r="H12" s="25" t="s">
+      <c r="I24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <v>0.21182870370370369</v>
+      </c>
+      <c r="B25" t="s">
+        <v>307</v>
+      </c>
+      <c r="H25" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="I12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
-        <v>0.16806712962962964</v>
-      </c>
-      <c r="B13" t="s">
-        <v>301</v>
-      </c>
-      <c r="H13" s="25" t="s">
+      <c r="I25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="23">
+        <v>0.21184027777777778</v>
+      </c>
+      <c r="B26" t="s">
+        <v>308</v>
+      </c>
+      <c r="H26" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="I13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
-        <v>0.1680787037037037</v>
-      </c>
-      <c r="B14" t="s">
-        <v>302</v>
-      </c>
-      <c r="H14" s="25" t="s">
+      <c r="I26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <v>0.21185185185185185</v>
+      </c>
+      <c r="B27" t="s">
+        <v>309</v>
+      </c>
+      <c r="H27" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="I14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
-        <v>0.16809027777777777</v>
-      </c>
-      <c r="B15" t="s">
-        <v>303</v>
-      </c>
-      <c r="H15" s="25" t="s">
+      <c r="I27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="23">
+        <v>5.6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>310</v>
+      </c>
+      <c r="H28" s="23">
+        <v>5.6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>311</v>
+      </c>
+      <c r="H29" s="23">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <v>6.1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>312</v>
+      </c>
+      <c r="H30" s="23">
+        <v>6.1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <v>6.2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>313</v>
+      </c>
+      <c r="H31" s="23">
+        <v>6.2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <v>6.3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>314</v>
+      </c>
+      <c r="H32" s="23">
+        <v>6.3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <v>0.25209490740740742</v>
+      </c>
+      <c r="B33" t="s">
+        <v>315</v>
+      </c>
+      <c r="H33" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="I15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
-        <v>4.3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>304</v>
-      </c>
-      <c r="H16" s="25">
-        <v>4.3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B17" t="s">
-        <v>305</v>
-      </c>
-      <c r="H17" s="25">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>292</v>
-      </c>
-      <c r="H18" s="25">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B19" t="s">
-        <v>306</v>
-      </c>
-      <c r="H19" s="25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>307</v>
-      </c>
-      <c r="H20" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
-        <v>5.3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>308</v>
-      </c>
-      <c r="H21" s="25">
-        <v>5.3</v>
-      </c>
-      <c r="I21" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
-        <v>5.4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>309</v>
-      </c>
-      <c r="H22" s="25">
-        <v>5.4</v>
-      </c>
-      <c r="I22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
-        <v>5.5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>310</v>
-      </c>
-      <c r="H23" s="25">
-        <v>5.5</v>
-      </c>
-      <c r="I23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
-        <v>0.21181712962962962</v>
-      </c>
-      <c r="B24" t="s">
-        <v>311</v>
-      </c>
-      <c r="H24" s="25" t="s">
+      <c r="I33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="23">
+        <v>6.4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>316</v>
+      </c>
+      <c r="H34" s="23">
+        <v>6.4</v>
+      </c>
+      <c r="I34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="23">
+        <v>6.5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>317</v>
+      </c>
+      <c r="H35" s="23">
+        <v>6.5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="23">
+        <v>0.2534837962962963</v>
+      </c>
+      <c r="B36" t="s">
+        <v>318</v>
+      </c>
+      <c r="H36" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="I24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
-        <v>0.21182870370370369</v>
-      </c>
-      <c r="B25" t="s">
-        <v>312</v>
-      </c>
-      <c r="H25" s="25" t="s">
+      <c r="I36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="23">
+        <v>0.25349537037037034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="I25" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
-        <v>0.21184027777777778</v>
-      </c>
-      <c r="B26" t="s">
-        <v>313</v>
-      </c>
-      <c r="H26" s="25" t="s">
+      <c r="I37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="23">
+        <v>0.25350694444444444</v>
+      </c>
+      <c r="B38" t="s">
+        <v>320</v>
+      </c>
+      <c r="H38" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="I26" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
-        <v>0.21185185185185185</v>
-      </c>
-      <c r="B27" t="s">
-        <v>314</v>
-      </c>
-      <c r="H27" s="25" t="s">
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="23">
+        <v>6.6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>321</v>
+      </c>
+      <c r="H39" s="23">
+        <v>6.6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="23">
+        <v>0.25417824074074075</v>
+      </c>
+      <c r="B40" t="s">
+        <v>322</v>
+      </c>
+      <c r="H40" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="I27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
-        <v>5.6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>315</v>
-      </c>
-      <c r="H28" s="25">
-        <v>5.6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>316</v>
-      </c>
-      <c r="H29" s="25">
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
-        <v>6.1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>317</v>
-      </c>
-      <c r="H30" s="25">
-        <v>6.1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
-        <v>6.2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>318</v>
-      </c>
-      <c r="H31" s="25">
-        <v>6.2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
-        <v>6.3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>319</v>
-      </c>
-      <c r="H32" s="25">
-        <v>6.3</v>
-      </c>
-      <c r="I32" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="25">
-        <v>0.25209490740740742</v>
-      </c>
-      <c r="B33" t="s">
-        <v>320</v>
-      </c>
-      <c r="H33" s="25" t="s">
+      <c r="I40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="23">
+        <v>0.25418981481481479</v>
+      </c>
+      <c r="B41" t="s">
+        <v>323</v>
+      </c>
+      <c r="H41" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="I33" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
-        <v>6.4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>321</v>
-      </c>
-      <c r="H34" s="25">
-        <v>6.4</v>
-      </c>
-      <c r="I34" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
-        <v>6.5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>322</v>
-      </c>
-      <c r="H35" s="25">
-        <v>6.5</v>
-      </c>
-      <c r="I35" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
-        <v>0.2534837962962963</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="I41" t="s">
         <v>323</v>
       </c>
-      <c r="H36" s="25" t="s">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="23">
+        <v>0.25420138888888888</v>
+      </c>
+      <c r="B42" t="s">
+        <v>324</v>
+      </c>
+      <c r="H42" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="I36" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="25">
-        <v>0.25349537037037034</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="I42" t="s">
         <v>324</v>
       </c>
-      <c r="H37" s="25" t="s">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="23">
+        <v>6.7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>325</v>
+      </c>
+      <c r="H43" s="23">
+        <v>6.7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="23">
+        <v>6.8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>326</v>
+      </c>
+      <c r="H44" s="23">
+        <v>6.8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="23">
+        <v>0.25556712962962963</v>
+      </c>
+      <c r="B45" t="s">
+        <v>327</v>
+      </c>
+      <c r="H45" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="I37" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="25">
-        <v>0.25350694444444444</v>
-      </c>
-      <c r="B38" t="s">
-        <v>325</v>
-      </c>
-      <c r="H38" s="25" t="s">
+      <c r="I45" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="23">
+        <v>0.25557870370370367</v>
+      </c>
+      <c r="B46" t="s">
+        <v>328</v>
+      </c>
+      <c r="H46" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="I38" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="25">
-        <v>6.6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>326</v>
-      </c>
-      <c r="H39" s="25">
-        <v>6.6</v>
-      </c>
-      <c r="I39" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
-        <v>0.25417824074074075</v>
-      </c>
-      <c r="B40" t="s">
-        <v>327</v>
-      </c>
-      <c r="H40" s="25" t="s">
+      <c r="I46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="23">
+        <v>0.25559027777777776</v>
+      </c>
+      <c r="B47" t="s">
+        <v>329</v>
+      </c>
+      <c r="H47" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="I40" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="25">
-        <v>0.25418981481481479</v>
-      </c>
-      <c r="B41" t="s">
-        <v>328</v>
-      </c>
-      <c r="H41" s="25" t="s">
+      <c r="I47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="23">
+        <v>0.25560185185185186</v>
+      </c>
+      <c r="B48" t="s">
+        <v>330</v>
+      </c>
+      <c r="H48" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="I41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="25">
-        <v>0.25420138888888888</v>
-      </c>
-      <c r="B42" t="s">
-        <v>329</v>
-      </c>
-      <c r="H42" s="25" t="s">
+      <c r="I48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="23">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>331</v>
+      </c>
+      <c r="H49" s="23">
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="H50" s="23">
+        <v>7.1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="23">
+        <v>7.1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>333</v>
+      </c>
+      <c r="H51" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="I42" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="25">
-        <v>6.7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>330</v>
-      </c>
-      <c r="H43" s="25">
-        <v>6.7</v>
-      </c>
-      <c r="I43" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="25">
-        <v>6.8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>331</v>
-      </c>
-      <c r="H44" s="25">
-        <v>6.8</v>
-      </c>
-      <c r="I44" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="25">
-        <v>0.25556712962962963</v>
-      </c>
-      <c r="B45" t="s">
-        <v>332</v>
-      </c>
-      <c r="H45" s="25" t="s">
+      <c r="I51" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="23">
+        <v>0.29237268518518517</v>
+      </c>
+      <c r="B52" t="s">
+        <v>334</v>
+      </c>
+      <c r="H52" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="I45" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="25">
-        <v>0.25557870370370367</v>
-      </c>
-      <c r="B46" t="s">
-        <v>333</v>
-      </c>
-      <c r="H46" s="25" t="s">
+      <c r="I52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="23">
+        <v>0.29238425925925926</v>
+      </c>
+      <c r="B53" t="s">
+        <v>335</v>
+      </c>
+      <c r="H53" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="I46" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="25">
-        <v>0.25559027777777776</v>
-      </c>
-      <c r="B47" t="s">
-        <v>334</v>
-      </c>
-      <c r="H47" s="25" t="s">
+      <c r="I53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="23">
+        <v>0.29239583333333335</v>
+      </c>
+      <c r="B54" t="s">
+        <v>336</v>
+      </c>
+      <c r="H54" s="23">
+        <v>7.2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="23">
+        <v>7.2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>337</v>
+      </c>
+      <c r="H55" s="23">
+        <v>7.3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="23">
+        <v>7.3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>338</v>
+      </c>
+      <c r="H56" s="23">
+        <v>7.4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="23">
+        <v>7.4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>339</v>
+      </c>
+      <c r="H57" s="23">
+        <v>8</v>
+      </c>
+      <c r="I57" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="23">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>340</v>
+      </c>
+      <c r="H58" s="23">
+        <v>8.1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="23">
+        <v>8.1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>341</v>
+      </c>
+      <c r="H59" s="23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I59" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B60" t="s">
+        <v>342</v>
+      </c>
+      <c r="H60" s="23">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I60" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="23">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B61" t="s">
+        <v>343</v>
+      </c>
+      <c r="H61" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="I47" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="25">
-        <v>0.25560185185185186</v>
-      </c>
-      <c r="B48" t="s">
-        <v>335</v>
-      </c>
-      <c r="H48" s="25" t="s">
+      <c r="I61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="23">
+        <v>0.33542824074074074</v>
+      </c>
+      <c r="B62" t="s">
+        <v>344</v>
+      </c>
+      <c r="H62" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="I48" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="25">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>336</v>
-      </c>
-      <c r="H49" s="25">
-        <v>7</v>
-      </c>
-      <c r="I49" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="H50" s="25">
-        <v>7.1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="25">
-        <v>7.1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>338</v>
-      </c>
-      <c r="H51" s="25" t="s">
+      <c r="I62" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="23">
+        <v>0.33543981481481483</v>
+      </c>
+      <c r="B63" t="s">
+        <v>345</v>
+      </c>
+      <c r="H63" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="I51" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="25">
-        <v>0.29237268518518517</v>
-      </c>
-      <c r="B52" t="s">
-        <v>339</v>
-      </c>
-      <c r="H52" s="25" t="s">
+      <c r="I63" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="23">
+        <v>0.33545138888888887</v>
+      </c>
+      <c r="B64" t="s">
+        <v>346</v>
+      </c>
+      <c r="H64" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="I52" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="25">
-        <v>0.29238425925925926</v>
-      </c>
-      <c r="B53" t="s">
-        <v>340</v>
-      </c>
-      <c r="H53" s="25" t="s">
+      <c r="I64" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="23">
+        <v>0.33546296296296302</v>
+      </c>
+      <c r="B65" t="s">
+        <v>347</v>
+      </c>
+      <c r="H65" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="I53" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="25">
-        <v>0.29239583333333335</v>
-      </c>
-      <c r="B54" t="s">
-        <v>341</v>
-      </c>
-      <c r="H54" s="25">
-        <v>7.2</v>
-      </c>
-      <c r="I54" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="25">
-        <v>7.2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>342</v>
-      </c>
-      <c r="H55" s="25">
-        <v>7.3</v>
-      </c>
-      <c r="I55" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="25">
-        <v>7.3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>343</v>
-      </c>
-      <c r="H56" s="25">
-        <v>7.4</v>
-      </c>
-      <c r="I56" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="25">
-        <v>7.4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>344</v>
-      </c>
-      <c r="H57" s="25">
-        <v>8</v>
-      </c>
-      <c r="I57" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="25">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>345</v>
-      </c>
-      <c r="H58" s="25">
+      <c r="I65" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="23">
+        <v>0.33547453703703706</v>
+      </c>
+      <c r="B66" t="s">
+        <v>348</v>
+      </c>
+      <c r="H66" s="23">
+        <v>8.4</v>
+      </c>
+      <c r="I66" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="23">
+        <v>8.4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>349</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="I67" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="23">
+        <v>0.33612268518518523</v>
+      </c>
+      <c r="B68" t="s">
+        <v>350</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="I68" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="23">
+        <v>0.33613425925925927</v>
+      </c>
+      <c r="B69" t="s">
+        <v>351</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="I69" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="23">
+        <v>0.33614583333333337</v>
+      </c>
+      <c r="B70" t="s">
+        <v>352</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="I70" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="23">
+        <v>0.3361574074074074</v>
+      </c>
+      <c r="B71" t="s">
+        <v>353</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="I71" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="23">
+        <v>0.3361689814814815</v>
+      </c>
+      <c r="B72" t="s">
+        <v>354</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="I72" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="23">
+        <v>0.33618055555555554</v>
+      </c>
+      <c r="B73" t="s">
+        <v>355</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="I73" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="23">
+        <v>0.33619212962962958</v>
+      </c>
+      <c r="B74" t="s">
+        <v>356</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="I74" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="23">
+        <v>0.33620370370370373</v>
+      </c>
+      <c r="B75" t="s">
+        <v>357</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="I75" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="23">
+        <v>0.33621527777777777</v>
+      </c>
+      <c r="B76" t="s">
+        <v>358</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="I76" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="23">
+        <v>0.33622685185185186</v>
+      </c>
+      <c r="B77" t="s">
+        <v>359</v>
+      </c>
+      <c r="H77" s="23">
+        <v>8.5</v>
+      </c>
+      <c r="I77" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="23">
+        <v>8.5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>360</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="I78" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="23">
+        <v>0.33681712962962962</v>
+      </c>
+      <c r="B79" t="s">
+        <v>361</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="I79" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="23">
+        <v>0.33682870370370371</v>
+      </c>
+      <c r="B80" t="s">
+        <v>362</v>
+      </c>
+      <c r="H80" s="23">
+        <v>8.6</v>
+      </c>
+      <c r="I80" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="23">
+        <v>8.6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>363</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="I81" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="23">
+        <v>0.33751157407407412</v>
+      </c>
+      <c r="B82" t="s">
+        <v>364</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="I82" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="23">
+        <v>0.33752314814814816</v>
+      </c>
+      <c r="B83" t="s">
+        <v>365</v>
+      </c>
+      <c r="H83" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="I83" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="23">
+        <v>0.33753472222222225</v>
+      </c>
+      <c r="B84" t="s">
+        <v>366</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="I84" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="23">
+        <v>0.33754629629629629</v>
+      </c>
+      <c r="B85" t="s">
+        <v>367</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="I85" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="23">
+        <v>0.33755787037037038</v>
+      </c>
+      <c r="B86" t="s">
+        <v>368</v>
+      </c>
+      <c r="H86" s="23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I86" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B87" t="s">
+        <v>369</v>
+      </c>
+      <c r="H87" s="23">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I87" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="23">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B88" t="s">
+        <v>370</v>
+      </c>
+      <c r="H88" s="23">
+        <v>8.9</v>
+      </c>
+      <c r="I88" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="23">
+        <v>8.9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>371</v>
+      </c>
+      <c r="H89" s="23">
         <v>8.1</v>
       </c>
-      <c r="I58" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="25">
+      <c r="I89" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="23">
         <v>8.1</v>
       </c>
-      <c r="B59" t="s">
-        <v>346</v>
-      </c>
-      <c r="H59" s="25">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I59" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="25">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B60" t="s">
-        <v>347</v>
-      </c>
-      <c r="H60" s="25">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I60" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="25">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B61" t="s">
-        <v>348</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="I61" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="25">
-        <v>0.33542824074074074</v>
-      </c>
-      <c r="B62" t="s">
-        <v>349</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="I62" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="25">
-        <v>0.33543981481481483</v>
-      </c>
-      <c r="B63" t="s">
-        <v>350</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="I63" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="25">
-        <v>0.33545138888888887</v>
-      </c>
-      <c r="B64" t="s">
-        <v>351</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="I64" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="25">
-        <v>0.33546296296296302</v>
-      </c>
-      <c r="B65" t="s">
-        <v>352</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="I65" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="25">
-        <v>0.33547453703703706</v>
-      </c>
-      <c r="B66" t="s">
-        <v>353</v>
-      </c>
-      <c r="H66" s="25">
-        <v>8.4</v>
-      </c>
-      <c r="I66" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="25">
-        <v>8.4</v>
-      </c>
-      <c r="B67" t="s">
-        <v>354</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="I67" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="25">
-        <v>0.33612268518518523</v>
-      </c>
-      <c r="B68" t="s">
-        <v>355</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="I68" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="25">
-        <v>0.33613425925925927</v>
-      </c>
-      <c r="B69" t="s">
-        <v>356</v>
-      </c>
-      <c r="H69" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="I69" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="25">
-        <v>0.33614583333333337</v>
-      </c>
-      <c r="B70" t="s">
-        <v>357</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="I70" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="25">
-        <v>0.3361574074074074</v>
-      </c>
-      <c r="B71" t="s">
-        <v>358</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="I71" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="25">
-        <v>0.3361689814814815</v>
-      </c>
-      <c r="B72" t="s">
-        <v>359</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="I72" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="25">
-        <v>0.33618055555555554</v>
-      </c>
-      <c r="B73" t="s">
-        <v>360</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="I73" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="25">
-        <v>0.33619212962962958</v>
-      </c>
-      <c r="B74" t="s">
-        <v>361</v>
-      </c>
-      <c r="H74" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="I74" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="25">
-        <v>0.33620370370370373</v>
-      </c>
-      <c r="B75" t="s">
-        <v>362</v>
-      </c>
-      <c r="H75" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="I75" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="25">
-        <v>0.33621527777777777</v>
-      </c>
-      <c r="B76" t="s">
-        <v>363</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="I76" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="25">
-        <v>0.33622685185185186</v>
-      </c>
-      <c r="B77" t="s">
-        <v>364</v>
-      </c>
-      <c r="H77" s="25">
-        <v>8.5</v>
-      </c>
-      <c r="I77" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="25">
-        <v>8.5</v>
-      </c>
-      <c r="B78" t="s">
-        <v>365</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="I78" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="25">
-        <v>0.33681712962962962</v>
-      </c>
-      <c r="B79" t="s">
-        <v>366</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="I79" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="25">
-        <v>0.33682870370370371</v>
-      </c>
-      <c r="B80" t="s">
-        <v>367</v>
-      </c>
-      <c r="H80" s="25">
-        <v>8.6</v>
-      </c>
-      <c r="I80" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="25">
-        <v>8.6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>368</v>
-      </c>
-      <c r="H81" s="25" t="s">
+      <c r="B90" t="s">
+        <v>372</v>
+      </c>
+      <c r="H90" s="23">
+        <v>8.11</v>
+      </c>
+      <c r="I90" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="23">
+        <v>8.11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>373</v>
+      </c>
+      <c r="H91" s="23">
+        <v>9</v>
+      </c>
+      <c r="I91" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="23">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>374</v>
+      </c>
+      <c r="H92" s="23">
+        <v>9.1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="23">
+        <v>9.1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>375</v>
+      </c>
+      <c r="H93" s="23">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I93" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="23">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B94" t="s">
+        <v>376</v>
+      </c>
+      <c r="H94" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="I81" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="25">
-        <v>0.33751157407407412</v>
-      </c>
-      <c r="B82" t="s">
-        <v>369</v>
-      </c>
-      <c r="H82" s="25" t="s">
+      <c r="I94" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="23">
+        <v>0.37640046296296298</v>
+      </c>
+      <c r="B95" t="s">
+        <v>377</v>
+      </c>
+      <c r="H95" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="I82" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="25">
-        <v>0.33752314814814816</v>
-      </c>
-      <c r="B83" t="s">
-        <v>370</v>
-      </c>
-      <c r="H83" s="25" t="s">
+      <c r="I95" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="23">
+        <v>0.37641203703703702</v>
+      </c>
+      <c r="B96" t="s">
+        <v>378</v>
+      </c>
+      <c r="H96" s="23" t="s">
         <v>471</v>
       </c>
-      <c r="I83" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="25">
-        <v>0.33753472222222225</v>
-      </c>
-      <c r="B84" t="s">
-        <v>371</v>
-      </c>
-      <c r="H84" s="25" t="s">
+      <c r="I96" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="23">
+        <v>0.37642361111111106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>379</v>
+      </c>
+      <c r="H97" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="I84" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="25">
-        <v>0.33754629629629629</v>
-      </c>
-      <c r="B85" t="s">
-        <v>372</v>
-      </c>
-      <c r="H85" s="25" t="s">
+      <c r="I97" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="23">
+        <v>0.37643518518518521</v>
+      </c>
+      <c r="B98" t="s">
+        <v>380</v>
+      </c>
+      <c r="H98" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="I85" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="25">
-        <v>0.33755787037037038</v>
-      </c>
-      <c r="B86" t="s">
-        <v>373</v>
-      </c>
-      <c r="H86" s="25">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I86" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="25">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="B87" t="s">
-        <v>374</v>
-      </c>
-      <c r="H87" s="25">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I87" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="25">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B88" t="s">
-        <v>375</v>
-      </c>
-      <c r="H88" s="25">
-        <v>8.9</v>
-      </c>
-      <c r="I88" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="25">
-        <v>8.9</v>
-      </c>
-      <c r="B89" t="s">
-        <v>376</v>
-      </c>
-      <c r="H89" s="25">
-        <v>8.1</v>
-      </c>
-      <c r="I89" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="25">
-        <v>8.1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>377</v>
-      </c>
-      <c r="H90" s="25">
-        <v>8.11</v>
-      </c>
-      <c r="I90" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="25">
-        <v>8.11</v>
-      </c>
-      <c r="B91" t="s">
-        <v>378</v>
-      </c>
-      <c r="H91" s="25">
-        <v>9</v>
-      </c>
-      <c r="I91" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="25">
-        <v>9</v>
-      </c>
-      <c r="B92" t="s">
-        <v>379</v>
-      </c>
-      <c r="H92" s="25">
-        <v>9.1</v>
-      </c>
-      <c r="I92" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="25">
-        <v>9.1</v>
-      </c>
-      <c r="B93" t="s">
-        <v>380</v>
-      </c>
-      <c r="H93" s="25">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="I98" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="25">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="23">
+        <v>0.37644675925925924</v>
+      </c>
+      <c r="B99" t="s">
         <v>381</v>
       </c>
-      <c r="H94" s="25" t="s">
+      <c r="H99" s="23">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I99" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="23">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B100" t="s">
+        <v>382</v>
+      </c>
+      <c r="H100" s="23">
+        <v>9.4</v>
+      </c>
+      <c r="I100" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="23">
+        <v>9.4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>383</v>
+      </c>
+      <c r="H101" s="23">
+        <v>9.5</v>
+      </c>
+      <c r="I101" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="23">
+        <v>9.5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>384</v>
+      </c>
+      <c r="H102" s="23">
+        <v>9.6</v>
+      </c>
+      <c r="I102" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="23">
+        <v>9.6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>385</v>
+      </c>
+      <c r="H103" s="23">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I103" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="23">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B104" t="s">
+        <v>386</v>
+      </c>
+      <c r="H104" s="23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I104" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B105" t="s">
+        <v>387</v>
+      </c>
+      <c r="H105" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="I105" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>388</v>
+      </c>
+      <c r="H106" s="23">
+        <v>10</v>
+      </c>
+      <c r="I106" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="23">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>389</v>
+      </c>
+      <c r="H107" s="23">
+        <v>10.1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="23">
+        <v>10.1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>390</v>
+      </c>
+      <c r="H108" s="23">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I108" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="23">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B109" t="s">
+        <v>391</v>
+      </c>
+      <c r="H109" s="23">
+        <v>10.3</v>
+      </c>
+      <c r="I109" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="23">
+        <v>10.3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>392</v>
+      </c>
+      <c r="H110" s="23">
+        <v>10.4</v>
+      </c>
+      <c r="I110" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="23">
+        <v>10.4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>393</v>
+      </c>
+      <c r="H111" s="23">
+        <v>10.5</v>
+      </c>
+      <c r="I111" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="23">
+        <v>10.5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>394</v>
+      </c>
+      <c r="H112" s="23">
+        <v>11</v>
+      </c>
+      <c r="I112" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="23">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>395</v>
+      </c>
+      <c r="H113" s="23">
+        <v>11.1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="23">
+        <v>11.1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>396</v>
+      </c>
+      <c r="H114" s="23">
+        <v>11.2</v>
+      </c>
+      <c r="I114" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="23">
+        <v>11.2</v>
+      </c>
+      <c r="B115" t="s">
+        <v>397</v>
+      </c>
+      <c r="H115" s="23">
+        <v>11.3</v>
+      </c>
+      <c r="I115" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="23">
+        <v>11.3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>398</v>
+      </c>
+      <c r="H116" s="23">
+        <v>12</v>
+      </c>
+      <c r="I116" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="23">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>399</v>
+      </c>
+      <c r="H117" s="23">
+        <v>12.1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="23">
+        <v>12.1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>400</v>
+      </c>
+      <c r="H118" s="23">
+        <v>12.2</v>
+      </c>
+      <c r="I118" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="23">
+        <v>12.2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>401</v>
+      </c>
+      <c r="H119" s="23">
+        <v>12.3</v>
+      </c>
+      <c r="I119" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="23">
+        <v>12.3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>402</v>
+      </c>
+      <c r="H120" s="23">
+        <v>12.4</v>
+      </c>
+      <c r="I120" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="23">
+        <v>12.4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>403</v>
+      </c>
+      <c r="H121" s="23">
+        <v>13</v>
+      </c>
+      <c r="I121" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="23">
+        <v>13</v>
+      </c>
+      <c r="B122" t="s">
+        <v>404</v>
+      </c>
+      <c r="H122" s="23">
+        <v>13.1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="23">
+        <v>13.1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>405</v>
+      </c>
+      <c r="H123" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="I94" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="25">
-        <v>0.37640046296296298</v>
-      </c>
-      <c r="B95" t="s">
-        <v>382</v>
-      </c>
-      <c r="H95" s="25" t="s">
+      <c r="I123" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="23">
+        <v>0.54237268518518522</v>
+      </c>
+      <c r="B124" t="s">
+        <v>406</v>
+      </c>
+      <c r="H124" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="I95" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="25">
-        <v>0.37641203703703702</v>
-      </c>
-      <c r="B96" t="s">
-        <v>383</v>
-      </c>
-      <c r="H96" s="25" t="s">
+      <c r="I124" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="23">
+        <v>0.54238425925925926</v>
+      </c>
+      <c r="B125" t="s">
+        <v>407</v>
+      </c>
+      <c r="H125" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="I96" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="25">
-        <v>0.37642361111111106</v>
-      </c>
-      <c r="B97" t="s">
-        <v>384</v>
-      </c>
-      <c r="H97" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="I97" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="25">
-        <v>0.37643518518518521</v>
-      </c>
-      <c r="B98" t="s">
-        <v>385</v>
-      </c>
-      <c r="H98" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="I98" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="25">
-        <v>0.37644675925925924</v>
-      </c>
-      <c r="B99" t="s">
-        <v>386</v>
-      </c>
-      <c r="H99" s="25">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I99" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="25">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B100" t="s">
-        <v>387</v>
-      </c>
-      <c r="H100" s="25">
-        <v>9.4</v>
-      </c>
-      <c r="I100" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="25">
-        <v>9.4</v>
-      </c>
-      <c r="B101" t="s">
-        <v>388</v>
-      </c>
-      <c r="H101" s="25">
-        <v>9.5</v>
-      </c>
-      <c r="I101" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="25">
-        <v>9.5</v>
-      </c>
-      <c r="B102" t="s">
-        <v>389</v>
-      </c>
-      <c r="H102" s="25">
-        <v>9.6</v>
-      </c>
-      <c r="I102" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="25">
-        <v>9.6</v>
-      </c>
-      <c r="B103" t="s">
-        <v>390</v>
-      </c>
-      <c r="H103" s="25">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I103" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="25">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="B104" t="s">
-        <v>391</v>
-      </c>
-      <c r="H104" s="25">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I104" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="25">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="B105" t="s">
-        <v>392</v>
-      </c>
-      <c r="H105" s="25">
-        <v>9.9</v>
-      </c>
-      <c r="I105" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="25">
-        <v>9.9</v>
-      </c>
-      <c r="B106" t="s">
-        <v>393</v>
-      </c>
-      <c r="H106" s="25">
-        <v>10</v>
-      </c>
-      <c r="I106" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="25">
-        <v>10</v>
-      </c>
-      <c r="B107" t="s">
-        <v>394</v>
-      </c>
-      <c r="H107" s="25">
-        <v>10.1</v>
-      </c>
-      <c r="I107" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="25">
-        <v>10.1</v>
-      </c>
-      <c r="B108" t="s">
-        <v>395</v>
-      </c>
-      <c r="H108" s="25">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I108" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="25">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B109" t="s">
-        <v>396</v>
-      </c>
-      <c r="H109" s="25">
-        <v>10.3</v>
-      </c>
-      <c r="I109" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="25">
-        <v>10.3</v>
-      </c>
-      <c r="B110" t="s">
-        <v>397</v>
-      </c>
-      <c r="H110" s="25">
-        <v>10.4</v>
-      </c>
-      <c r="I110" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="25">
-        <v>10.4</v>
-      </c>
-      <c r="B111" t="s">
-        <v>398</v>
-      </c>
-      <c r="H111" s="25">
-        <v>10.5</v>
-      </c>
-      <c r="I111" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="25">
-        <v>10.5</v>
-      </c>
-      <c r="B112" t="s">
-        <v>399</v>
-      </c>
-      <c r="H112" s="25">
-        <v>11</v>
-      </c>
-      <c r="I112" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="25">
-        <v>11</v>
-      </c>
-      <c r="B113" t="s">
-        <v>400</v>
-      </c>
-      <c r="H113" s="25">
-        <v>11.1</v>
-      </c>
-      <c r="I113" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="25">
-        <v>11.1</v>
-      </c>
-      <c r="B114" t="s">
-        <v>401</v>
-      </c>
-      <c r="H114" s="25">
-        <v>11.2</v>
-      </c>
-      <c r="I114" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="25">
-        <v>11.2</v>
-      </c>
-      <c r="B115" t="s">
-        <v>402</v>
-      </c>
-      <c r="H115" s="25">
-        <v>11.3</v>
-      </c>
-      <c r="I115" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="25">
-        <v>11.3</v>
-      </c>
-      <c r="B116" t="s">
-        <v>403</v>
-      </c>
-      <c r="H116" s="25">
-        <v>12</v>
-      </c>
-      <c r="I116" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="25">
-        <v>12</v>
-      </c>
-      <c r="B117" t="s">
-        <v>404</v>
-      </c>
-      <c r="H117" s="25">
-        <v>12.1</v>
-      </c>
-      <c r="I117" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="25">
-        <v>12.1</v>
-      </c>
-      <c r="B118" t="s">
-        <v>405</v>
-      </c>
-      <c r="H118" s="25">
-        <v>12.2</v>
-      </c>
-      <c r="I118" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="25">
-        <v>12.2</v>
-      </c>
-      <c r="B119" t="s">
-        <v>406</v>
-      </c>
-      <c r="H119" s="25">
-        <v>12.3</v>
-      </c>
-      <c r="I119" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="25">
-        <v>12.3</v>
-      </c>
-      <c r="B120" t="s">
-        <v>407</v>
-      </c>
-      <c r="H120" s="25">
-        <v>12.4</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="I125" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="25">
-        <v>12.4</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="23">
+        <v>0.5423958333333333</v>
+      </c>
+      <c r="B126" t="s">
         <v>408</v>
       </c>
-      <c r="H121" s="25">
-        <v>13</v>
-      </c>
-      <c r="I121" t="s">
+      <c r="H126" s="23">
+        <v>13.2</v>
+      </c>
+      <c r="I126" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="25">
-        <v>13</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="23">
+        <v>13.2</v>
+      </c>
+      <c r="B127" t="s">
         <v>409</v>
       </c>
-      <c r="H122" s="25">
-        <v>13.1</v>
-      </c>
-      <c r="I122" t="s">
+      <c r="H127" s="23">
+        <v>13.3</v>
+      </c>
+      <c r="I127" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="25">
-        <v>13.1</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="23">
+        <v>13.3</v>
+      </c>
+      <c r="B128" t="s">
         <v>410</v>
       </c>
-      <c r="H123" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="I123" t="s">
+      <c r="H128" s="23">
+        <v>13.4</v>
+      </c>
+      <c r="I128" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="25">
-        <v>0.54237268518518522</v>
-      </c>
-      <c r="B124" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="23">
+        <v>13.4</v>
+      </c>
+      <c r="B129" t="s">
         <v>411</v>
       </c>
-      <c r="H124" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="I124" t="s">
+      <c r="H129" s="23">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="25">
-        <v>0.54238425925925926</v>
-      </c>
-      <c r="B125" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="23">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
         <v>412</v>
       </c>
-      <c r="H125" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="I125" t="s">
+      <c r="H130" s="23">
+        <v>15</v>
+      </c>
+      <c r="I130" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="25">
-        <v>0.5423958333333333</v>
-      </c>
-      <c r="B126" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="23">
+        <v>15</v>
+      </c>
+      <c r="B131" t="s">
         <v>413</v>
-      </c>
-      <c r="H126" s="25">
-        <v>13.2</v>
-      </c>
-      <c r="I126" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="25">
-        <v>13.2</v>
-      </c>
-      <c r="B127" t="s">
-        <v>414</v>
-      </c>
-      <c r="H127" s="25">
-        <v>13.3</v>
-      </c>
-      <c r="I127" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="25">
-        <v>13.3</v>
-      </c>
-      <c r="B128" t="s">
-        <v>415</v>
-      </c>
-      <c r="H128" s="25">
-        <v>13.4</v>
-      </c>
-      <c r="I128" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="25">
-        <v>13.4</v>
-      </c>
-      <c r="B129" t="s">
-        <v>416</v>
-      </c>
-      <c r="H129" s="25">
-        <v>14</v>
-      </c>
-      <c r="I129" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="25">
-        <v>14</v>
-      </c>
-      <c r="B130" t="s">
-        <v>417</v>
-      </c>
-      <c r="H130" s="25">
-        <v>15</v>
-      </c>
-      <c r="I130" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="25">
-        <v>15</v>
-      </c>
-      <c r="B131" t="s">
-        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -6546,18 +6450,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6583,23 +6487,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>57</v>
+      <c r="F1" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6613,33 +6517,33 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -6663,119 +6567,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="A1" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="A2" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="B5" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="B6" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="B8" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="A9" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="A10" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>223</v>
+      <c r="A12" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>11</v>
@@ -6784,41 +6688,41 @@
         <v>2</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6835,16 +6739,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6868,54 +6772,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>273</v>
+      <c r="A1" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -6942,25 +6846,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>260</v>
+      <c r="A1" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6968,10 +6872,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6979,21 +6883,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -7022,13 +6926,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>178</v>
+      <c r="A1" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -7037,22 +6941,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -7072,13 +6976,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>182</v>
+      <c r="A3" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -7100,7 +7004,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -7122,7 +7026,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -7144,7 +7048,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -7166,30 +7070,30 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="17" t="s">
-        <v>220</v>
+      <c r="C7" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="17" t="s">
-        <v>221</v>
+      <c r="C8" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -7203,14 +7107,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>222</v>
+      <c r="C9" s="22" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7221,7 +7125,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -7292,17 +7196,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>282</v>
+      <c r="A1" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7310,7 +7214,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7318,13 +7222,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7352,72 +7256,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -7444,84 +7348,84 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
         <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
         <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/invalid_section_levels.xlsx
+++ b/tests/integration_test_files/invalid_section_levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4207DD9-9F1F-8E4F-BD46-8A7CA9E8FDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0AB118-4285-8E4B-880D-F92DBF9CC185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -204,9 +204,6 @@
     <t>trialTypes</t>
   </si>
   <si>
-    <t>line|city|district|state|postal_code|GBR</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
   </si>
   <si>
     <t>AP1234</t>
-  </si>
-  <si>
-    <t>Somewhere|In a City|In a District|In a big state|12345|FRA</t>
   </si>
   <si>
     <t>organisationAddress</t>
@@ -1770,6 +1764,12 @@
   </si>
   <si>
     <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>line|district|city|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
 </sst>
 </file>
@@ -1923,10 +1923,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2264,10 +2264,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2279,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2303,7 +2303,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2315,7 +2315,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2336,10 +2336,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2348,10 +2348,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2372,10 +2372,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2454,7 +2454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -2474,85 +2474,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>568</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2561,16 +2561,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2579,16 +2579,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2597,16 +2597,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2615,16 +2615,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2633,16 +2633,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2651,16 +2651,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2669,16 +2669,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2687,16 +2687,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2705,16 +2705,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2723,16 +2723,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3037,90 +3037,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
         <v>130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
         <v>162</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>163</v>
       </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" t="s">
         <v>164</v>
-      </c>
-      <c r="E5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3149,65 +3149,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" t="s">
         <v>182</v>
-      </c>
-      <c r="B2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>186</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3240,137 +3240,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>194</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3397,104 +3397,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3521,16 +3521,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3539,1201 +3539,1201 @@
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B48" s="25"/>
       <c r="C48" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B52" s="25"/>
       <c r="C52" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B56" s="25"/>
       <c r="C56" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B59" s="25"/>
       <c r="C59" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B62" s="25"/>
       <c r="C62" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B63" s="25"/>
       <c r="C63" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B65" s="25"/>
       <c r="C65" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B66" s="25"/>
       <c r="C66" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B67" s="25"/>
       <c r="C67" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B68" s="25"/>
       <c r="C68" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B70" s="25"/>
       <c r="C70" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B71" s="25"/>
       <c r="C71" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B73" s="25"/>
       <c r="C73" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B74" s="25"/>
       <c r="C74" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B75" s="25"/>
       <c r="C75" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B76" s="25"/>
       <c r="C76" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B77" s="25"/>
       <c r="C77" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B78" s="25"/>
       <c r="C78" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B79" s="25"/>
       <c r="C79" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B80" s="25"/>
       <c r="C80" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B81" s="25"/>
       <c r="C81" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B82" s="25"/>
       <c r="C82" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B83" s="25"/>
       <c r="C83" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B84" s="25"/>
       <c r="C84" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B85" s="25"/>
       <c r="C85" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B86" s="25"/>
       <c r="C86" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B87" s="25"/>
       <c r="C87" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B88" s="25"/>
       <c r="C88" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B89" s="25"/>
       <c r="C89" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B90" s="25"/>
       <c r="C90" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B91" s="25"/>
       <c r="C91" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B92" s="25"/>
       <c r="C92" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B93" s="25"/>
       <c r="C93" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B95" s="25"/>
       <c r="C95" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B96" s="25"/>
       <c r="C96" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B97" s="25"/>
       <c r="C97" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B98" s="25"/>
       <c r="C98" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B99" s="25"/>
       <c r="C99" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B100" s="25"/>
       <c r="C100" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B101" s="25"/>
       <c r="C101" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B102" s="25"/>
       <c r="C102" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B103" s="25"/>
       <c r="C103" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B104" s="25"/>
       <c r="C104" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B105" s="25"/>
       <c r="C105" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B106" s="25"/>
       <c r="C106" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B107" s="25"/>
       <c r="C107" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B108" s="25"/>
       <c r="C108" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B109" s="25"/>
       <c r="C109" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B110" s="25"/>
       <c r="C110" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B111" s="25"/>
       <c r="C111" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B112" s="25"/>
       <c r="C112" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B113" s="25"/>
       <c r="C113" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B114" s="25"/>
       <c r="C114" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B115" s="25"/>
       <c r="C115" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B116" s="25"/>
       <c r="C116" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B117" s="25"/>
       <c r="C117" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B118" s="25"/>
       <c r="C118" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B119" s="25"/>
       <c r="C119" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B120" s="25"/>
       <c r="C120" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B121" s="25"/>
       <c r="C121" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B122" s="25"/>
       <c r="C122" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B123" s="25"/>
       <c r="C123" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B124" s="25"/>
       <c r="C124" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B125" s="25"/>
       <c r="C125" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B126" s="25"/>
       <c r="C126" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B127" s="25"/>
       <c r="C127" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B128" s="25"/>
       <c r="C128" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B129" s="25"/>
       <c r="C129" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B130" s="25"/>
       <c r="C130" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B131" s="25"/>
       <c r="C131" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -4761,13 +4761,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O1" s="23" t="str">
         <f>TEXT(H2,"0")</f>
@@ -4779,13 +4779,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O2" s="23" t="str">
         <f>TEXT(H3,"0")</f>
@@ -4797,13 +4797,13 @@
         <v>1.2</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O3" s="23" t="str">
         <f>TEXT(H4,"0")</f>
@@ -4815,13 +4815,13 @@
         <v>1.3</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O4" s="23" t="str">
         <f>TEXT(H5,"0")</f>
@@ -4833,13 +4833,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -4847,13 +4847,13 @@
         <v>2.1</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -4861,13 +4861,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -4875,13 +4875,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -4889,13 +4889,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -4903,13 +4903,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -4917,13 +4917,13 @@
         <v>0.16737268518518519</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -4931,13 +4931,13 @@
         <v>4.2</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -4945,13 +4945,13 @@
         <v>0.16806712962962964</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -4959,13 +4959,13 @@
         <v>0.1680787037037037</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -4973,13 +4973,13 @@
         <v>0.16809027777777777</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -4987,13 +4987,13 @@
         <v>4.3</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H16" s="22">
         <v>4.3</v>
       </c>
       <c r="I16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5001,13 +5001,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H17" s="22">
         <v>4.4000000000000004</v>
       </c>
       <c r="I17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -5015,13 +5015,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H18" s="22">
         <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -5029,13 +5029,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H19" s="22">
         <v>5.0999999999999996</v>
       </c>
       <c r="I19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -5043,13 +5043,13 @@
         <v>5.2</v>
       </c>
       <c r="B20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H20" s="22">
         <v>5.2</v>
       </c>
       <c r="I20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -5057,13 +5057,13 @@
         <v>5.3</v>
       </c>
       <c r="B21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H21" s="22">
         <v>5.3</v>
       </c>
       <c r="I21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -5071,13 +5071,13 @@
         <v>5.4</v>
       </c>
       <c r="B22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H22" s="22">
         <v>5.4</v>
       </c>
       <c r="I22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -5085,13 +5085,13 @@
         <v>5.5</v>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H23" s="22">
         <v>5.5</v>
       </c>
       <c r="I23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -5099,13 +5099,13 @@
         <v>0.21181712962962962</v>
       </c>
       <c r="B24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5113,13 +5113,13 @@
         <v>0.21182870370370369</v>
       </c>
       <c r="B25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -5127,13 +5127,13 @@
         <v>0.21184027777777778</v>
       </c>
       <c r="B26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -5141,13 +5141,13 @@
         <v>0.21185185185185185</v>
       </c>
       <c r="B27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5155,13 +5155,13 @@
         <v>5.6</v>
       </c>
       <c r="B28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H28" s="22">
         <v>5.6</v>
       </c>
       <c r="I28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -5169,13 +5169,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H29" s="22">
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5183,13 +5183,13 @@
         <v>6.1</v>
       </c>
       <c r="B30" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H30" s="22">
         <v>6.1</v>
       </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -5197,13 +5197,13 @@
         <v>6.2</v>
       </c>
       <c r="B31" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H31" s="22">
         <v>6.2</v>
       </c>
       <c r="I31" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -5211,13 +5211,13 @@
         <v>6.3</v>
       </c>
       <c r="B32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H32" s="22">
         <v>6.3</v>
       </c>
       <c r="I32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -5225,13 +5225,13 @@
         <v>0.25209490740740742</v>
       </c>
       <c r="B33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -5239,13 +5239,13 @@
         <v>6.4</v>
       </c>
       <c r="B34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H34" s="22">
         <v>6.4</v>
       </c>
       <c r="I34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5253,13 +5253,13 @@
         <v>6.5</v>
       </c>
       <c r="B35" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H35" s="22">
         <v>6.5</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -5267,13 +5267,13 @@
         <v>0.2534837962962963</v>
       </c>
       <c r="B36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -5281,13 +5281,13 @@
         <v>0.25349537037037034</v>
       </c>
       <c r="B37" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I37" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -5295,13 +5295,13 @@
         <v>0.25350694444444444</v>
       </c>
       <c r="B38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -5309,13 +5309,13 @@
         <v>6.6</v>
       </c>
       <c r="B39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H39" s="22">
         <v>6.6</v>
       </c>
       <c r="I39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -5323,13 +5323,13 @@
         <v>0.25417824074074075</v>
       </c>
       <c r="B40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -5337,13 +5337,13 @@
         <v>0.25418981481481479</v>
       </c>
       <c r="B41" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I41" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -5351,13 +5351,13 @@
         <v>0.25420138888888888</v>
       </c>
       <c r="B42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -5365,13 +5365,13 @@
         <v>6.7</v>
       </c>
       <c r="B43" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H43" s="22">
         <v>6.7</v>
       </c>
       <c r="I43" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -5379,13 +5379,13 @@
         <v>6.8</v>
       </c>
       <c r="B44" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H44" s="22">
         <v>6.8</v>
       </c>
       <c r="I44" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -5393,13 +5393,13 @@
         <v>0.25556712962962963</v>
       </c>
       <c r="B45" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I45" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -5407,13 +5407,13 @@
         <v>0.25557870370370367</v>
       </c>
       <c r="B46" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I46" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -5421,13 +5421,13 @@
         <v>0.25559027777777776</v>
       </c>
       <c r="B47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -5435,13 +5435,13 @@
         <v>0.25560185185185186</v>
       </c>
       <c r="B48" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I48" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -5449,24 +5449,24 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H49" s="22">
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H50" s="22">
         <v>7.1</v>
       </c>
       <c r="I50" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -5474,13 +5474,13 @@
         <v>7.1</v>
       </c>
       <c r="B51" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I51" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -5488,13 +5488,13 @@
         <v>0.29237268518518517</v>
       </c>
       <c r="B52" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I52" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -5502,13 +5502,13 @@
         <v>0.29238425925925926</v>
       </c>
       <c r="B53" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I53" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -5516,13 +5516,13 @@
         <v>0.29239583333333335</v>
       </c>
       <c r="B54" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H54" s="22">
         <v>7.2</v>
       </c>
       <c r="I54" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -5530,13 +5530,13 @@
         <v>7.2</v>
       </c>
       <c r="B55" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H55" s="22">
         <v>7.3</v>
       </c>
       <c r="I55" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -5544,13 +5544,13 @@
         <v>7.3</v>
       </c>
       <c r="B56" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H56" s="22">
         <v>7.4</v>
       </c>
       <c r="I56" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -5558,13 +5558,13 @@
         <v>7.4</v>
       </c>
       <c r="B57" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H57" s="22">
         <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -5572,13 +5572,13 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H58" s="22">
         <v>8.1</v>
       </c>
       <c r="I58" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -5586,13 +5586,13 @@
         <v>8.1</v>
       </c>
       <c r="B59" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H59" s="22">
         <v>8.1999999999999993</v>
       </c>
       <c r="I59" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -5600,13 +5600,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H60" s="22">
         <v>8.3000000000000007</v>
       </c>
       <c r="I60" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -5614,13 +5614,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I61" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -5628,13 +5628,13 @@
         <v>0.33542824074074074</v>
       </c>
       <c r="B62" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I62" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -5642,13 +5642,13 @@
         <v>0.33543981481481483</v>
       </c>
       <c r="B63" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I63" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -5656,13 +5656,13 @@
         <v>0.33545138888888887</v>
       </c>
       <c r="B64" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I64" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -5670,13 +5670,13 @@
         <v>0.33546296296296302</v>
       </c>
       <c r="B65" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I65" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -5684,13 +5684,13 @@
         <v>0.33547453703703706</v>
       </c>
       <c r="B66" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H66" s="22">
         <v>8.4</v>
       </c>
       <c r="I66" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -5698,13 +5698,13 @@
         <v>8.4</v>
       </c>
       <c r="B67" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I67" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -5712,13 +5712,13 @@
         <v>0.33612268518518523</v>
       </c>
       <c r="B68" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -5726,13 +5726,13 @@
         <v>0.33613425925925927</v>
       </c>
       <c r="B69" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I69" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -5740,13 +5740,13 @@
         <v>0.33614583333333337</v>
       </c>
       <c r="B70" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -5754,13 +5754,13 @@
         <v>0.3361574074074074</v>
       </c>
       <c r="B71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I71" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -5768,13 +5768,13 @@
         <v>0.3361689814814815</v>
       </c>
       <c r="B72" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I72" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -5782,13 +5782,13 @@
         <v>0.33618055555555554</v>
       </c>
       <c r="B73" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -5796,13 +5796,13 @@
         <v>0.33619212962962958</v>
       </c>
       <c r="B74" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I74" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -5810,13 +5810,13 @@
         <v>0.33620370370370373</v>
       </c>
       <c r="B75" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I75" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -5824,13 +5824,13 @@
         <v>0.33621527777777777</v>
       </c>
       <c r="B76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I76" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -5838,13 +5838,13 @@
         <v>0.33622685185185186</v>
       </c>
       <c r="B77" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H77" s="22">
         <v>8.5</v>
       </c>
       <c r="I77" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -5852,13 +5852,13 @@
         <v>8.5</v>
       </c>
       <c r="B78" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I78" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -5866,13 +5866,13 @@
         <v>0.33681712962962962</v>
       </c>
       <c r="B79" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I79" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -5880,13 +5880,13 @@
         <v>0.33682870370370371</v>
       </c>
       <c r="B80" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H80" s="22">
         <v>8.6</v>
       </c>
       <c r="I80" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -5894,13 +5894,13 @@
         <v>8.6</v>
       </c>
       <c r="B81" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I81" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -5908,13 +5908,13 @@
         <v>0.33751157407407412</v>
       </c>
       <c r="B82" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I82" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -5922,13 +5922,13 @@
         <v>0.33752314814814816</v>
       </c>
       <c r="B83" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I83" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -5936,13 +5936,13 @@
         <v>0.33753472222222225</v>
       </c>
       <c r="B84" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I84" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -5950,13 +5950,13 @@
         <v>0.33754629629629629</v>
       </c>
       <c r="B85" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I85" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -5964,13 +5964,13 @@
         <v>0.33755787037037038</v>
       </c>
       <c r="B86" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H86" s="22">
         <v>8.6999999999999993</v>
       </c>
       <c r="I86" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -5978,13 +5978,13 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B87" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H87" s="22">
         <v>8.8000000000000007</v>
       </c>
       <c r="I87" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -5992,13 +5992,13 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B88" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H88" s="22">
         <v>8.9</v>
       </c>
       <c r="I88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -6006,13 +6006,13 @@
         <v>8.9</v>
       </c>
       <c r="B89" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H89" s="22">
         <v>8.1</v>
       </c>
       <c r="I89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -6020,13 +6020,13 @@
         <v>8.1</v>
       </c>
       <c r="B90" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H90" s="22">
         <v>8.11</v>
       </c>
       <c r="I90" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -6034,13 +6034,13 @@
         <v>8.11</v>
       </c>
       <c r="B91" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H91" s="22">
         <v>9</v>
       </c>
       <c r="I91" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -6048,13 +6048,13 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H92" s="22">
         <v>9.1</v>
       </c>
       <c r="I92" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -6062,13 +6062,13 @@
         <v>9.1</v>
       </c>
       <c r="B93" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H93" s="22">
         <v>9.1999999999999993</v>
       </c>
       <c r="I93" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -6076,13 +6076,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B94" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I94" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -6090,13 +6090,13 @@
         <v>0.37640046296296298</v>
       </c>
       <c r="B95" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I95" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -6104,13 +6104,13 @@
         <v>0.37641203703703702</v>
       </c>
       <c r="B96" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I96" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -6118,13 +6118,13 @@
         <v>0.37642361111111106</v>
       </c>
       <c r="B97" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I97" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -6132,13 +6132,13 @@
         <v>0.37643518518518521</v>
       </c>
       <c r="B98" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I98" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -6146,13 +6146,13 @@
         <v>0.37644675925925924</v>
       </c>
       <c r="B99" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H99" s="22">
         <v>9.3000000000000007</v>
       </c>
       <c r="I99" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -6160,13 +6160,13 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B100" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H100" s="22">
         <v>9.4</v>
       </c>
       <c r="I100" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -6174,13 +6174,13 @@
         <v>9.4</v>
       </c>
       <c r="B101" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H101" s="22">
         <v>9.5</v>
       </c>
       <c r="I101" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -6188,13 +6188,13 @@
         <v>9.5</v>
       </c>
       <c r="B102" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H102" s="22">
         <v>9.6</v>
       </c>
       <c r="I102" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -6202,13 +6202,13 @@
         <v>9.6</v>
       </c>
       <c r="B103" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H103" s="22">
         <v>9.6999999999999993</v>
       </c>
       <c r="I103" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -6216,13 +6216,13 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="B104" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H104" s="22">
         <v>9.8000000000000007</v>
       </c>
       <c r="I104" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -6230,13 +6230,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="B105" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H105" s="22">
         <v>9.9</v>
       </c>
       <c r="I105" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -6244,13 +6244,13 @@
         <v>9.9</v>
       </c>
       <c r="B106" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H106" s="22">
         <v>10</v>
       </c>
       <c r="I106" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -6258,13 +6258,13 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H107" s="22">
         <v>10.1</v>
       </c>
       <c r="I107" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -6272,13 +6272,13 @@
         <v>10.1</v>
       </c>
       <c r="B108" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H108" s="22">
         <v>10.199999999999999</v>
       </c>
       <c r="I108" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -6286,13 +6286,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B109" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H109" s="22">
         <v>10.3</v>
       </c>
       <c r="I109" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -6300,13 +6300,13 @@
         <v>10.3</v>
       </c>
       <c r="B110" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H110" s="22">
         <v>10.4</v>
       </c>
       <c r="I110" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -6314,13 +6314,13 @@
         <v>10.4</v>
       </c>
       <c r="B111" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H111" s="22">
         <v>10.5</v>
       </c>
       <c r="I111" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -6328,13 +6328,13 @@
         <v>10.5</v>
       </c>
       <c r="B112" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H112" s="22">
         <v>11</v>
       </c>
       <c r="I112" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -6342,13 +6342,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H113" s="22">
         <v>11.1</v>
       </c>
       <c r="I113" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -6356,13 +6356,13 @@
         <v>11.1</v>
       </c>
       <c r="B114" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H114" s="22">
         <v>11.2</v>
       </c>
       <c r="I114" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -6370,13 +6370,13 @@
         <v>11.2</v>
       </c>
       <c r="B115" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H115" s="22">
         <v>11.3</v>
       </c>
       <c r="I115" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -6384,13 +6384,13 @@
         <v>11.3</v>
       </c>
       <c r="B116" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H116" s="22">
         <v>12</v>
       </c>
       <c r="I116" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -6398,13 +6398,13 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H117" s="22">
         <v>12.1</v>
       </c>
       <c r="I117" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -6412,13 +6412,13 @@
         <v>12.1</v>
       </c>
       <c r="B118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H118" s="22">
         <v>12.2</v>
       </c>
       <c r="I118" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -6426,13 +6426,13 @@
         <v>12.2</v>
       </c>
       <c r="B119" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H119" s="22">
         <v>12.3</v>
       </c>
       <c r="I119" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -6440,13 +6440,13 @@
         <v>12.3</v>
       </c>
       <c r="B120" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H120" s="22">
         <v>12.4</v>
       </c>
       <c r="I120" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -6454,13 +6454,13 @@
         <v>12.4</v>
       </c>
       <c r="B121" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H121" s="22">
         <v>13</v>
       </c>
       <c r="I121" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -6468,13 +6468,13 @@
         <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H122" s="22">
         <v>13.1</v>
       </c>
       <c r="I122" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -6482,13 +6482,13 @@
         <v>13.1</v>
       </c>
       <c r="B123" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H123" s="22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I123" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -6496,13 +6496,13 @@
         <v>0.54237268518518522</v>
       </c>
       <c r="B124" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H124" s="22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I124" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -6510,13 +6510,13 @@
         <v>0.54238425925925926</v>
       </c>
       <c r="B125" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I125" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -6524,13 +6524,13 @@
         <v>0.5423958333333333</v>
       </c>
       <c r="B126" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H126" s="22">
         <v>13.2</v>
       </c>
       <c r="I126" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -6538,13 +6538,13 @@
         <v>13.2</v>
       </c>
       <c r="B127" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H127" s="22">
         <v>13.3</v>
       </c>
       <c r="I127" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -6552,13 +6552,13 @@
         <v>13.3</v>
       </c>
       <c r="B128" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H128" s="22">
         <v>13.4</v>
       </c>
       <c r="I128" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -6566,13 +6566,13 @@
         <v>13.4</v>
       </c>
       <c r="B129" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H129" s="22">
         <v>14</v>
       </c>
       <c r="I129" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -6580,13 +6580,13 @@
         <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H130" s="22">
         <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -6594,7 +6594,7 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -6618,18 +6618,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>157</v>
-      </c>
-      <c r="B1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6641,8 +6641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6671,7 +6671,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6685,33 +6685,33 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -6736,10 +6736,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -6747,10 +6747,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -6760,41 +6760,41 @@
       <c r="A3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -6805,7 +6805,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -6816,7 +6816,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -6824,10 +6824,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -6835,7 +6835,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>42</v>
@@ -6864,16 +6864,16 @@
         <v>40</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6881,16 +6881,16 @@
         <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6907,16 +6907,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6941,19 +6941,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>265</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6961,16 +6961,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6981,13 +6981,13 @@
         <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -7015,13 +7015,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>252</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -7029,10 +7029,10 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -7040,10 +7040,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7051,10 +7051,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -7062,10 +7062,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -7095,10 +7095,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -7119,10 +7119,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -7145,10 +7145,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -7239,29 +7239,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -7282,7 +7282,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7293,7 +7293,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -7365,16 +7365,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>274</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7382,7 +7382,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7390,13 +7390,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7424,72 +7424,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7516,84 +7516,84 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B2" t="s">
         <v>527</v>
-      </c>
-      <c r="B2" t="s">
-        <v>529</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
         <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/invalid_section_levels.xlsx
+++ b/tests/integration_test_files/invalid_section_levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0AB118-4285-8E4B-880D-F92DBF9CC185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C16984-0457-B248-B9B8-4BC54AA1C06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="53500" yWindow="860" windowWidth="33000" windowHeight="22600" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -20,16 +20,17 @@
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
     <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId8"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId9"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId10"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId15"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId16"/>
-    <sheet name="configuration" sheetId="10" r:id="rId17"/>
+    <sheet name="studyDesignInterventions" sheetId="19" r:id="rId8"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId17"/>
+    <sheet name="configuration" sheetId="10" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="608">
   <si>
     <t>Epoch</t>
   </si>
@@ -231,34 +232,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
-  </si>
-  <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
   </si>
   <si>
     <t>populationDescription</t>
@@ -1771,12 +1754,144 @@
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1820,6 +1935,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1853,7 +1974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1923,14 +2044,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2264,10 +2387,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2279,7 +2402,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2324,10 +2447,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2336,10 +2459,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2348,10 +2471,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2360,10 +2483,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2372,10 +2495,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2384,10 +2507,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2396,10 +2519,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2408,7 +2531,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2420,10 +2543,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2451,6 +2574,110 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2474,85 +2701,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2561,16 +2788,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2579,16 +2806,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2597,16 +2824,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2615,16 +2842,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2633,16 +2860,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2651,16 +2878,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2669,16 +2896,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2687,16 +2914,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2705,16 +2932,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2723,16 +2950,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3017,7 +3244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3037,90 +3264,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
       <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
         <v>105</v>
       </c>
-      <c r="G2" t="s">
-        <v>111</v>
-      </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3128,7 +3355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3149,65 +3376,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3220,7 +3447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3240,137 +3467,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>188</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3379,7 +3606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3397,104 +3624,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3503,7 +3730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D137"/>
   <sheetViews>
@@ -3521,16 +3748,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3539,1201 +3766,1201 @@
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B48" s="25"/>
       <c r="C48" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="9" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B52" s="25"/>
       <c r="C52" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B56" s="25"/>
       <c r="C56" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B59" s="25"/>
       <c r="C59" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B62" s="25"/>
       <c r="C62" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B63" s="25"/>
       <c r="C63" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B65" s="25"/>
       <c r="C65" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B66" s="25"/>
       <c r="C66" s="9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B67" s="25"/>
       <c r="C67" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B68" s="25"/>
       <c r="C68" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B70" s="25"/>
       <c r="C70" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B71" s="25"/>
       <c r="C71" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="9" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B73" s="25"/>
       <c r="C73" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B74" s="25"/>
       <c r="C74" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B75" s="25"/>
       <c r="C75" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B76" s="25"/>
       <c r="C76" s="9" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B77" s="25"/>
       <c r="C77" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B78" s="25"/>
       <c r="C78" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B79" s="25"/>
       <c r="C79" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B80" s="25"/>
       <c r="C80" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B81" s="25"/>
       <c r="C81" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B82" s="25"/>
       <c r="C82" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B83" s="25"/>
       <c r="C83" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B84" s="25"/>
       <c r="C84" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B85" s="25"/>
       <c r="C85" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B86" s="25"/>
       <c r="C86" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B87" s="25"/>
       <c r="C87" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B88" s="25"/>
       <c r="C88" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B89" s="25"/>
       <c r="C89" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B90" s="25"/>
       <c r="C90" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B91" s="25"/>
       <c r="C91" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B92" s="25"/>
       <c r="C92" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B93" s="25"/>
       <c r="C93" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B95" s="25"/>
       <c r="C95" s="9" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B96" s="25"/>
       <c r="C96" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B97" s="25"/>
       <c r="C97" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B98" s="25"/>
       <c r="C98" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B99" s="25"/>
       <c r="C99" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B100" s="25"/>
       <c r="C100" s="9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B101" s="25"/>
       <c r="C101" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B102" s="25"/>
       <c r="C102" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B103" s="25"/>
       <c r="C103" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B104" s="25"/>
       <c r="C104" s="9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B105" s="25"/>
       <c r="C105" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B106" s="25"/>
       <c r="C106" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B107" s="25"/>
       <c r="C107" s="9" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B108" s="25"/>
       <c r="C108" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B109" s="25"/>
       <c r="C109" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B110" s="25"/>
       <c r="C110" s="9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B111" s="25"/>
       <c r="C111" s="9" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B112" s="25"/>
       <c r="C112" s="9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B113" s="25"/>
       <c r="C113" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B114" s="25"/>
       <c r="C114" s="9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B115" s="25"/>
       <c r="C115" s="9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B116" s="25"/>
       <c r="C116" s="9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B117" s="25"/>
       <c r="C117" s="9" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B118" s="25"/>
       <c r="C118" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B119" s="25"/>
       <c r="C119" s="9" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B120" s="25"/>
       <c r="C120" s="9" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B121" s="25"/>
       <c r="C121" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B122" s="25"/>
       <c r="C122" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B123" s="25"/>
       <c r="C123" s="9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B124" s="25"/>
       <c r="C124" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B125" s="25"/>
       <c r="C125" s="9" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B126" s="25"/>
       <c r="C126" s="9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B127" s="25"/>
       <c r="C127" s="9" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B128" s="25"/>
       <c r="C128" s="9" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B129" s="25"/>
       <c r="C129" s="9" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B130" s="25"/>
       <c r="C130" s="9" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B131" s="25"/>
       <c r="C131" s="9" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -4742,7 +4969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0003C67-3768-3A4E-9F90-6843014614B3}">
   <dimension ref="A1:O131"/>
   <sheetViews>
@@ -4761,13 +4988,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O1" s="23" t="str">
         <f>TEXT(H2,"0")</f>
@@ -4779,13 +5006,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="I2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="O2" s="23" t="str">
         <f>TEXT(H3,"0")</f>
@@ -4797,13 +5024,13 @@
         <v>1.2</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="I3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O3" s="23" t="str">
         <f>TEXT(H4,"0")</f>
@@ -4815,13 +5042,13 @@
         <v>1.3</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="I4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O4" s="23" t="str">
         <f>TEXT(H5,"0")</f>
@@ -4833,13 +5060,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="I5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -4847,13 +5074,13 @@
         <v>2.1</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -4861,13 +5088,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="I7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -4875,13 +5102,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="I8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -4889,13 +5116,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="I9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -4903,13 +5130,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="I10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -4917,13 +5144,13 @@
         <v>0.16737268518518519</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="I11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -4931,13 +5158,13 @@
         <v>4.2</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="I12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -4945,13 +5172,13 @@
         <v>0.16806712962962964</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="I13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -4959,13 +5186,13 @@
         <v>0.1680787037037037</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="I14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -4973,13 +5200,13 @@
         <v>0.16809027777777777</v>
       </c>
       <c r="B15" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I15" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -4987,13 +5214,13 @@
         <v>4.3</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H16" s="22">
         <v>4.3</v>
       </c>
       <c r="I16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5001,13 +5228,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H17" s="22">
         <v>4.4000000000000004</v>
       </c>
       <c r="I17" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -5015,13 +5242,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H18" s="22">
         <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -5029,13 +5256,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H19" s="22">
         <v>5.0999999999999996</v>
       </c>
       <c r="I19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -5043,13 +5270,13 @@
         <v>5.2</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H20" s="22">
         <v>5.2</v>
       </c>
       <c r="I20" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -5057,13 +5284,13 @@
         <v>5.3</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H21" s="22">
         <v>5.3</v>
       </c>
       <c r="I21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -5071,13 +5298,13 @@
         <v>5.4</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H22" s="22">
         <v>5.4</v>
       </c>
       <c r="I22" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -5085,13 +5312,13 @@
         <v>5.5</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H23" s="22">
         <v>5.5</v>
       </c>
       <c r="I23" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -5099,13 +5326,13 @@
         <v>0.21181712962962962</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I24" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5113,13 +5340,13 @@
         <v>0.21182870370370369</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="I25" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -5127,13 +5354,13 @@
         <v>0.21184027777777778</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I26" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -5141,13 +5368,13 @@
         <v>0.21185185185185185</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I27" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5155,13 +5382,13 @@
         <v>5.6</v>
       </c>
       <c r="B28" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H28" s="22">
         <v>5.6</v>
       </c>
       <c r="I28" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -5169,13 +5396,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H29" s="22">
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5183,13 +5410,13 @@
         <v>6.1</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H30" s="22">
         <v>6.1</v>
       </c>
       <c r="I30" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -5197,13 +5424,13 @@
         <v>6.2</v>
       </c>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H31" s="22">
         <v>6.2</v>
       </c>
       <c r="I31" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -5211,13 +5438,13 @@
         <v>6.3</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H32" s="22">
         <v>6.3</v>
       </c>
       <c r="I32" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -5225,13 +5452,13 @@
         <v>0.25209490740740742</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="I33" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -5239,13 +5466,13 @@
         <v>6.4</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H34" s="22">
         <v>6.4</v>
       </c>
       <c r="I34" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5253,13 +5480,13 @@
         <v>6.5</v>
       </c>
       <c r="B35" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H35" s="22">
         <v>6.5</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -5267,13 +5494,13 @@
         <v>0.2534837962962963</v>
       </c>
       <c r="B36" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I36" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -5281,13 +5508,13 @@
         <v>0.25349537037037034</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="I37" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -5295,13 +5522,13 @@
         <v>0.25350694444444444</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="I38" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -5309,13 +5536,13 @@
         <v>6.6</v>
       </c>
       <c r="B39" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H39" s="22">
         <v>6.6</v>
       </c>
       <c r="I39" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -5323,13 +5550,13 @@
         <v>0.25417824074074075</v>
       </c>
       <c r="B40" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I40" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -5337,13 +5564,13 @@
         <v>0.25418981481481479</v>
       </c>
       <c r="B41" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I41" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -5351,13 +5578,13 @@
         <v>0.25420138888888888</v>
       </c>
       <c r="B42" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I42" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -5365,13 +5592,13 @@
         <v>6.7</v>
       </c>
       <c r="B43" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H43" s="22">
         <v>6.7</v>
       </c>
       <c r="I43" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -5379,13 +5606,13 @@
         <v>6.8</v>
       </c>
       <c r="B44" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H44" s="22">
         <v>6.8</v>
       </c>
       <c r="I44" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -5393,13 +5620,13 @@
         <v>0.25556712962962963</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I45" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -5407,13 +5634,13 @@
         <v>0.25557870370370367</v>
       </c>
       <c r="B46" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="I46" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -5421,13 +5648,13 @@
         <v>0.25559027777777776</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I47" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -5435,13 +5662,13 @@
         <v>0.25560185185185186</v>
       </c>
       <c r="B48" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I48" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -5449,24 +5676,24 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H49" s="22">
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H50" s="22">
         <v>7.1</v>
       </c>
       <c r="I50" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -5474,13 +5701,13 @@
         <v>7.1</v>
       </c>
       <c r="B51" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="I51" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -5488,13 +5715,13 @@
         <v>0.29237268518518517</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I52" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -5502,13 +5729,13 @@
         <v>0.29238425925925926</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I53" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -5516,13 +5743,13 @@
         <v>0.29239583333333335</v>
       </c>
       <c r="B54" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H54" s="22">
         <v>7.2</v>
       </c>
       <c r="I54" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -5530,13 +5757,13 @@
         <v>7.2</v>
       </c>
       <c r="B55" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H55" s="22">
         <v>7.3</v>
       </c>
       <c r="I55" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -5544,13 +5771,13 @@
         <v>7.3</v>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H56" s="22">
         <v>7.4</v>
       </c>
       <c r="I56" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -5558,13 +5785,13 @@
         <v>7.4</v>
       </c>
       <c r="B57" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H57" s="22">
         <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -5572,13 +5799,13 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H58" s="22">
         <v>8.1</v>
       </c>
       <c r="I58" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -5586,13 +5813,13 @@
         <v>8.1</v>
       </c>
       <c r="B59" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H59" s="22">
         <v>8.1999999999999993</v>
       </c>
       <c r="I59" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -5600,13 +5827,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B60" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H60" s="22">
         <v>8.3000000000000007</v>
       </c>
       <c r="I60" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -5614,13 +5841,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B61" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I61" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -5628,13 +5855,13 @@
         <v>0.33542824074074074</v>
       </c>
       <c r="B62" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="I62" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -5642,13 +5869,13 @@
         <v>0.33543981481481483</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I63" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -5656,13 +5883,13 @@
         <v>0.33545138888888887</v>
       </c>
       <c r="B64" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I64" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -5670,13 +5897,13 @@
         <v>0.33546296296296302</v>
       </c>
       <c r="B65" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I65" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -5684,13 +5911,13 @@
         <v>0.33547453703703706</v>
       </c>
       <c r="B66" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H66" s="22">
         <v>8.4</v>
       </c>
       <c r="I66" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -5698,13 +5925,13 @@
         <v>8.4</v>
       </c>
       <c r="B67" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="I67" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -5712,13 +5939,13 @@
         <v>0.33612268518518523</v>
       </c>
       <c r="B68" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="I68" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -5726,13 +5953,13 @@
         <v>0.33613425925925927</v>
       </c>
       <c r="B69" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="I69" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -5740,13 +5967,13 @@
         <v>0.33614583333333337</v>
       </c>
       <c r="B70" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I70" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -5754,13 +5981,13 @@
         <v>0.3361574074074074</v>
       </c>
       <c r="B71" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="I71" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -5768,13 +5995,13 @@
         <v>0.3361689814814815</v>
       </c>
       <c r="B72" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I72" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -5782,13 +6009,13 @@
         <v>0.33618055555555554</v>
       </c>
       <c r="B73" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="I73" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -5796,13 +6023,13 @@
         <v>0.33619212962962958</v>
       </c>
       <c r="B74" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="I74" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -5810,13 +6037,13 @@
         <v>0.33620370370370373</v>
       </c>
       <c r="B75" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I75" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -5824,13 +6051,13 @@
         <v>0.33621527777777777</v>
       </c>
       <c r="B76" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="I76" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -5838,13 +6065,13 @@
         <v>0.33622685185185186</v>
       </c>
       <c r="B77" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H77" s="22">
         <v>8.5</v>
       </c>
       <c r="I77" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -5852,13 +6079,13 @@
         <v>8.5</v>
       </c>
       <c r="B78" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="I78" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -5866,13 +6093,13 @@
         <v>0.33681712962962962</v>
       </c>
       <c r="B79" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I79" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -5880,13 +6107,13 @@
         <v>0.33682870370370371</v>
       </c>
       <c r="B80" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H80" s="22">
         <v>8.6</v>
       </c>
       <c r="I80" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -5894,13 +6121,13 @@
         <v>8.6</v>
       </c>
       <c r="B81" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="I81" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -5908,13 +6135,13 @@
         <v>0.33751157407407412</v>
       </c>
       <c r="B82" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="I82" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -5922,13 +6149,13 @@
         <v>0.33752314814814816</v>
       </c>
       <c r="B83" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="I83" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -5936,13 +6163,13 @@
         <v>0.33753472222222225</v>
       </c>
       <c r="B84" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I84" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -5950,13 +6177,13 @@
         <v>0.33754629629629629</v>
       </c>
       <c r="B85" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I85" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -5964,13 +6191,13 @@
         <v>0.33755787037037038</v>
       </c>
       <c r="B86" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H86" s="22">
         <v>8.6999999999999993</v>
       </c>
       <c r="I86" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -5978,13 +6205,13 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B87" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H87" s="22">
         <v>8.8000000000000007</v>
       </c>
       <c r="I87" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -5992,13 +6219,13 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B88" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H88" s="22">
         <v>8.9</v>
       </c>
       <c r="I88" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -6006,13 +6233,13 @@
         <v>8.9</v>
       </c>
       <c r="B89" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H89" s="22">
         <v>8.1</v>
       </c>
       <c r="I89" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -6020,13 +6247,13 @@
         <v>8.1</v>
       </c>
       <c r="B90" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H90" s="22">
         <v>8.11</v>
       </c>
       <c r="I90" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -6034,13 +6261,13 @@
         <v>8.11</v>
       </c>
       <c r="B91" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H91" s="22">
         <v>9</v>
       </c>
       <c r="I91" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -6048,13 +6275,13 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H92" s="22">
         <v>9.1</v>
       </c>
       <c r="I92" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -6062,13 +6289,13 @@
         <v>9.1</v>
       </c>
       <c r="B93" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H93" s="22">
         <v>9.1999999999999993</v>
       </c>
       <c r="I93" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -6076,13 +6303,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B94" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I94" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -6090,13 +6317,13 @@
         <v>0.37640046296296298</v>
       </c>
       <c r="B95" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="I95" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -6104,13 +6331,13 @@
         <v>0.37641203703703702</v>
       </c>
       <c r="B96" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="I96" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -6118,13 +6345,13 @@
         <v>0.37642361111111106</v>
       </c>
       <c r="B97" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I97" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -6132,13 +6359,13 @@
         <v>0.37643518518518521</v>
       </c>
       <c r="B98" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I98" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -6146,13 +6373,13 @@
         <v>0.37644675925925924</v>
       </c>
       <c r="B99" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H99" s="22">
         <v>9.3000000000000007</v>
       </c>
       <c r="I99" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -6160,13 +6387,13 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B100" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H100" s="22">
         <v>9.4</v>
       </c>
       <c r="I100" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -6174,13 +6401,13 @@
         <v>9.4</v>
       </c>
       <c r="B101" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H101" s="22">
         <v>9.5</v>
       </c>
       <c r="I101" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -6188,13 +6415,13 @@
         <v>9.5</v>
       </c>
       <c r="B102" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H102" s="22">
         <v>9.6</v>
       </c>
       <c r="I102" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -6202,13 +6429,13 @@
         <v>9.6</v>
       </c>
       <c r="B103" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H103" s="22">
         <v>9.6999999999999993</v>
       </c>
       <c r="I103" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -6216,13 +6443,13 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="B104" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H104" s="22">
         <v>9.8000000000000007</v>
       </c>
       <c r="I104" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -6230,13 +6457,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="B105" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H105" s="22">
         <v>9.9</v>
       </c>
       <c r="I105" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -6244,13 +6471,13 @@
         <v>9.9</v>
       </c>
       <c r="B106" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H106" s="22">
         <v>10</v>
       </c>
       <c r="I106" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -6258,13 +6485,13 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H107" s="22">
         <v>10.1</v>
       </c>
       <c r="I107" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -6272,13 +6499,13 @@
         <v>10.1</v>
       </c>
       <c r="B108" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H108" s="22">
         <v>10.199999999999999</v>
       </c>
       <c r="I108" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -6286,13 +6513,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B109" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H109" s="22">
         <v>10.3</v>
       </c>
       <c r="I109" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -6300,13 +6527,13 @@
         <v>10.3</v>
       </c>
       <c r="B110" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H110" s="22">
         <v>10.4</v>
       </c>
       <c r="I110" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -6314,13 +6541,13 @@
         <v>10.4</v>
       </c>
       <c r="B111" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H111" s="22">
         <v>10.5</v>
       </c>
       <c r="I111" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -6328,13 +6555,13 @@
         <v>10.5</v>
       </c>
       <c r="B112" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H112" s="22">
         <v>11</v>
       </c>
       <c r="I112" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -6342,13 +6569,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H113" s="22">
         <v>11.1</v>
       </c>
       <c r="I113" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -6356,13 +6583,13 @@
         <v>11.1</v>
       </c>
       <c r="B114" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H114" s="22">
         <v>11.2</v>
       </c>
       <c r="I114" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -6370,13 +6597,13 @@
         <v>11.2</v>
       </c>
       <c r="B115" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H115" s="22">
         <v>11.3</v>
       </c>
       <c r="I115" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -6384,13 +6611,13 @@
         <v>11.3</v>
       </c>
       <c r="B116" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H116" s="22">
         <v>12</v>
       </c>
       <c r="I116" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -6398,13 +6625,13 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H117" s="22">
         <v>12.1</v>
       </c>
       <c r="I117" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -6412,13 +6639,13 @@
         <v>12.1</v>
       </c>
       <c r="B118" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H118" s="22">
         <v>12.2</v>
       </c>
       <c r="I118" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -6426,13 +6653,13 @@
         <v>12.2</v>
       </c>
       <c r="B119" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H119" s="22">
         <v>12.3</v>
       </c>
       <c r="I119" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -6440,13 +6667,13 @@
         <v>12.3</v>
       </c>
       <c r="B120" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H120" s="22">
         <v>12.4</v>
       </c>
       <c r="I120" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -6454,13 +6681,13 @@
         <v>12.4</v>
       </c>
       <c r="B121" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H121" s="22">
         <v>13</v>
       </c>
       <c r="I121" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -6468,13 +6695,13 @@
         <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H122" s="22">
         <v>13.1</v>
       </c>
       <c r="I122" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -6482,13 +6709,13 @@
         <v>13.1</v>
       </c>
       <c r="B123" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H123" s="22" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="I123" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -6496,13 +6723,13 @@
         <v>0.54237268518518522</v>
       </c>
       <c r="B124" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H124" s="22" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="I124" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -6510,13 +6737,13 @@
         <v>0.54238425925925926</v>
       </c>
       <c r="B125" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="I125" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -6524,13 +6751,13 @@
         <v>0.5423958333333333</v>
       </c>
       <c r="B126" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H126" s="22">
         <v>13.2</v>
       </c>
       <c r="I126" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -6538,13 +6765,13 @@
         <v>13.2</v>
       </c>
       <c r="B127" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H127" s="22">
         <v>13.3</v>
       </c>
       <c r="I127" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -6552,13 +6779,13 @@
         <v>13.3</v>
       </c>
       <c r="B128" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H128" s="22">
         <v>13.4</v>
       </c>
       <c r="I128" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -6566,13 +6793,13 @@
         <v>13.4</v>
       </c>
       <c r="B129" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H129" s="22">
         <v>14</v>
       </c>
       <c r="I129" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -6580,13 +6807,13 @@
         <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H130" s="22">
         <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -6594,7 +6821,7 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -6603,7 +6830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -6618,18 +6845,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -6641,7 +6868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
@@ -6685,13 +6912,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6705,13 +6932,13 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -6736,10 +6963,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -6747,10 +6974,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -6760,41 +6987,41 @@
       <c r="A3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -6805,7 +7032,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -6816,7 +7043,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -6824,10 +7051,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -6835,7 +7062,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -6844,7 +7071,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>42</v>
@@ -6864,16 +7091,16 @@
         <v>40</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6881,16 +7108,16 @@
         <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6907,16 +7134,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6941,19 +7168,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6961,16 +7188,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6981,13 +7208,13 @@
         <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -7015,13 +7242,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -7029,10 +7256,10 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -7040,10 +7267,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7051,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -7062,10 +7289,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -7095,10 +7322,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -7119,10 +7346,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -7145,10 +7372,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -7239,29 +7466,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -7282,7 +7509,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7365,16 +7592,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7382,7 +7609,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7390,13 +7617,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7409,87 +7636,212 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC86E4E-4F98-F24A-9FA9-F3A5D3D75133}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>583</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+      <c r="D2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="G2" t="s">
+        <v>588</v>
+      </c>
+      <c r="H2" t="s">
+        <v>589</v>
+      </c>
+      <c r="I2" t="s">
+        <v>590</v>
+      </c>
+      <c r="J2" t="s">
+        <v>591</v>
+      </c>
+      <c r="K2" t="s">
+        <v>592</v>
+      </c>
+      <c r="L2" t="s">
+        <v>593</v>
+      </c>
+      <c r="M2" t="s">
+        <v>594</v>
+      </c>
+      <c r="N2" t="s">
+        <v>595</v>
+      </c>
+      <c r="O2" t="s">
+        <v>596</v>
+      </c>
+      <c r="P2" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" t="s">
+        <v>598</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>601</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
+        <v>585</v>
+      </c>
+      <c r="E3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="G3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H3" t="s">
+        <v>603</v>
+      </c>
+      <c r="I3" t="s">
+        <v>590</v>
+      </c>
+      <c r="J3" t="s">
+        <v>604</v>
+      </c>
+      <c r="K3" t="s">
+        <v>605</v>
+      </c>
+      <c r="L3" t="s">
+        <v>606</v>
+      </c>
+      <c r="M3" t="s">
+        <v>594</v>
+      </c>
+      <c r="N3" t="s">
+        <v>595</v>
+      </c>
+      <c r="O3" t="s">
+        <v>596</v>
+      </c>
+      <c r="P3" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" t="s">
+        <v>598</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -7498,102 +7850,60 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>524</v>
-      </c>
       <c r="B3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
+        <v>567</v>
+      </c>
+      <c r="C3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/invalid_section_levels.xlsx
+++ b/tests/integration_test_files/invalid_section_levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C16984-0457-B248-B9B8-4BC54AA1C06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD61E80-16BE-0B4D-B783-D1431CE685B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53500" yWindow="860" windowWidth="33000" windowHeight="22600" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="53500" yWindow="860" windowWidth="33000" windowHeight="22600" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="607">
   <si>
     <t>Epoch</t>
   </si>
@@ -247,37 +247,16 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>70 years</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1617,24 +1596,6 @@
     <t>7.1</t>
   </si>
   <si>
-    <t>POP 2</t>
-  </si>
-  <si>
-    <t>POP 1</t>
-  </si>
-  <si>
-    <t>POP 3</t>
-  </si>
-  <si>
-    <t>Younger population</t>
-  </si>
-  <si>
-    <t>Mid range population</t>
-  </si>
-  <si>
-    <t>Old population</t>
-  </si>
-  <si>
     <t>sectionNumber</t>
   </si>
   <si>
@@ -1885,6 +1846,42 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>31 years</t>
   </si>
 </sst>
 </file>
@@ -2040,20 +2037,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2387,10 +2384,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2402,7 +2399,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2447,10 +2444,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2459,10 +2456,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2471,10 +2468,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2483,10 +2480,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2495,10 +2492,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2507,10 +2504,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2519,10 +2516,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2531,7 +2528,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2543,10 +2540,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2575,101 +2572,96 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B3" t="s">
+        <v>603</v>
+      </c>
+      <c r="G3" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="H3" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G4" t="s">
+        <v>606</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>520</v>
-      </c>
-      <c r="B4" t="s">
-        <v>523</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2701,85 +2693,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2788,16 +2780,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2806,16 +2798,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2824,16 +2816,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2842,16 +2834,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2860,16 +2852,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2878,16 +2870,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2896,16 +2888,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2914,16 +2906,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2932,16 +2924,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2950,16 +2942,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3264,90 +3256,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3376,65 +3368,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3467,137 +3459,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3624,104 +3616,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3748,16 +3740,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3766,1201 +3758,1201 @@
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="9" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="9" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="9" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="9" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="9" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="9" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="9" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="9" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="9" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="9" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="9" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="9" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="9" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="9" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="9" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="9" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="9" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="9" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="9" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="9" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="9" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="9" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="9" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="9" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="9" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B48" s="25"/>
       <c r="C48" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="9" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="9" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B52" s="25"/>
       <c r="C52" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="9" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="9" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="9" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B56" s="25"/>
       <c r="C56" s="9" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="9" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="9" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="B59" s="25"/>
       <c r="C59" s="9" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="9" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="9" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B62" s="25"/>
       <c r="C62" s="9" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B63" s="25"/>
       <c r="C63" s="9" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="9" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B65" s="25"/>
       <c r="C65" s="9" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B66" s="25"/>
       <c r="C66" s="9" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="B67" s="25"/>
       <c r="C67" s="9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B68" s="25"/>
       <c r="C68" s="9" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B70" s="25"/>
       <c r="C70" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B71" s="25"/>
       <c r="C71" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B73" s="25"/>
       <c r="C73" s="9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B74" s="25"/>
       <c r="C74" s="9" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B75" s="25"/>
       <c r="C75" s="9" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B76" s="25"/>
       <c r="C76" s="9" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B77" s="25"/>
       <c r="C77" s="9" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="B78" s="25"/>
       <c r="C78" s="9" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B79" s="25"/>
       <c r="C79" s="9" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B80" s="25"/>
       <c r="C80" s="9" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="B81" s="25"/>
       <c r="C81" s="9" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B82" s="25"/>
       <c r="C82" s="9" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B83" s="25"/>
       <c r="C83" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B84" s="25"/>
       <c r="C84" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B85" s="25"/>
       <c r="C85" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B86" s="25"/>
       <c r="C86" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="B87" s="25"/>
       <c r="C87" s="9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="B88" s="25"/>
       <c r="C88" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B89" s="25"/>
       <c r="C89" s="9" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="B90" s="25"/>
       <c r="C90" s="9" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B91" s="25"/>
       <c r="C91" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B92" s="25"/>
       <c r="C92" s="9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="B93" s="25"/>
       <c r="C93" s="9" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B95" s="25"/>
       <c r="C95" s="9" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B96" s="25"/>
       <c r="C96" s="9" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B97" s="25"/>
       <c r="C97" s="9" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B98" s="25"/>
       <c r="C98" s="9" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B99" s="25"/>
       <c r="C99" s="9" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="B100" s="25"/>
       <c r="C100" s="9" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="B101" s="25"/>
       <c r="C101" s="9" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B102" s="25"/>
       <c r="C102" s="9" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="B103" s="25"/>
       <c r="C103" s="9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="B104" s="25"/>
       <c r="C104" s="9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="B105" s="25"/>
       <c r="C105" s="9" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="B106" s="25"/>
       <c r="C106" s="9" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B107" s="25"/>
       <c r="C107" s="9" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B108" s="25"/>
       <c r="C108" s="9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="B109" s="25"/>
       <c r="C109" s="9" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="B110" s="25"/>
       <c r="C110" s="9" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="B111" s="25"/>
       <c r="C111" s="9" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="B112" s="25"/>
       <c r="C112" s="9" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B113" s="25"/>
       <c r="C113" s="9" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B114" s="25"/>
       <c r="C114" s="9" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B115" s="25"/>
       <c r="C115" s="9" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B116" s="25"/>
       <c r="C116" s="9" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B117" s="25"/>
       <c r="C117" s="9" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B118" s="25"/>
       <c r="C118" s="9" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B119" s="25"/>
       <c r="C119" s="9" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B120" s="25"/>
       <c r="C120" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B121" s="25"/>
       <c r="C121" s="9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B122" s="25"/>
       <c r="C122" s="9" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B123" s="25"/>
       <c r="C123" s="9" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B124" s="25"/>
       <c r="C124" s="9" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B125" s="25"/>
       <c r="C125" s="9" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B126" s="25"/>
       <c r="C126" s="9" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B127" s="25"/>
       <c r="C127" s="9" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B128" s="25"/>
       <c r="C128" s="9" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B129" s="25"/>
       <c r="C129" s="9" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B130" s="25"/>
       <c r="C130" s="9" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B131" s="25"/>
       <c r="C131" s="9" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -4988,13 +4980,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="O1" s="23" t="str">
         <f>TEXT(H2,"0")</f>
@@ -5006,13 +4998,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O2" s="23" t="str">
         <f>TEXT(H3,"0")</f>
@@ -5024,13 +5016,13 @@
         <v>1.2</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="I3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="O3" s="23" t="str">
         <f>TEXT(H4,"0")</f>
@@ -5042,13 +5034,13 @@
         <v>1.3</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="I4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O4" s="23" t="str">
         <f>TEXT(H5,"0")</f>
@@ -5060,13 +5052,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="I5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -5074,13 +5066,13 @@
         <v>2.1</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I6" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -5088,13 +5080,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="I7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -5102,13 +5094,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="I8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -5116,13 +5108,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I9" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -5130,13 +5122,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -5144,13 +5136,13 @@
         <v>0.16737268518518519</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="I11" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -5158,13 +5150,13 @@
         <v>4.2</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="I12" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -5172,13 +5164,13 @@
         <v>0.16806712962962964</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="I13" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -5186,13 +5178,13 @@
         <v>0.1680787037037037</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="I14" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -5200,13 +5192,13 @@
         <v>0.16809027777777777</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I15" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -5214,13 +5206,13 @@
         <v>4.3</v>
       </c>
       <c r="B16" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H16" s="22">
         <v>4.3</v>
       </c>
       <c r="I16" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5228,13 +5220,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H17" s="22">
         <v>4.4000000000000004</v>
       </c>
       <c r="I17" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -5242,13 +5234,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H18" s="22">
         <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -5256,13 +5248,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H19" s="22">
         <v>5.0999999999999996</v>
       </c>
       <c r="I19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -5270,13 +5262,13 @@
         <v>5.2</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H20" s="22">
         <v>5.2</v>
       </c>
       <c r="I20" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -5284,13 +5276,13 @@
         <v>5.3</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H21" s="22">
         <v>5.3</v>
       </c>
       <c r="I21" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -5298,13 +5290,13 @@
         <v>5.4</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H22" s="22">
         <v>5.4</v>
       </c>
       <c r="I22" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -5312,13 +5304,13 @@
         <v>5.5</v>
       </c>
       <c r="B23" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H23" s="22">
         <v>5.5</v>
       </c>
       <c r="I23" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -5326,13 +5318,13 @@
         <v>0.21181712962962962</v>
       </c>
       <c r="B24" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="I24" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5340,13 +5332,13 @@
         <v>0.21182870370370369</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="I25" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -5354,13 +5346,13 @@
         <v>0.21184027777777778</v>
       </c>
       <c r="B26" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="I26" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -5368,13 +5360,13 @@
         <v>0.21185185185185185</v>
       </c>
       <c r="B27" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="I27" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5382,13 +5374,13 @@
         <v>5.6</v>
       </c>
       <c r="B28" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H28" s="22">
         <v>5.6</v>
       </c>
       <c r="I28" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -5396,13 +5388,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H29" s="22">
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5410,13 +5402,13 @@
         <v>6.1</v>
       </c>
       <c r="B30" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H30" s="22">
         <v>6.1</v>
       </c>
       <c r="I30" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -5424,13 +5416,13 @@
         <v>6.2</v>
       </c>
       <c r="B31" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H31" s="22">
         <v>6.2</v>
       </c>
       <c r="I31" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -5438,13 +5430,13 @@
         <v>6.3</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H32" s="22">
         <v>6.3</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -5452,13 +5444,13 @@
         <v>0.25209490740740742</v>
       </c>
       <c r="B33" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="I33" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -5466,13 +5458,13 @@
         <v>6.4</v>
       </c>
       <c r="B34" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H34" s="22">
         <v>6.4</v>
       </c>
       <c r="I34" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5480,13 +5472,13 @@
         <v>6.5</v>
       </c>
       <c r="B35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H35" s="22">
         <v>6.5</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -5494,13 +5486,13 @@
         <v>0.2534837962962963</v>
       </c>
       <c r="B36" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="I36" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -5508,13 +5500,13 @@
         <v>0.25349537037037034</v>
       </c>
       <c r="B37" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="I37" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -5522,13 +5514,13 @@
         <v>0.25350694444444444</v>
       </c>
       <c r="B38" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I38" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -5536,13 +5528,13 @@
         <v>6.6</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H39" s="22">
         <v>6.6</v>
       </c>
       <c r="I39" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -5550,13 +5542,13 @@
         <v>0.25417824074074075</v>
       </c>
       <c r="B40" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I40" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -5564,13 +5556,13 @@
         <v>0.25418981481481479</v>
       </c>
       <c r="B41" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="I41" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -5578,13 +5570,13 @@
         <v>0.25420138888888888</v>
       </c>
       <c r="B42" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="I42" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -5592,13 +5584,13 @@
         <v>6.7</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H43" s="22">
         <v>6.7</v>
       </c>
       <c r="I43" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -5606,13 +5598,13 @@
         <v>6.8</v>
       </c>
       <c r="B44" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H44" s="22">
         <v>6.8</v>
       </c>
       <c r="I44" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -5620,13 +5612,13 @@
         <v>0.25556712962962963</v>
       </c>
       <c r="B45" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="I45" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -5634,13 +5626,13 @@
         <v>0.25557870370370367</v>
       </c>
       <c r="B46" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="I46" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -5648,13 +5640,13 @@
         <v>0.25559027777777776</v>
       </c>
       <c r="B47" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="I47" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -5662,13 +5654,13 @@
         <v>0.25560185185185186</v>
       </c>
       <c r="B48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="I48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -5676,24 +5668,24 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H49" s="22">
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H50" s="22">
         <v>7.1</v>
       </c>
       <c r="I50" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -5701,13 +5693,13 @@
         <v>7.1</v>
       </c>
       <c r="B51" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="I51" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -5715,13 +5707,13 @@
         <v>0.29237268518518517</v>
       </c>
       <c r="B52" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="I52" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -5729,13 +5721,13 @@
         <v>0.29238425925925926</v>
       </c>
       <c r="B53" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="I53" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -5743,13 +5735,13 @@
         <v>0.29239583333333335</v>
       </c>
       <c r="B54" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H54" s="22">
         <v>7.2</v>
       </c>
       <c r="I54" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -5757,13 +5749,13 @@
         <v>7.2</v>
       </c>
       <c r="B55" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H55" s="22">
         <v>7.3</v>
       </c>
       <c r="I55" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -5771,13 +5763,13 @@
         <v>7.3</v>
       </c>
       <c r="B56" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H56" s="22">
         <v>7.4</v>
       </c>
       <c r="I56" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -5785,13 +5777,13 @@
         <v>7.4</v>
       </c>
       <c r="B57" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H57" s="22">
         <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -5799,13 +5791,13 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H58" s="22">
         <v>8.1</v>
       </c>
       <c r="I58" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -5813,13 +5805,13 @@
         <v>8.1</v>
       </c>
       <c r="B59" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H59" s="22">
         <v>8.1999999999999993</v>
       </c>
       <c r="I59" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -5827,13 +5819,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B60" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H60" s="22">
         <v>8.3000000000000007</v>
       </c>
       <c r="I60" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -5841,13 +5833,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B61" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="I61" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -5855,13 +5847,13 @@
         <v>0.33542824074074074</v>
       </c>
       <c r="B62" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="I62" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -5869,13 +5861,13 @@
         <v>0.33543981481481483</v>
       </c>
       <c r="B63" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="I63" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -5883,13 +5875,13 @@
         <v>0.33545138888888887</v>
       </c>
       <c r="B64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="I64" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -5897,13 +5889,13 @@
         <v>0.33546296296296302</v>
       </c>
       <c r="B65" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="I65" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -5911,13 +5903,13 @@
         <v>0.33547453703703706</v>
       </c>
       <c r="B66" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H66" s="22">
         <v>8.4</v>
       </c>
       <c r="I66" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -5925,13 +5917,13 @@
         <v>8.4</v>
       </c>
       <c r="B67" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="I67" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -5939,13 +5931,13 @@
         <v>0.33612268518518523</v>
       </c>
       <c r="B68" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="I68" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -5953,13 +5945,13 @@
         <v>0.33613425925925927</v>
       </c>
       <c r="B69" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="I69" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -5967,13 +5959,13 @@
         <v>0.33614583333333337</v>
       </c>
       <c r="B70" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="I70" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -5981,13 +5973,13 @@
         <v>0.3361574074074074</v>
       </c>
       <c r="B71" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="I71" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -5995,13 +5987,13 @@
         <v>0.3361689814814815</v>
       </c>
       <c r="B72" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I72" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -6009,13 +6001,13 @@
         <v>0.33618055555555554</v>
       </c>
       <c r="B73" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I73" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -6023,13 +6015,13 @@
         <v>0.33619212962962958</v>
       </c>
       <c r="B74" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="I74" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -6037,13 +6029,13 @@
         <v>0.33620370370370373</v>
       </c>
       <c r="B75" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="I75" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -6051,13 +6043,13 @@
         <v>0.33621527777777777</v>
       </c>
       <c r="B76" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="I76" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -6065,13 +6057,13 @@
         <v>0.33622685185185186</v>
       </c>
       <c r="B77" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H77" s="22">
         <v>8.5</v>
       </c>
       <c r="I77" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -6079,13 +6071,13 @@
         <v>8.5</v>
       </c>
       <c r="B78" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="I78" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -6093,13 +6085,13 @@
         <v>0.33681712962962962</v>
       </c>
       <c r="B79" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="I79" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -6107,13 +6099,13 @@
         <v>0.33682870370370371</v>
       </c>
       <c r="B80" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H80" s="22">
         <v>8.6</v>
       </c>
       <c r="I80" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -6121,13 +6113,13 @@
         <v>8.6</v>
       </c>
       <c r="B81" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="I81" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -6135,13 +6127,13 @@
         <v>0.33751157407407412</v>
       </c>
       <c r="B82" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="I82" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -6149,13 +6141,13 @@
         <v>0.33752314814814816</v>
       </c>
       <c r="B83" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="I83" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -6163,13 +6155,13 @@
         <v>0.33753472222222225</v>
       </c>
       <c r="B84" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="I84" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -6177,13 +6169,13 @@
         <v>0.33754629629629629</v>
       </c>
       <c r="B85" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="I85" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -6191,13 +6183,13 @@
         <v>0.33755787037037038</v>
       </c>
       <c r="B86" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H86" s="22">
         <v>8.6999999999999993</v>
       </c>
       <c r="I86" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -6205,13 +6197,13 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B87" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H87" s="22">
         <v>8.8000000000000007</v>
       </c>
       <c r="I87" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -6219,13 +6211,13 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B88" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H88" s="22">
         <v>8.9</v>
       </c>
       <c r="I88" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -6233,13 +6225,13 @@
         <v>8.9</v>
       </c>
       <c r="B89" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H89" s="22">
         <v>8.1</v>
       </c>
       <c r="I89" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -6247,13 +6239,13 @@
         <v>8.1</v>
       </c>
       <c r="B90" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H90" s="22">
         <v>8.11</v>
       </c>
       <c r="I90" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -6261,13 +6253,13 @@
         <v>8.11</v>
       </c>
       <c r="B91" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H91" s="22">
         <v>9</v>
       </c>
       <c r="I91" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -6275,13 +6267,13 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H92" s="22">
         <v>9.1</v>
       </c>
       <c r="I92" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -6289,13 +6281,13 @@
         <v>9.1</v>
       </c>
       <c r="B93" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H93" s="22">
         <v>9.1999999999999993</v>
       </c>
       <c r="I93" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -6303,13 +6295,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B94" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="I94" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -6317,13 +6309,13 @@
         <v>0.37640046296296298</v>
       </c>
       <c r="B95" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="I95" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -6331,13 +6323,13 @@
         <v>0.37641203703703702</v>
       </c>
       <c r="B96" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="I96" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -6345,13 +6337,13 @@
         <v>0.37642361111111106</v>
       </c>
       <c r="B97" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="I97" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -6359,13 +6351,13 @@
         <v>0.37643518518518521</v>
       </c>
       <c r="B98" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="I98" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -6373,13 +6365,13 @@
         <v>0.37644675925925924</v>
       </c>
       <c r="B99" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H99" s="22">
         <v>9.3000000000000007</v>
       </c>
       <c r="I99" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -6387,13 +6379,13 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B100" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H100" s="22">
         <v>9.4</v>
       </c>
       <c r="I100" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -6401,13 +6393,13 @@
         <v>9.4</v>
       </c>
       <c r="B101" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H101" s="22">
         <v>9.5</v>
       </c>
       <c r="I101" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -6415,13 +6407,13 @@
         <v>9.5</v>
       </c>
       <c r="B102" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H102" s="22">
         <v>9.6</v>
       </c>
       <c r="I102" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -6429,13 +6421,13 @@
         <v>9.6</v>
       </c>
       <c r="B103" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H103" s="22">
         <v>9.6999999999999993</v>
       </c>
       <c r="I103" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -6443,13 +6435,13 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="B104" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H104" s="22">
         <v>9.8000000000000007</v>
       </c>
       <c r="I104" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -6457,13 +6449,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="B105" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H105" s="22">
         <v>9.9</v>
       </c>
       <c r="I105" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -6471,13 +6463,13 @@
         <v>9.9</v>
       </c>
       <c r="B106" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H106" s="22">
         <v>10</v>
       </c>
       <c r="I106" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -6485,13 +6477,13 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H107" s="22">
         <v>10.1</v>
       </c>
       <c r="I107" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -6499,13 +6491,13 @@
         <v>10.1</v>
       </c>
       <c r="B108" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H108" s="22">
         <v>10.199999999999999</v>
       </c>
       <c r="I108" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -6513,13 +6505,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B109" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H109" s="22">
         <v>10.3</v>
       </c>
       <c r="I109" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -6527,13 +6519,13 @@
         <v>10.3</v>
       </c>
       <c r="B110" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H110" s="22">
         <v>10.4</v>
       </c>
       <c r="I110" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -6541,13 +6533,13 @@
         <v>10.4</v>
       </c>
       <c r="B111" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H111" s="22">
         <v>10.5</v>
       </c>
       <c r="I111" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -6555,13 +6547,13 @@
         <v>10.5</v>
       </c>
       <c r="B112" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H112" s="22">
         <v>11</v>
       </c>
       <c r="I112" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -6569,13 +6561,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H113" s="22">
         <v>11.1</v>
       </c>
       <c r="I113" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -6583,13 +6575,13 @@
         <v>11.1</v>
       </c>
       <c r="B114" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H114" s="22">
         <v>11.2</v>
       </c>
       <c r="I114" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -6597,13 +6589,13 @@
         <v>11.2</v>
       </c>
       <c r="B115" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H115" s="22">
         <v>11.3</v>
       </c>
       <c r="I115" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -6611,13 +6603,13 @@
         <v>11.3</v>
       </c>
       <c r="B116" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="H116" s="22">
         <v>12</v>
       </c>
       <c r="I116" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -6625,13 +6617,13 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H117" s="22">
         <v>12.1</v>
       </c>
       <c r="I117" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -6639,13 +6631,13 @@
         <v>12.1</v>
       </c>
       <c r="B118" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H118" s="22">
         <v>12.2</v>
       </c>
       <c r="I118" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -6653,13 +6645,13 @@
         <v>12.2</v>
       </c>
       <c r="B119" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H119" s="22">
         <v>12.3</v>
       </c>
       <c r="I119" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -6667,13 +6659,13 @@
         <v>12.3</v>
       </c>
       <c r="B120" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H120" s="22">
         <v>12.4</v>
       </c>
       <c r="I120" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -6681,13 +6673,13 @@
         <v>12.4</v>
       </c>
       <c r="B121" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H121" s="22">
         <v>13</v>
       </c>
       <c r="I121" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -6695,13 +6687,13 @@
         <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H122" s="22">
         <v>13.1</v>
       </c>
       <c r="I122" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -6709,13 +6701,13 @@
         <v>13.1</v>
       </c>
       <c r="B123" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H123" s="22" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="I123" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -6723,13 +6715,13 @@
         <v>0.54237268518518522</v>
       </c>
       <c r="B124" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="H124" s="22" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="I124" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -6737,13 +6729,13 @@
         <v>0.54238425925925926</v>
       </c>
       <c r="B125" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I125" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -6751,13 +6743,13 @@
         <v>0.5423958333333333</v>
       </c>
       <c r="B126" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H126" s="22">
         <v>13.2</v>
       </c>
       <c r="I126" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -6765,13 +6757,13 @@
         <v>13.2</v>
       </c>
       <c r="B127" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="H127" s="22">
         <v>13.3</v>
       </c>
       <c r="I127" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -6779,13 +6771,13 @@
         <v>13.3</v>
       </c>
       <c r="B128" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H128" s="22">
         <v>13.4</v>
       </c>
       <c r="I128" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -6793,13 +6785,13 @@
         <v>13.4</v>
       </c>
       <c r="B129" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H129" s="22">
         <v>14</v>
       </c>
       <c r="I129" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -6807,13 +6799,13 @@
         <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H130" s="22">
         <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -6821,7 +6813,7 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -6845,18 +6837,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6912,13 +6904,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6932,13 +6924,13 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -6963,115 +6955,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+        <v>229</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+        <v>230</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="B6" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+        <v>155</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+        <v>156</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>42</v>
@@ -7091,16 +7083,16 @@
         <v>40</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -7108,16 +7100,16 @@
         <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -7134,16 +7126,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7168,19 +7160,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -7188,16 +7180,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -7208,13 +7200,13 @@
         <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -7242,13 +7234,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -7256,10 +7248,10 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -7267,10 +7259,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7278,10 +7270,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -7289,10 +7281,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -7322,10 +7314,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -7336,20 +7328,20 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -7372,10 +7364,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -7466,29 +7458,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -7509,7 +7501,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7592,16 +7584,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7609,7 +7601,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7617,13 +7609,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7639,7 +7631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC86E4E-4F98-F24A-9FA9-F3A5D3D75133}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -7669,179 +7661,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="G2" t="s">
+        <v>575</v>
+      </c>
+      <c r="H2" t="s">
+        <v>576</v>
+      </c>
+      <c r="I2" t="s">
+        <v>577</v>
+      </c>
+      <c r="J2" t="s">
+        <v>578</v>
+      </c>
+      <c r="K2" t="s">
+        <v>579</v>
+      </c>
+      <c r="L2" t="s">
+        <v>580</v>
+      </c>
+      <c r="M2" t="s">
+        <v>581</v>
+      </c>
+      <c r="N2" t="s">
+        <v>582</v>
+      </c>
+      <c r="O2" t="s">
         <v>583</v>
       </c>
-      <c r="C2" t="s">
+      <c r="P2" t="s">
         <v>584</v>
       </c>
-      <c r="D2" t="s">
+      <c r="Q2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" t="s">
         <v>585</v>
       </c>
-      <c r="E2" t="s">
+      <c r="S2" s="28" t="s">
         <v>586</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="G2" t="s">
-        <v>588</v>
-      </c>
-      <c r="H2" t="s">
-        <v>589</v>
-      </c>
-      <c r="I2" t="s">
-        <v>590</v>
-      </c>
-      <c r="J2" t="s">
-        <v>591</v>
-      </c>
-      <c r="K2" t="s">
-        <v>592</v>
-      </c>
-      <c r="L2" t="s">
-        <v>593</v>
-      </c>
-      <c r="M2" t="s">
-        <v>594</v>
-      </c>
-      <c r="N2" t="s">
-        <v>595</v>
-      </c>
-      <c r="O2" t="s">
-        <v>596</v>
-      </c>
-      <c r="P2" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>179</v>
-      </c>
-      <c r="R2" t="s">
-        <v>598</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="C3" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="D3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="G3" t="s">
+        <v>575</v>
+      </c>
+      <c r="H3" t="s">
+        <v>590</v>
+      </c>
+      <c r="I3" t="s">
+        <v>577</v>
+      </c>
+      <c r="J3" t="s">
+        <v>591</v>
+      </c>
+      <c r="K3" t="s">
+        <v>592</v>
+      </c>
+      <c r="L3" t="s">
+        <v>593</v>
+      </c>
+      <c r="M3" t="s">
+        <v>581</v>
+      </c>
+      <c r="N3" t="s">
+        <v>582</v>
+      </c>
+      <c r="O3" t="s">
+        <v>583</v>
+      </c>
+      <c r="P3" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>172</v>
+      </c>
+      <c r="R3" t="s">
         <v>585</v>
       </c>
-      <c r="E3" t="s">
-        <v>602</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="G3" t="s">
-        <v>588</v>
-      </c>
-      <c r="H3" t="s">
-        <v>603</v>
-      </c>
-      <c r="I3" t="s">
-        <v>590</v>
-      </c>
-      <c r="J3" t="s">
-        <v>604</v>
-      </c>
-      <c r="K3" t="s">
-        <v>605</v>
-      </c>
-      <c r="L3" t="s">
-        <v>606</v>
-      </c>
-      <c r="M3" t="s">
-        <v>594</v>
-      </c>
-      <c r="N3" t="s">
-        <v>595</v>
-      </c>
-      <c r="O3" t="s">
-        <v>596</v>
-      </c>
-      <c r="P3" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" t="s">
-        <v>598</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>599</v>
+      <c r="S3" s="28" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -7866,13 +7858,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>60</v>
@@ -7880,13 +7872,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="C2" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>61</v>
@@ -7894,13 +7886,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C3" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>62</v>

--- a/tests/integration_test_files/invalid_section_levels.xlsx
+++ b/tests/integration_test_files/invalid_section_levels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD61E80-16BE-0B4D-B783-D1431CE685B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988A774D-8254-AD47-BF0E-57119ED243E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53500" yWindow="860" windowWidth="33000" windowHeight="22600" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="604">
   <si>
     <t>Epoch</t>
   </si>
@@ -247,16 +247,10 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
-  </si>
-  <si>
-    <t>70 years</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1857,12 +1851,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -1875,13 +1863,16 @@
     <t>COHORT1</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
     <t>COHORT2</t>
   </si>
   <si>
-    <t>31 years</t>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
   </si>
 </sst>
 </file>
@@ -2043,10 +2034,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2384,10 +2375,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2399,7 +2390,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2444,10 +2435,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2456,10 +2447,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2468,10 +2459,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2480,10 +2471,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2492,10 +2483,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2504,10 +2495,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2516,10 +2507,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2528,7 +2519,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2540,10 +2531,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2572,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2585,45 +2576,42 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>596</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="B2" t="s">
         <v>597</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>599</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B2" t="s">
-        <v>601</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2631,37 +2619,30 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B3" t="s">
+        <v>599</v>
+      </c>
+      <c r="G3" t="s">
         <v>602</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B4" t="s">
+        <v>600</v>
+      </c>
+      <c r="G4" t="s">
         <v>603</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B4" t="s">
-        <v>605</v>
-      </c>
-      <c r="G4" t="s">
-        <v>606</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2693,85 +2674,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>546</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2780,16 +2761,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2798,16 +2779,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2816,16 +2797,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2834,16 +2815,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2852,16 +2833,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2870,16 +2851,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2888,16 +2869,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2906,16 +2887,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2924,16 +2905,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2942,16 +2923,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3256,90 +3237,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
         <v>115</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
         <v>147</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>148</v>
       </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
         <v>149</v>
-      </c>
-      <c r="E5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3368,65 +3349,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" t="s">
         <v>167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>171</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3459,137 +3440,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>179</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3616,104 +3597,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3740,16 +3721,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3758,1201 +3739,1201 @@
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B48" s="25"/>
       <c r="C48" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B52" s="25"/>
       <c r="C52" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B56" s="25"/>
       <c r="C56" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B59" s="25"/>
       <c r="C59" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B62" s="25"/>
       <c r="C62" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B63" s="25"/>
       <c r="C63" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B65" s="25"/>
       <c r="C65" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B66" s="25"/>
       <c r="C66" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B67" s="25"/>
       <c r="C67" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B68" s="25"/>
       <c r="C68" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B70" s="25"/>
       <c r="C70" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B71" s="25"/>
       <c r="C71" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B73" s="25"/>
       <c r="C73" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B74" s="25"/>
       <c r="C74" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B75" s="25"/>
       <c r="C75" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B76" s="25"/>
       <c r="C76" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B77" s="25"/>
       <c r="C77" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B78" s="25"/>
       <c r="C78" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B79" s="25"/>
       <c r="C79" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B80" s="25"/>
       <c r="C80" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B81" s="25"/>
       <c r="C81" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B82" s="25"/>
       <c r="C82" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B83" s="25"/>
       <c r="C83" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B84" s="25"/>
       <c r="C84" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B85" s="25"/>
       <c r="C85" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B86" s="25"/>
       <c r="C86" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B87" s="25"/>
       <c r="C87" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B88" s="25"/>
       <c r="C88" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B89" s="25"/>
       <c r="C89" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B90" s="25"/>
       <c r="C90" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B91" s="25"/>
       <c r="C91" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B92" s="25"/>
       <c r="C92" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B93" s="25"/>
       <c r="C93" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B95" s="25"/>
       <c r="C95" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B96" s="25"/>
       <c r="C96" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B97" s="25"/>
       <c r="C97" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B98" s="25"/>
       <c r="C98" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B99" s="25"/>
       <c r="C99" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B100" s="25"/>
       <c r="C100" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B101" s="25"/>
       <c r="C101" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B102" s="25"/>
       <c r="C102" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B103" s="25"/>
       <c r="C103" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B104" s="25"/>
       <c r="C104" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B105" s="25"/>
       <c r="C105" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B106" s="25"/>
       <c r="C106" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B107" s="25"/>
       <c r="C107" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B108" s="25"/>
       <c r="C108" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B109" s="25"/>
       <c r="C109" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B110" s="25"/>
       <c r="C110" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B111" s="25"/>
       <c r="C111" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B112" s="25"/>
       <c r="C112" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B113" s="25"/>
       <c r="C113" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B114" s="25"/>
       <c r="C114" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B115" s="25"/>
       <c r="C115" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B116" s="25"/>
       <c r="C116" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B117" s="25"/>
       <c r="C117" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B118" s="25"/>
       <c r="C118" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B119" s="25"/>
       <c r="C119" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B120" s="25"/>
       <c r="C120" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B121" s="25"/>
       <c r="C121" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B122" s="25"/>
       <c r="C122" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B123" s="25"/>
       <c r="C123" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B124" s="25"/>
       <c r="C124" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B125" s="25"/>
       <c r="C125" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B126" s="25"/>
       <c r="C126" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B127" s="25"/>
       <c r="C127" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B128" s="25"/>
       <c r="C128" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B129" s="25"/>
       <c r="C129" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B130" s="25"/>
       <c r="C130" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B131" s="25"/>
       <c r="C131" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4980,13 +4961,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O1" s="23" t="str">
         <f>TEXT(H2,"0")</f>
@@ -4998,13 +4979,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O2" s="23" t="str">
         <f>TEXT(H3,"0")</f>
@@ -5016,13 +4997,13 @@
         <v>1.2</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O3" s="23" t="str">
         <f>TEXT(H4,"0")</f>
@@ -5034,13 +5015,13 @@
         <v>1.3</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O4" s="23" t="str">
         <f>TEXT(H5,"0")</f>
@@ -5052,13 +5033,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -5066,13 +5047,13 @@
         <v>2.1</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -5080,13 +5061,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -5094,13 +5075,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -5108,13 +5089,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -5122,13 +5103,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -5136,13 +5117,13 @@
         <v>0.16737268518518519</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -5150,13 +5131,13 @@
         <v>4.2</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -5164,13 +5145,13 @@
         <v>0.16806712962962964</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -5178,13 +5159,13 @@
         <v>0.1680787037037037</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -5192,13 +5173,13 @@
         <v>0.16809027777777777</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -5206,13 +5187,13 @@
         <v>4.3</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H16" s="22">
         <v>4.3</v>
       </c>
       <c r="I16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5220,13 +5201,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H17" s="22">
         <v>4.4000000000000004</v>
       </c>
       <c r="I17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -5234,13 +5215,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H18" s="22">
         <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -5248,13 +5229,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H19" s="22">
         <v>5.0999999999999996</v>
       </c>
       <c r="I19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -5262,13 +5243,13 @@
         <v>5.2</v>
       </c>
       <c r="B20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H20" s="22">
         <v>5.2</v>
       </c>
       <c r="I20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -5276,13 +5257,13 @@
         <v>5.3</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H21" s="22">
         <v>5.3</v>
       </c>
       <c r="I21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -5290,13 +5271,13 @@
         <v>5.4</v>
       </c>
       <c r="B22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H22" s="22">
         <v>5.4</v>
       </c>
       <c r="I22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -5304,13 +5285,13 @@
         <v>5.5</v>
       </c>
       <c r="B23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H23" s="22">
         <v>5.5</v>
       </c>
       <c r="I23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -5318,13 +5299,13 @@
         <v>0.21181712962962962</v>
       </c>
       <c r="B24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5332,13 +5313,13 @@
         <v>0.21182870370370369</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -5346,13 +5327,13 @@
         <v>0.21184027777777778</v>
       </c>
       <c r="B26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -5360,13 +5341,13 @@
         <v>0.21185185185185185</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5374,13 +5355,13 @@
         <v>5.6</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H28" s="22">
         <v>5.6</v>
       </c>
       <c r="I28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -5388,13 +5369,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H29" s="22">
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5402,13 +5383,13 @@
         <v>6.1</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H30" s="22">
         <v>6.1</v>
       </c>
       <c r="I30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -5416,13 +5397,13 @@
         <v>6.2</v>
       </c>
       <c r="B31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H31" s="22">
         <v>6.2</v>
       </c>
       <c r="I31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -5430,13 +5411,13 @@
         <v>6.3</v>
       </c>
       <c r="B32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H32" s="22">
         <v>6.3</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -5444,13 +5425,13 @@
         <v>0.25209490740740742</v>
       </c>
       <c r="B33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -5458,13 +5439,13 @@
         <v>6.4</v>
       </c>
       <c r="B34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H34" s="22">
         <v>6.4</v>
       </c>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5472,13 +5453,13 @@
         <v>6.5</v>
       </c>
       <c r="B35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H35" s="22">
         <v>6.5</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -5486,13 +5467,13 @@
         <v>0.2534837962962963</v>
       </c>
       <c r="B36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -5500,13 +5481,13 @@
         <v>0.25349537037037034</v>
       </c>
       <c r="B37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -5514,13 +5495,13 @@
         <v>0.25350694444444444</v>
       </c>
       <c r="B38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -5528,13 +5509,13 @@
         <v>6.6</v>
       </c>
       <c r="B39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H39" s="22">
         <v>6.6</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -5542,13 +5523,13 @@
         <v>0.25417824074074075</v>
       </c>
       <c r="B40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -5556,13 +5537,13 @@
         <v>0.25418981481481479</v>
       </c>
       <c r="B41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -5570,13 +5551,13 @@
         <v>0.25420138888888888</v>
       </c>
       <c r="B42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -5584,13 +5565,13 @@
         <v>6.7</v>
       </c>
       <c r="B43" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H43" s="22">
         <v>6.7</v>
       </c>
       <c r="I43" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -5598,13 +5579,13 @@
         <v>6.8</v>
       </c>
       <c r="B44" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H44" s="22">
         <v>6.8</v>
       </c>
       <c r="I44" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -5612,13 +5593,13 @@
         <v>0.25556712962962963</v>
       </c>
       <c r="B45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -5626,13 +5607,13 @@
         <v>0.25557870370370367</v>
       </c>
       <c r="B46" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I46" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -5640,13 +5621,13 @@
         <v>0.25559027777777776</v>
       </c>
       <c r="B47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -5654,13 +5635,13 @@
         <v>0.25560185185185186</v>
       </c>
       <c r="B48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -5668,24 +5649,24 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H49" s="22">
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H50" s="22">
         <v>7.1</v>
       </c>
       <c r="I50" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -5693,13 +5674,13 @@
         <v>7.1</v>
       </c>
       <c r="B51" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I51" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -5707,13 +5688,13 @@
         <v>0.29237268518518517</v>
       </c>
       <c r="B52" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I52" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -5721,13 +5702,13 @@
         <v>0.29238425925925926</v>
       </c>
       <c r="B53" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I53" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -5735,13 +5716,13 @@
         <v>0.29239583333333335</v>
       </c>
       <c r="B54" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H54" s="22">
         <v>7.2</v>
       </c>
       <c r="I54" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -5749,13 +5730,13 @@
         <v>7.2</v>
       </c>
       <c r="B55" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H55" s="22">
         <v>7.3</v>
       </c>
       <c r="I55" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -5763,13 +5744,13 @@
         <v>7.3</v>
       </c>
       <c r="B56" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H56" s="22">
         <v>7.4</v>
       </c>
       <c r="I56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -5777,13 +5758,13 @@
         <v>7.4</v>
       </c>
       <c r="B57" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H57" s="22">
         <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -5791,13 +5772,13 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H58" s="22">
         <v>8.1</v>
       </c>
       <c r="I58" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -5805,13 +5786,13 @@
         <v>8.1</v>
       </c>
       <c r="B59" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H59" s="22">
         <v>8.1999999999999993</v>
       </c>
       <c r="I59" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -5819,13 +5800,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B60" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H60" s="22">
         <v>8.3000000000000007</v>
       </c>
       <c r="I60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -5833,13 +5814,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B61" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I61" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -5847,13 +5828,13 @@
         <v>0.33542824074074074</v>
       </c>
       <c r="B62" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I62" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -5861,13 +5842,13 @@
         <v>0.33543981481481483</v>
       </c>
       <c r="B63" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I63" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -5875,13 +5856,13 @@
         <v>0.33545138888888887</v>
       </c>
       <c r="B64" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I64" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -5889,13 +5870,13 @@
         <v>0.33546296296296302</v>
       </c>
       <c r="B65" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I65" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -5903,13 +5884,13 @@
         <v>0.33547453703703706</v>
       </c>
       <c r="B66" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H66" s="22">
         <v>8.4</v>
       </c>
       <c r="I66" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -5917,13 +5898,13 @@
         <v>8.4</v>
       </c>
       <c r="B67" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I67" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -5931,13 +5912,13 @@
         <v>0.33612268518518523</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I68" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -5945,13 +5926,13 @@
         <v>0.33613425925925927</v>
       </c>
       <c r="B69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -5959,13 +5940,13 @@
         <v>0.33614583333333337</v>
       </c>
       <c r="B70" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I70" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -5973,13 +5954,13 @@
         <v>0.3361574074074074</v>
       </c>
       <c r="B71" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I71" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -5987,13 +5968,13 @@
         <v>0.3361689814814815</v>
       </c>
       <c r="B72" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I72" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -6001,13 +5982,13 @@
         <v>0.33618055555555554</v>
       </c>
       <c r="B73" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I73" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -6015,13 +5996,13 @@
         <v>0.33619212962962958</v>
       </c>
       <c r="B74" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I74" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -6029,13 +6010,13 @@
         <v>0.33620370370370373</v>
       </c>
       <c r="B75" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I75" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -6043,13 +6024,13 @@
         <v>0.33621527777777777</v>
       </c>
       <c r="B76" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I76" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -6057,13 +6038,13 @@
         <v>0.33622685185185186</v>
       </c>
       <c r="B77" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H77" s="22">
         <v>8.5</v>
       </c>
       <c r="I77" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -6071,13 +6052,13 @@
         <v>8.5</v>
       </c>
       <c r="B78" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I78" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -6085,13 +6066,13 @@
         <v>0.33681712962962962</v>
       </c>
       <c r="B79" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I79" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -6099,13 +6080,13 @@
         <v>0.33682870370370371</v>
       </c>
       <c r="B80" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H80" s="22">
         <v>8.6</v>
       </c>
       <c r="I80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -6113,13 +6094,13 @@
         <v>8.6</v>
       </c>
       <c r="B81" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I81" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -6127,13 +6108,13 @@
         <v>0.33751157407407412</v>
       </c>
       <c r="B82" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I82" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -6141,13 +6122,13 @@
         <v>0.33752314814814816</v>
       </c>
       <c r="B83" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I83" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -6155,13 +6136,13 @@
         <v>0.33753472222222225</v>
       </c>
       <c r="B84" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I84" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -6169,13 +6150,13 @@
         <v>0.33754629629629629</v>
       </c>
       <c r="B85" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -6183,13 +6164,13 @@
         <v>0.33755787037037038</v>
       </c>
       <c r="B86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H86" s="22">
         <v>8.6999999999999993</v>
       </c>
       <c r="I86" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -6197,13 +6178,13 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B87" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H87" s="22">
         <v>8.8000000000000007</v>
       </c>
       <c r="I87" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -6211,13 +6192,13 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B88" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H88" s="22">
         <v>8.9</v>
       </c>
       <c r="I88" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -6225,13 +6206,13 @@
         <v>8.9</v>
       </c>
       <c r="B89" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H89" s="22">
         <v>8.1</v>
       </c>
       <c r="I89" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -6239,13 +6220,13 @@
         <v>8.1</v>
       </c>
       <c r="B90" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H90" s="22">
         <v>8.11</v>
       </c>
       <c r="I90" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -6253,13 +6234,13 @@
         <v>8.11</v>
       </c>
       <c r="B91" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H91" s="22">
         <v>9</v>
       </c>
       <c r="I91" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -6267,13 +6248,13 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H92" s="22">
         <v>9.1</v>
       </c>
       <c r="I92" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -6281,13 +6262,13 @@
         <v>9.1</v>
       </c>
       <c r="B93" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H93" s="22">
         <v>9.1999999999999993</v>
       </c>
       <c r="I93" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -6295,13 +6276,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B94" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I94" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -6309,13 +6290,13 @@
         <v>0.37640046296296298</v>
       </c>
       <c r="B95" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I95" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -6323,13 +6304,13 @@
         <v>0.37641203703703702</v>
       </c>
       <c r="B96" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I96" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -6337,13 +6318,13 @@
         <v>0.37642361111111106</v>
       </c>
       <c r="B97" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I97" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -6351,13 +6332,13 @@
         <v>0.37643518518518521</v>
       </c>
       <c r="B98" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I98" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -6365,13 +6346,13 @@
         <v>0.37644675925925924</v>
       </c>
       <c r="B99" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H99" s="22">
         <v>9.3000000000000007</v>
       </c>
       <c r="I99" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -6379,13 +6360,13 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B100" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H100" s="22">
         <v>9.4</v>
       </c>
       <c r="I100" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -6393,13 +6374,13 @@
         <v>9.4</v>
       </c>
       <c r="B101" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H101" s="22">
         <v>9.5</v>
       </c>
       <c r="I101" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -6407,13 +6388,13 @@
         <v>9.5</v>
       </c>
       <c r="B102" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H102" s="22">
         <v>9.6</v>
       </c>
       <c r="I102" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -6421,13 +6402,13 @@
         <v>9.6</v>
       </c>
       <c r="B103" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H103" s="22">
         <v>9.6999999999999993</v>
       </c>
       <c r="I103" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -6435,13 +6416,13 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="B104" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H104" s="22">
         <v>9.8000000000000007</v>
       </c>
       <c r="I104" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -6449,13 +6430,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="B105" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H105" s="22">
         <v>9.9</v>
       </c>
       <c r="I105" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -6463,13 +6444,13 @@
         <v>9.9</v>
       </c>
       <c r="B106" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H106" s="22">
         <v>10</v>
       </c>
       <c r="I106" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -6477,13 +6458,13 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H107" s="22">
         <v>10.1</v>
       </c>
       <c r="I107" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -6491,13 +6472,13 @@
         <v>10.1</v>
       </c>
       <c r="B108" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H108" s="22">
         <v>10.199999999999999</v>
       </c>
       <c r="I108" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -6505,13 +6486,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B109" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H109" s="22">
         <v>10.3</v>
       </c>
       <c r="I109" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -6519,13 +6500,13 @@
         <v>10.3</v>
       </c>
       <c r="B110" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H110" s="22">
         <v>10.4</v>
       </c>
       <c r="I110" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -6533,13 +6514,13 @@
         <v>10.4</v>
       </c>
       <c r="B111" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H111" s="22">
         <v>10.5</v>
       </c>
       <c r="I111" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -6547,13 +6528,13 @@
         <v>10.5</v>
       </c>
       <c r="B112" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H112" s="22">
         <v>11</v>
       </c>
       <c r="I112" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -6561,13 +6542,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H113" s="22">
         <v>11.1</v>
       </c>
       <c r="I113" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -6575,13 +6556,13 @@
         <v>11.1</v>
       </c>
       <c r="B114" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H114" s="22">
         <v>11.2</v>
       </c>
       <c r="I114" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -6589,13 +6570,13 @@
         <v>11.2</v>
       </c>
       <c r="B115" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H115" s="22">
         <v>11.3</v>
       </c>
       <c r="I115" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -6603,13 +6584,13 @@
         <v>11.3</v>
       </c>
       <c r="B116" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H116" s="22">
         <v>12</v>
       </c>
       <c r="I116" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -6617,13 +6598,13 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H117" s="22">
         <v>12.1</v>
       </c>
       <c r="I117" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -6631,13 +6612,13 @@
         <v>12.1</v>
       </c>
       <c r="B118" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H118" s="22">
         <v>12.2</v>
       </c>
       <c r="I118" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -6645,13 +6626,13 @@
         <v>12.2</v>
       </c>
       <c r="B119" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H119" s="22">
         <v>12.3</v>
       </c>
       <c r="I119" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -6659,13 +6640,13 @@
         <v>12.3</v>
       </c>
       <c r="B120" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H120" s="22">
         <v>12.4</v>
       </c>
       <c r="I120" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -6673,13 +6654,13 @@
         <v>12.4</v>
       </c>
       <c r="B121" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H121" s="22">
         <v>13</v>
       </c>
       <c r="I121" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -6687,13 +6668,13 @@
         <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H122" s="22">
         <v>13.1</v>
       </c>
       <c r="I122" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -6701,13 +6682,13 @@
         <v>13.1</v>
       </c>
       <c r="B123" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H123" s="22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I123" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -6715,13 +6696,13 @@
         <v>0.54237268518518522</v>
       </c>
       <c r="B124" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H124" s="22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I124" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -6729,13 +6710,13 @@
         <v>0.54238425925925926</v>
       </c>
       <c r="B125" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I125" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -6743,13 +6724,13 @@
         <v>0.5423958333333333</v>
       </c>
       <c r="B126" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H126" s="22">
         <v>13.2</v>
       </c>
       <c r="I126" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -6757,13 +6738,13 @@
         <v>13.2</v>
       </c>
       <c r="B127" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H127" s="22">
         <v>13.3</v>
       </c>
       <c r="I127" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -6771,13 +6752,13 @@
         <v>13.3</v>
       </c>
       <c r="B128" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H128" s="22">
         <v>13.4</v>
       </c>
       <c r="I128" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -6785,13 +6766,13 @@
         <v>13.4</v>
       </c>
       <c r="B129" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H129" s="22">
         <v>14</v>
       </c>
       <c r="I129" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -6799,13 +6780,13 @@
         <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H130" s="22">
         <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -6813,7 +6794,7 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -6837,18 +6818,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
         <v>142</v>
-      </c>
-      <c r="B1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6904,13 +6885,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6924,13 +6905,13 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -6955,10 +6936,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -6966,10 +6947,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -6979,41 +6960,41 @@
       <c r="A3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -7024,7 +7005,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -7035,7 +7016,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -7043,10 +7024,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -7054,7 +7035,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -7063,7 +7044,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>42</v>
@@ -7083,16 +7064,16 @@
         <v>40</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -7100,16 +7081,16 @@
         <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -7126,16 +7107,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7160,19 +7141,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>250</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -7180,16 +7161,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -7200,13 +7181,13 @@
         <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -7234,13 +7215,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>237</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -7248,10 +7229,10 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -7259,10 +7240,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7270,10 +7251,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -7281,10 +7262,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -7314,10 +7295,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -7338,10 +7319,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -7364,10 +7345,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -7458,29 +7439,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -7501,7 +7482,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7584,16 +7565,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>259</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7601,7 +7582,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7609,13 +7590,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7661,179 +7642,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>567</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>568</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D2" t="s">
         <v>570</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>571</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="27" t="s">
         <v>572</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>573</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="H2" t="s">
         <v>574</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>575</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>576</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>577</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>578</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>579</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>580</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>581</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>582</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R2" t="s">
         <v>583</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="28" t="s">
         <v>584</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>172</v>
-      </c>
-      <c r="R2" t="s">
-        <v>585</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" t="s">
         <v>587</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="G3" t="s">
+        <v>573</v>
+      </c>
+      <c r="H3" t="s">
         <v>588</v>
       </c>
-      <c r="D3" t="s">
-        <v>572</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>575</v>
+      </c>
+      <c r="J3" t="s">
         <v>589</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="G3" t="s">
-        <v>575</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>590</v>
       </c>
-      <c r="I3" t="s">
-        <v>577</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>591</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>579</v>
+      </c>
+      <c r="N3" t="s">
+        <v>580</v>
+      </c>
+      <c r="O3" t="s">
+        <v>581</v>
+      </c>
+      <c r="P3" t="s">
         <v>592</v>
       </c>
-      <c r="L3" t="s">
-        <v>593</v>
-      </c>
-      <c r="M3" t="s">
-        <v>581</v>
-      </c>
-      <c r="N3" t="s">
-        <v>582</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>170</v>
+      </c>
+      <c r="R3" t="s">
         <v>583</v>
       </c>
-      <c r="P3" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>172</v>
-      </c>
-      <c r="R3" t="s">
-        <v>585</v>
-      </c>
       <c r="S3" s="28" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -7858,13 +7839,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>60</v>
@@ -7872,13 +7853,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>61</v>
@@ -7886,13 +7867,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>62</v>

--- a/tests/integration_test_files/invalid_section_levels.xlsx
+++ b/tests/integration_test_files/invalid_section_levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988A774D-8254-AD47-BF0E-57119ED243E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9E32D1-A22B-CA4C-B570-C50B3A7F9DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53500" yWindow="860" windowWidth="33000" windowHeight="22600" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="53500" yWindow="860" windowWidth="33000" windowHeight="22600" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -19,18 +19,19 @@
     <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignInterventions" sheetId="19" r:id="rId8"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId16"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId17"/>
-    <sheet name="configuration" sheetId="10" r:id="rId18"/>
+    <sheet name="studyDesignTiming" sheetId="20" r:id="rId7"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId8"/>
+    <sheet name="studyDesignInterventions" sheetId="19" r:id="rId9"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId10"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId11"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId12"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId13"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId14"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId15"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId16"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId18"/>
+    <sheet name="configuration" sheetId="10" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,10 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="604">
-  <si>
-    <t>Epoch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="630">
   <si>
     <t>Screening</t>
   </si>
@@ -64,15 +62,6 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Cycle End Rule</t>
-  </si>
-  <si>
-    <t>A:</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -82,9 +71,6 @@
     <t>Child Activity</t>
   </si>
   <si>
-    <t>N: 0..2 Days</t>
-  </si>
-  <si>
     <t>Demographics</t>
   </si>
   <si>
@@ -97,36 +83,12 @@
     <t>15 min</t>
   </si>
   <si>
-    <t>P: +24 Hours</t>
-  </si>
-  <si>
-    <t>0..4 Hours</t>
-  </si>
-  <si>
-    <t>N: Pre Dose</t>
-  </si>
-  <si>
     <t>Day 24</t>
   </si>
   <si>
     <t>Day 35</t>
   </si>
   <si>
-    <t>P: +7 Days</t>
-  </si>
-  <si>
-    <t>-3..3 Days</t>
-  </si>
-  <si>
-    <t>First Cycle Start</t>
-  </si>
-  <si>
-    <t>Cycle Period</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -644,12 +606,6 @@
   </si>
   <si>
     <t>E5</t>
-  </si>
-  <si>
-    <t>Encounter xref</t>
-  </si>
-  <si>
-    <t>Window</t>
   </si>
   <si>
     <t>BC/Procedure/Timeline</t>
@@ -1873,6 +1829,129 @@
   </si>
   <si>
     <t>31 .. 70 years</t>
+  </si>
+  <si>
+    <t>SCREEN</t>
+  </si>
+  <si>
+    <t>PRE DOSE</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Pre Dose</t>
+  </si>
+  <si>
+    <t>Dosing</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>(EXIT)</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>timingValue</t>
+  </si>
+  <si>
+    <t>toFrom</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>TIM1</t>
+  </si>
+  <si>
+    <t>Screening timing</t>
+  </si>
+  <si>
+    <t>BEFORE</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>S2S</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>Pre dose timing</t>
+  </si>
+  <si>
+    <t>Pre dose</t>
+  </si>
+  <si>
+    <t>0..4 hours</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>Dosing anchor</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>24 Hour timing</t>
+  </si>
+  <si>
+    <t>AFTER</t>
+  </si>
+  <si>
+    <t>24 Hours</t>
+  </si>
+  <si>
+    <t>TIM5</t>
+  </si>
+  <si>
+    <t>Follow up timing</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>-3..3 days</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +2041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2034,13 +2113,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2060,9 +2136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2100,7 +2176,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2206,7 +2282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2348,7 +2424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2375,10 +2451,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2387,10 +2463,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2399,10 +2475,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -2411,10 +2487,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2423,10 +2499,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2435,10 +2511,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2447,10 +2523,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2459,10 +2535,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2471,10 +2547,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2483,10 +2559,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2495,10 +2571,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2507,10 +2583,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2519,10 +2595,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -2531,10 +2607,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2562,10 +2638,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -2582,36 +2720,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="B2" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2620,29 +2758,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="B3" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="G3" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="B4" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="G4" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +2788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2674,85 +2812,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2761,16 +2899,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2779,16 +2917,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2797,16 +2935,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2815,16 +2953,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2833,16 +2971,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2851,16 +2989,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2869,16 +3007,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2887,16 +3025,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2905,16 +3043,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2923,16 +3061,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3217,7 +3355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3237,90 +3375,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3328,7 +3466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3349,65 +3487,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3420,7 +3558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3440,137 +3578,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3579,7 +3717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3597,104 +3735,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3703,7 +3841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D137"/>
   <sheetViews>
@@ -3721,1219 +3859,1219 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="9" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="9" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="9" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="9" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="9" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="9" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="9" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="9" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="9" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="9" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="9" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="9" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="9" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="9" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="9" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="9" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="9" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="9" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="9" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="9" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="9" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="9" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="9" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="9" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="9" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="9" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="9" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="9" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="9" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="9" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="9" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="9" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="9" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="9" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="9" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B48" s="25"/>
       <c r="C48" s="9" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="9" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="9" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="9" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B52" s="25"/>
       <c r="C52" s="9" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="9" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="9" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="9" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="B56" s="25"/>
       <c r="C56" s="9" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="9" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="9" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B59" s="25"/>
       <c r="C59" s="9" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="9" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="9" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B62" s="25"/>
       <c r="C62" s="9" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B63" s="25"/>
       <c r="C63" s="9" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="9" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B65" s="25"/>
       <c r="C65" s="9" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B66" s="25"/>
       <c r="C66" s="9" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="B67" s="25"/>
       <c r="C67" s="9" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B68" s="25"/>
       <c r="C68" s="9" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="9" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B70" s="25"/>
       <c r="C70" s="9" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B71" s="25"/>
       <c r="C71" s="9" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="9" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B73" s="25"/>
       <c r="C73" s="9" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B74" s="25"/>
       <c r="C74" s="9" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B75" s="25"/>
       <c r="C75" s="9" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B76" s="25"/>
       <c r="C76" s="9" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B77" s="25"/>
       <c r="C77" s="9" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="B78" s="25"/>
       <c r="C78" s="9" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B79" s="25"/>
       <c r="C79" s="9" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B80" s="25"/>
       <c r="C80" s="9" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B81" s="25"/>
       <c r="C81" s="9" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B82" s="25"/>
       <c r="C82" s="9" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B83" s="25"/>
       <c r="C83" s="9" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B84" s="25"/>
       <c r="C84" s="9" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B85" s="25"/>
       <c r="C85" s="9" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B86" s="25"/>
       <c r="C86" s="9" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="B87" s="25"/>
       <c r="C87" s="9" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="B88" s="25"/>
       <c r="C88" s="9" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="B89" s="25"/>
       <c r="C89" s="9" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B90" s="25"/>
       <c r="C90" s="9" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B91" s="25"/>
       <c r="C91" s="9" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B92" s="25"/>
       <c r="C92" s="9" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B93" s="25"/>
       <c r="C93" s="9" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="9" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B95" s="25"/>
       <c r="C95" s="9" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B96" s="25"/>
       <c r="C96" s="9" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B97" s="25"/>
       <c r="C97" s="9" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B98" s="25"/>
       <c r="C98" s="9" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B99" s="25"/>
       <c r="C99" s="9" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="B100" s="25"/>
       <c r="C100" s="9" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="B101" s="25"/>
       <c r="C101" s="9" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B102" s="25"/>
       <c r="C102" s="9" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B103" s="25"/>
       <c r="C103" s="9" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="B104" s="25"/>
       <c r="C104" s="9" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="B105" s="25"/>
       <c r="C105" s="9" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="B106" s="25"/>
       <c r="C106" s="9" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B107" s="25"/>
       <c r="C107" s="9" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="B108" s="25"/>
       <c r="C108" s="9" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B109" s="25"/>
       <c r="C109" s="9" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B110" s="25"/>
       <c r="C110" s="9" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="B111" s="25"/>
       <c r="C111" s="9" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="B112" s="25"/>
       <c r="C112" s="9" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="B113" s="25"/>
       <c r="C113" s="9" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B114" s="25"/>
       <c r="C114" s="9" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="B115" s="25"/>
       <c r="C115" s="9" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B116" s="25"/>
       <c r="C116" s="9" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B117" s="25"/>
       <c r="C117" s="9" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="B118" s="25"/>
       <c r="C118" s="9" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="B119" s="25"/>
       <c r="C119" s="9" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="B120" s="25"/>
       <c r="C120" s="9" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B121" s="25"/>
       <c r="C121" s="9" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B122" s="25"/>
       <c r="C122" s="9" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B123" s="25"/>
       <c r="C123" s="9" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B124" s="25"/>
       <c r="C124" s="9" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B125" s="25"/>
       <c r="C125" s="9" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B126" s="25"/>
       <c r="C126" s="9" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="B127" s="25"/>
       <c r="C127" s="9" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="B128" s="25"/>
       <c r="C128" s="9" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B129" s="25"/>
       <c r="C129" s="9" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B130" s="25"/>
       <c r="C130" s="9" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="B131" s="25"/>
       <c r="C131" s="9" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -4942,7 +5080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0003C67-3768-3A4E-9F90-6843014614B3}">
   <dimension ref="A1:O131"/>
   <sheetViews>
@@ -4961,13 +5099,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="O1" s="23" t="str">
         <f>TEXT(H2,"0")</f>
@@ -4979,13 +5117,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="I2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="O2" s="23" t="str">
         <f>TEXT(H3,"0")</f>
@@ -4997,13 +5135,13 @@
         <v>1.2</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="I3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="O3" s="23" t="str">
         <f>TEXT(H4,"0")</f>
@@ -5015,13 +5153,13 @@
         <v>1.3</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="I4" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="O4" s="23" t="str">
         <f>TEXT(H5,"0")</f>
@@ -5033,13 +5171,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="I5" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -5047,13 +5185,13 @@
         <v>2.1</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="I6" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -5061,13 +5199,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="I7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -5075,13 +5213,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="I8" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -5089,13 +5227,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="I9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -5103,13 +5241,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="I10" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -5117,13 +5255,13 @@
         <v>0.16737268518518519</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="I11" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -5131,13 +5269,13 @@
         <v>4.2</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="I12" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -5145,13 +5283,13 @@
         <v>0.16806712962962964</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="I13" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -5159,13 +5297,13 @@
         <v>0.1680787037037037</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="I14" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -5173,13 +5311,13 @@
         <v>0.16809027777777777</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="I15" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -5187,13 +5325,13 @@
         <v>4.3</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="H16" s="22">
         <v>4.3</v>
       </c>
       <c r="I16" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5201,13 +5339,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="H17" s="22">
         <v>4.4000000000000004</v>
       </c>
       <c r="I17" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -5215,13 +5353,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="H18" s="22">
         <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -5229,13 +5367,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B19" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="H19" s="22">
         <v>5.0999999999999996</v>
       </c>
       <c r="I19" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -5243,13 +5381,13 @@
         <v>5.2</v>
       </c>
       <c r="B20" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="H20" s="22">
         <v>5.2</v>
       </c>
       <c r="I20" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -5257,13 +5395,13 @@
         <v>5.3</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="H21" s="22">
         <v>5.3</v>
       </c>
       <c r="I21" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -5271,13 +5409,13 @@
         <v>5.4</v>
       </c>
       <c r="B22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="H22" s="22">
         <v>5.4</v>
       </c>
       <c r="I22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -5285,13 +5423,13 @@
         <v>5.5</v>
       </c>
       <c r="B23" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="H23" s="22">
         <v>5.5</v>
       </c>
       <c r="I23" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -5299,13 +5437,13 @@
         <v>0.21181712962962962</v>
       </c>
       <c r="B24" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="I24" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5313,13 +5451,13 @@
         <v>0.21182870370370369</v>
       </c>
       <c r="B25" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="I25" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -5327,13 +5465,13 @@
         <v>0.21184027777777778</v>
       </c>
       <c r="B26" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="I26" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -5341,13 +5479,13 @@
         <v>0.21185185185185185</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="I27" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5355,13 +5493,13 @@
         <v>5.6</v>
       </c>
       <c r="B28" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="H28" s="22">
         <v>5.6</v>
       </c>
       <c r="I28" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -5369,13 +5507,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="H29" s="22">
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5383,13 +5521,13 @@
         <v>6.1</v>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H30" s="22">
         <v>6.1</v>
       </c>
       <c r="I30" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -5397,13 +5535,13 @@
         <v>6.2</v>
       </c>
       <c r="B31" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="H31" s="22">
         <v>6.2</v>
       </c>
       <c r="I31" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -5411,13 +5549,13 @@
         <v>6.3</v>
       </c>
       <c r="B32" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="H32" s="22">
         <v>6.3</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -5425,13 +5563,13 @@
         <v>0.25209490740740742</v>
       </c>
       <c r="B33" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -5439,13 +5577,13 @@
         <v>6.4</v>
       </c>
       <c r="B34" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="H34" s="22">
         <v>6.4</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5453,13 +5591,13 @@
         <v>6.5</v>
       </c>
       <c r="B35" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="H35" s="22">
         <v>6.5</v>
       </c>
       <c r="I35" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -5467,13 +5605,13 @@
         <v>0.2534837962962963</v>
       </c>
       <c r="B36" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="I36" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -5481,13 +5619,13 @@
         <v>0.25349537037037034</v>
       </c>
       <c r="B37" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="I37" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -5495,13 +5633,13 @@
         <v>0.25350694444444444</v>
       </c>
       <c r="B38" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="I38" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -5509,13 +5647,13 @@
         <v>6.6</v>
       </c>
       <c r="B39" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="H39" s="22">
         <v>6.6</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -5523,13 +5661,13 @@
         <v>0.25417824074074075</v>
       </c>
       <c r="B40" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="I40" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -5537,13 +5675,13 @@
         <v>0.25418981481481479</v>
       </c>
       <c r="B41" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="I41" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -5551,13 +5689,13 @@
         <v>0.25420138888888888</v>
       </c>
       <c r="B42" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="I42" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -5565,13 +5703,13 @@
         <v>6.7</v>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="H43" s="22">
         <v>6.7</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -5579,13 +5717,13 @@
         <v>6.8</v>
       </c>
       <c r="B44" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="H44" s="22">
         <v>6.8</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -5593,13 +5731,13 @@
         <v>0.25556712962962963</v>
       </c>
       <c r="B45" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="I45" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -5607,13 +5745,13 @@
         <v>0.25557870370370367</v>
       </c>
       <c r="B46" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="I46" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -5621,13 +5759,13 @@
         <v>0.25559027777777776</v>
       </c>
       <c r="B47" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="I47" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -5635,13 +5773,13 @@
         <v>0.25560185185185186</v>
       </c>
       <c r="B48" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="I48" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -5649,24 +5787,24 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="H49" s="22">
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="H50" s="22">
         <v>7.1</v>
       </c>
       <c r="I50" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -5674,13 +5812,13 @@
         <v>7.1</v>
       </c>
       <c r="B51" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="I51" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -5688,13 +5826,13 @@
         <v>0.29237268518518517</v>
       </c>
       <c r="B52" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="I52" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -5702,13 +5840,13 @@
         <v>0.29238425925925926</v>
       </c>
       <c r="B53" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="I53" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -5716,13 +5854,13 @@
         <v>0.29239583333333335</v>
       </c>
       <c r="B54" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="H54" s="22">
         <v>7.2</v>
       </c>
       <c r="I54" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -5730,13 +5868,13 @@
         <v>7.2</v>
       </c>
       <c r="B55" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="H55" s="22">
         <v>7.3</v>
       </c>
       <c r="I55" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -5744,13 +5882,13 @@
         <v>7.3</v>
       </c>
       <c r="B56" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="H56" s="22">
         <v>7.4</v>
       </c>
       <c r="I56" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -5758,13 +5896,13 @@
         <v>7.4</v>
       </c>
       <c r="B57" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="H57" s="22">
         <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -5772,13 +5910,13 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="H58" s="22">
         <v>8.1</v>
       </c>
       <c r="I58" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -5786,13 +5924,13 @@
         <v>8.1</v>
       </c>
       <c r="B59" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H59" s="22">
         <v>8.1999999999999993</v>
       </c>
       <c r="I59" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -5800,13 +5938,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B60" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="H60" s="22">
         <v>8.3000000000000007</v>
       </c>
       <c r="I60" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -5814,13 +5952,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B61" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="I61" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -5828,13 +5966,13 @@
         <v>0.33542824074074074</v>
       </c>
       <c r="B62" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="I62" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -5842,13 +5980,13 @@
         <v>0.33543981481481483</v>
       </c>
       <c r="B63" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="I63" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -5856,13 +5994,13 @@
         <v>0.33545138888888887</v>
       </c>
       <c r="B64" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="I64" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -5870,13 +6008,13 @@
         <v>0.33546296296296302</v>
       </c>
       <c r="B65" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="I65" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -5884,13 +6022,13 @@
         <v>0.33547453703703706</v>
       </c>
       <c r="B66" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="H66" s="22">
         <v>8.4</v>
       </c>
       <c r="I66" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -5898,13 +6036,13 @@
         <v>8.4</v>
       </c>
       <c r="B67" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="I67" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -5912,13 +6050,13 @@
         <v>0.33612268518518523</v>
       </c>
       <c r="B68" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="I68" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -5926,13 +6064,13 @@
         <v>0.33613425925925927</v>
       </c>
       <c r="B69" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="I69" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -5940,13 +6078,13 @@
         <v>0.33614583333333337</v>
       </c>
       <c r="B70" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="I70" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -5954,13 +6092,13 @@
         <v>0.3361574074074074</v>
       </c>
       <c r="B71" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="I71" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -5968,13 +6106,13 @@
         <v>0.3361689814814815</v>
       </c>
       <c r="B72" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I72" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -5982,13 +6120,13 @@
         <v>0.33618055555555554</v>
       </c>
       <c r="B73" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="I73" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -5996,13 +6134,13 @@
         <v>0.33619212962962958</v>
       </c>
       <c r="B74" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="I74" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -6010,13 +6148,13 @@
         <v>0.33620370370370373</v>
       </c>
       <c r="B75" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="I75" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -6024,13 +6162,13 @@
         <v>0.33621527777777777</v>
       </c>
       <c r="B76" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="I76" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -6038,13 +6176,13 @@
         <v>0.33622685185185186</v>
       </c>
       <c r="B77" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="H77" s="22">
         <v>8.5</v>
       </c>
       <c r="I77" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -6052,13 +6190,13 @@
         <v>8.5</v>
       </c>
       <c r="B78" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="I78" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -6066,13 +6204,13 @@
         <v>0.33681712962962962</v>
       </c>
       <c r="B79" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="I79" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -6080,13 +6218,13 @@
         <v>0.33682870370370371</v>
       </c>
       <c r="B80" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="H80" s="22">
         <v>8.6</v>
       </c>
       <c r="I80" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -6094,13 +6232,13 @@
         <v>8.6</v>
       </c>
       <c r="B81" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="I81" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -6108,13 +6246,13 @@
         <v>0.33751157407407412</v>
       </c>
       <c r="B82" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="I82" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -6122,13 +6260,13 @@
         <v>0.33752314814814816</v>
       </c>
       <c r="B83" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="I83" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -6136,13 +6274,13 @@
         <v>0.33753472222222225</v>
       </c>
       <c r="B84" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="I84" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -6150,13 +6288,13 @@
         <v>0.33754629629629629</v>
       </c>
       <c r="B85" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="I85" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -6164,13 +6302,13 @@
         <v>0.33755787037037038</v>
       </c>
       <c r="B86" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="H86" s="22">
         <v>8.6999999999999993</v>
       </c>
       <c r="I86" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -6178,13 +6316,13 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B87" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="H87" s="22">
         <v>8.8000000000000007</v>
       </c>
       <c r="I87" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -6192,13 +6330,13 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B88" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="H88" s="22">
         <v>8.9</v>
       </c>
       <c r="I88" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -6206,13 +6344,13 @@
         <v>8.9</v>
       </c>
       <c r="B89" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="H89" s="22">
         <v>8.1</v>
       </c>
       <c r="I89" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -6220,13 +6358,13 @@
         <v>8.1</v>
       </c>
       <c r="B90" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="H90" s="22">
         <v>8.11</v>
       </c>
       <c r="I90" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -6234,13 +6372,13 @@
         <v>8.11</v>
       </c>
       <c r="B91" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H91" s="22">
         <v>9</v>
       </c>
       <c r="I91" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -6248,13 +6386,13 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="H92" s="22">
         <v>9.1</v>
       </c>
       <c r="I92" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -6262,13 +6400,13 @@
         <v>9.1</v>
       </c>
       <c r="B93" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="H93" s="22">
         <v>9.1999999999999993</v>
       </c>
       <c r="I93" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -6276,13 +6414,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B94" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="I94" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -6290,13 +6428,13 @@
         <v>0.37640046296296298</v>
       </c>
       <c r="B95" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="I95" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -6304,13 +6442,13 @@
         <v>0.37641203703703702</v>
       </c>
       <c r="B96" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="I96" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -6318,13 +6456,13 @@
         <v>0.37642361111111106</v>
       </c>
       <c r="B97" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="I97" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -6332,13 +6470,13 @@
         <v>0.37643518518518521</v>
       </c>
       <c r="B98" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="I98" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -6346,13 +6484,13 @@
         <v>0.37644675925925924</v>
       </c>
       <c r="B99" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="H99" s="22">
         <v>9.3000000000000007</v>
       </c>
       <c r="I99" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -6360,13 +6498,13 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B100" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="H100" s="22">
         <v>9.4</v>
       </c>
       <c r="I100" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -6374,13 +6512,13 @@
         <v>9.4</v>
       </c>
       <c r="B101" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="H101" s="22">
         <v>9.5</v>
       </c>
       <c r="I101" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -6388,13 +6526,13 @@
         <v>9.5</v>
       </c>
       <c r="B102" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="H102" s="22">
         <v>9.6</v>
       </c>
       <c r="I102" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -6402,13 +6540,13 @@
         <v>9.6</v>
       </c>
       <c r="B103" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="H103" s="22">
         <v>9.6999999999999993</v>
       </c>
       <c r="I103" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -6416,13 +6554,13 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="B104" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="H104" s="22">
         <v>9.8000000000000007</v>
       </c>
       <c r="I104" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -6430,13 +6568,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="B105" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="H105" s="22">
         <v>9.9</v>
       </c>
       <c r="I105" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -6444,13 +6582,13 @@
         <v>9.9</v>
       </c>
       <c r="B106" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="H106" s="22">
         <v>10</v>
       </c>
       <c r="I106" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -6458,13 +6596,13 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="H107" s="22">
         <v>10.1</v>
       </c>
       <c r="I107" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -6472,13 +6610,13 @@
         <v>10.1</v>
       </c>
       <c r="B108" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="H108" s="22">
         <v>10.199999999999999</v>
       </c>
       <c r="I108" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -6486,13 +6624,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B109" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="H109" s="22">
         <v>10.3</v>
       </c>
       <c r="I109" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -6500,13 +6638,13 @@
         <v>10.3</v>
       </c>
       <c r="B110" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="H110" s="22">
         <v>10.4</v>
       </c>
       <c r="I110" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -6514,13 +6652,13 @@
         <v>10.4</v>
       </c>
       <c r="B111" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="H111" s="22">
         <v>10.5</v>
       </c>
       <c r="I111" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -6528,13 +6666,13 @@
         <v>10.5</v>
       </c>
       <c r="B112" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="H112" s="22">
         <v>11</v>
       </c>
       <c r="I112" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -6542,13 +6680,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H113" s="22">
         <v>11.1</v>
       </c>
       <c r="I113" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -6556,13 +6694,13 @@
         <v>11.1</v>
       </c>
       <c r="B114" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="H114" s="22">
         <v>11.2</v>
       </c>
       <c r="I114" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -6570,13 +6708,13 @@
         <v>11.2</v>
       </c>
       <c r="B115" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="H115" s="22">
         <v>11.3</v>
       </c>
       <c r="I115" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -6584,13 +6722,13 @@
         <v>11.3</v>
       </c>
       <c r="B116" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="H116" s="22">
         <v>12</v>
       </c>
       <c r="I116" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -6598,13 +6736,13 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="H117" s="22">
         <v>12.1</v>
       </c>
       <c r="I117" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -6612,13 +6750,13 @@
         <v>12.1</v>
       </c>
       <c r="B118" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="H118" s="22">
         <v>12.2</v>
       </c>
       <c r="I118" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -6626,13 +6764,13 @@
         <v>12.2</v>
       </c>
       <c r="B119" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="H119" s="22">
         <v>12.3</v>
       </c>
       <c r="I119" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -6640,13 +6778,13 @@
         <v>12.3</v>
       </c>
       <c r="B120" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="H120" s="22">
         <v>12.4</v>
       </c>
       <c r="I120" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -6654,13 +6792,13 @@
         <v>12.4</v>
       </c>
       <c r="B121" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="H121" s="22">
         <v>13</v>
       </c>
       <c r="I121" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -6668,13 +6806,13 @@
         <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="H122" s="22">
         <v>13.1</v>
       </c>
       <c r="I122" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -6682,13 +6820,13 @@
         <v>13.1</v>
       </c>
       <c r="B123" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="H123" s="22" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="I123" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -6696,13 +6834,13 @@
         <v>0.54237268518518522</v>
       </c>
       <c r="B124" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="H124" s="22" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="I124" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -6710,13 +6848,13 @@
         <v>0.54238425925925926</v>
       </c>
       <c r="B125" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="I125" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -6724,13 +6862,13 @@
         <v>0.5423958333333333</v>
       </c>
       <c r="B126" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H126" s="22">
         <v>13.2</v>
       </c>
       <c r="I126" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -6738,13 +6876,13 @@
         <v>13.2</v>
       </c>
       <c r="B127" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="H127" s="22">
         <v>13.3</v>
       </c>
       <c r="I127" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -6752,13 +6890,13 @@
         <v>13.3</v>
       </c>
       <c r="B128" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="H128" s="22">
         <v>13.4</v>
       </c>
       <c r="I128" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -6766,13 +6904,13 @@
         <v>13.4</v>
       </c>
       <c r="B129" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="H129" s="22">
         <v>14</v>
       </c>
       <c r="I129" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -6780,13 +6918,13 @@
         <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="H130" s="22">
         <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -6794,7 +6932,7 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -6803,7 +6941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -6818,18 +6956,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -6856,62 +6994,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -6936,10 +7074,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -6947,10 +7085,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -6958,43 +7096,43 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+        <v>31</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+        <v>32</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+        <v>33</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -7002,10 +7140,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -7013,10 +7151,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -7024,10 +7162,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -7035,7 +7173,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -7044,53 +7182,53 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -7107,16 +7245,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7141,53 +7279,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -7215,57 +7353,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -7281,13 +7419,13 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:B11"/>
+      <selection pane="bottomRight" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="10.83203125" style="1"/>
@@ -7295,258 +7433,435 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>454</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>594</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>595</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>596</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>21</v>
+        <v>534</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>597</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>596</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>598</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>598</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>598</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>598</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>4</v>
+        <v>599</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>590</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>591</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>592</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>593</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>197</v>
+        <v>602</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>193</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>603</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C1AEE4-F75D-6D43-AB1C-E531FDBDDB3D}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>613</v>
+      </c>
+      <c r="I3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" t="s">
+        <v>620</v>
+      </c>
+      <c r="E4" t="s">
+        <v>591</v>
+      </c>
+      <c r="F4" t="s">
+        <v>591</v>
+      </c>
+      <c r="G4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E5" t="s">
+        <v>592</v>
+      </c>
+      <c r="F5" t="s">
+        <v>591</v>
+      </c>
+      <c r="G5" t="s">
+        <v>625</v>
+      </c>
+      <c r="H5" t="s">
+        <v>613</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E6" t="s">
+        <v>593</v>
+      </c>
+      <c r="F6" t="s">
+        <v>591</v>
+      </c>
+      <c r="G6" t="s">
+        <v>628</v>
+      </c>
+      <c r="H6" t="s">
+        <v>613</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -7565,38 +7880,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7608,7 +7923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC86E4E-4F98-F24A-9FA9-F3A5D3D75133}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -7642,241 +7957,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>562</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>563</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>564</v>
-      </c>
       <c r="Q1" s="21" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="G2" t="s">
+        <v>558</v>
+      </c>
+      <c r="H2" t="s">
+        <v>559</v>
+      </c>
+      <c r="I2" t="s">
+        <v>560</v>
+      </c>
+      <c r="J2" t="s">
+        <v>561</v>
+      </c>
+      <c r="K2" t="s">
+        <v>562</v>
+      </c>
+      <c r="L2" t="s">
+        <v>563</v>
+      </c>
+      <c r="M2" t="s">
+        <v>564</v>
+      </c>
+      <c r="N2" t="s">
+        <v>565</v>
+      </c>
+      <c r="O2" t="s">
+        <v>566</v>
+      </c>
+      <c r="P2" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" t="s">
         <v>568</v>
       </c>
-      <c r="C2" t="s">
+      <c r="S2" s="28" t="s">
         <v>569</v>
-      </c>
-      <c r="D2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>572</v>
-      </c>
-      <c r="G2" t="s">
-        <v>573</v>
-      </c>
-      <c r="H2" t="s">
-        <v>574</v>
-      </c>
-      <c r="I2" t="s">
-        <v>575</v>
-      </c>
-      <c r="J2" t="s">
-        <v>576</v>
-      </c>
-      <c r="K2" t="s">
-        <v>577</v>
-      </c>
-      <c r="L2" t="s">
-        <v>578</v>
-      </c>
-      <c r="M2" t="s">
-        <v>579</v>
-      </c>
-      <c r="N2" t="s">
-        <v>580</v>
-      </c>
-      <c r="O2" t="s">
-        <v>581</v>
-      </c>
-      <c r="P2" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>170</v>
-      </c>
-      <c r="R2" t="s">
-        <v>583</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="C3" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="D3" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="E3" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="G3" t="s">
+        <v>558</v>
+      </c>
+      <c r="H3" t="s">
         <v>573</v>
       </c>
-      <c r="H3" t="s">
-        <v>588</v>
-      </c>
       <c r="I3" t="s">
+        <v>560</v>
+      </c>
+      <c r="J3" t="s">
+        <v>574</v>
+      </c>
+      <c r="K3" t="s">
         <v>575</v>
       </c>
-      <c r="J3" t="s">
-        <v>589</v>
-      </c>
-      <c r="K3" t="s">
-        <v>590</v>
-      </c>
       <c r="L3" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="M3" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="N3" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="O3" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="P3" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="Q3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="R3" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="S3" s="28" t="s">
-        <v>584</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C3" t="s">
-        <v>553</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>62</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/invalid_section_levels.xlsx
+++ b/tests/integration_test_files/invalid_section_levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9E32D1-A22B-CA4C-B570-C50B3A7F9DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DAD37C-A86A-0442-BEE4-9AF63DDDEDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53500" yWindow="860" windowWidth="33000" windowHeight="22600" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="12340" yWindow="560" windowWidth="33000" windowHeight="22600" firstSheet="9" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -30,8 +30,7 @@
     <sheet name="studyDesignEncounters" sheetId="12" r:id="rId15"/>
     <sheet name="studyDesignElements" sheetId="13" r:id="rId16"/>
     <sheet name="studyDesignContent" sheetId="17" r:id="rId17"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId18"/>
-    <sheet name="configuration" sheetId="10" r:id="rId19"/>
+    <sheet name="configuration" sheetId="10" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="621">
   <si>
     <t>Screening</t>
   </si>
@@ -950,12 +949,6 @@
     <t>Other Therapy</t>
   </si>
   <si>
-    <t>DISCONTINUATION OF TRIAL INTERVENTION AND PARTICIP</t>
-  </si>
-  <si>
-    <t>WITHDRAWAL FROM TRIAL</t>
-  </si>
-  <si>
     <t>Discontinuation of Trial Intervention</t>
   </si>
   <si>
@@ -1202,9 +1195,6 @@
     <t>DISCONTINUATION OF TRIAL INTERVENTION AND PARTICIPANT WITHDRAWAL FROM TRIAL</t>
   </si>
   <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -1244,18 +1234,6 @@
     <t>4.2.3</t>
   </si>
   <si>
-    <t>5.3.1</t>
-  </si>
-  <si>
-    <t>5.3.2</t>
-  </si>
-  <si>
-    <t>5.3.3</t>
-  </si>
-  <si>
-    <t>5.3.4</t>
-  </si>
-  <si>
     <t>6.3.1</t>
   </si>
   <si>
@@ -1298,9 +1276,6 @@
     <t>7.1.3</t>
   </si>
   <si>
-    <t>8.3.1.</t>
-  </si>
-  <si>
     <t>8.3.2</t>
   </si>
   <si>
@@ -1311,9 +1286,6 @@
   </si>
   <si>
     <t>8.3.5</t>
-  </si>
-  <si>
-    <t>8.4.1.</t>
   </si>
   <si>
     <t>8.4.2</t>
@@ -1958,7 +1930,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1995,12 +1967,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2041,7 +2007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2096,8 +2062,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2107,16 +2071,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2136,9 +2100,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2176,7 +2140,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2282,7 +2246,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2424,7 +2388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2451,10 +2415,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2466,7 +2430,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2654,13 +2618,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>47</v>
@@ -2671,10 +2635,10 @@
         <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>48</v>
@@ -2685,10 +2649,10 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C3" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>49</v>
@@ -2720,25 +2684,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>51</v>
@@ -2746,10 +2710,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2763,24 +2727,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B3" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G3" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B4" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="G4" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -2812,16 +2776,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>54</v>
@@ -2833,13 +2797,13 @@
         <v>55</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>56</v>
@@ -3845,7 +3809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3858,16 +3822,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="A1" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3875,14 +3839,14 @@
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>255</v>
@@ -3890,7 +3854,7 @@
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>256</v>
@@ -3898,7 +3862,7 @@
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>257</v>
@@ -3906,7 +3870,7 @@
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>251</v>
@@ -3914,7 +3878,7 @@
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>258</v>
@@ -3922,7 +3886,7 @@
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>259</v>
@@ -3930,7 +3894,7 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>252</v>
@@ -3938,7 +3902,7 @@
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>253</v>
@@ -3946,7 +3910,7 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>260</v>
@@ -3954,1124 +3918,1124 @@
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="B12" s="25"/>
+        <v>513</v>
+      </c>
+      <c r="B12" s="23"/>
       <c r="C12" s="9" t="s">
         <v>261</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="B13" s="25"/>
+        <v>389</v>
+      </c>
+      <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B14" s="25"/>
+        <v>390</v>
+      </c>
+      <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="B15" s="25"/>
+        <v>391</v>
+      </c>
+      <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B16" s="25"/>
+        <v>392</v>
+      </c>
+      <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="B17" s="25"/>
+        <v>468</v>
+      </c>
+      <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="B18" s="25"/>
+        <v>469</v>
+      </c>
+      <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B19" s="25"/>
+        <v>446</v>
+      </c>
+      <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="B20" s="25"/>
+        <v>470</v>
+      </c>
+      <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="B21" s="25"/>
+        <v>471</v>
+      </c>
+      <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="B22" s="25"/>
+        <v>472</v>
+      </c>
+      <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
         <v>270</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="B23" s="25"/>
+        <v>473</v>
+      </c>
+      <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
         <v>271</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B24" s="25"/>
+        <v>474</v>
+      </c>
+      <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="B25" s="25"/>
+        <v>435</v>
+      </c>
+      <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="B26" s="25"/>
+        <v>436</v>
+      </c>
+      <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="B27" s="25"/>
+        <v>437</v>
+      </c>
+      <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="B28" s="25"/>
+        <v>438</v>
+      </c>
+      <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="B29" s="25"/>
+        <v>475</v>
+      </c>
+      <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B30" s="25"/>
+        <v>447</v>
+      </c>
+      <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="B31" s="25"/>
+        <v>476</v>
+      </c>
+      <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B32" s="25"/>
+        <v>477</v>
+      </c>
+      <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="B33" s="25"/>
+        <v>478</v>
+      </c>
+      <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="B34" s="25"/>
+        <v>393</v>
+      </c>
+      <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="B35" s="25"/>
+        <v>479</v>
+      </c>
+      <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="B36" s="25"/>
+        <v>480</v>
+      </c>
+      <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="B37" s="25"/>
+        <v>394</v>
+      </c>
+      <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="B38" s="25"/>
+        <v>395</v>
+      </c>
+      <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="B39" s="25"/>
+        <v>396</v>
+      </c>
+      <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="B40" s="25"/>
+        <v>481</v>
+      </c>
+      <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="B41" s="25"/>
+        <v>397</v>
+      </c>
+      <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="B42" s="25"/>
+        <v>398</v>
+      </c>
+      <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="B43" s="25"/>
+        <v>399</v>
+      </c>
+      <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
         <v>291</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="B44" s="25"/>
+        <v>482</v>
+      </c>
+      <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="B45" s="25"/>
+        <v>483</v>
+      </c>
+      <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="B46" s="25"/>
+        <v>400</v>
+      </c>
+      <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="B47" s="25"/>
+        <v>401</v>
+      </c>
+      <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="B48" s="25"/>
+        <v>402</v>
+      </c>
+      <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="B49" s="25"/>
+        <v>403</v>
+      </c>
+      <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="B50" s="25"/>
+        <v>448</v>
+      </c>
+      <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B51" s="25"/>
+        <v>484</v>
+      </c>
+      <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="B52" s="25"/>
+        <v>404</v>
+      </c>
+      <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="B53" s="25"/>
+        <v>405</v>
+      </c>
+      <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="B54" s="25"/>
+        <v>406</v>
+      </c>
+      <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="B55" s="25"/>
+        <v>486</v>
+      </c>
+      <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="B56" s="25"/>
+        <v>487</v>
+      </c>
+      <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="B57" s="25"/>
+        <v>488</v>
+      </c>
+      <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="B58" s="25"/>
+        <v>449</v>
+      </c>
+      <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="B59" s="25"/>
+        <v>489</v>
+      </c>
+      <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="B60" s="25"/>
+        <v>490</v>
+      </c>
+      <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="B61" s="25"/>
+        <v>491</v>
+      </c>
+      <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="B62" s="25"/>
+        <v>439</v>
+      </c>
+      <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B63" s="25"/>
+        <v>407</v>
+      </c>
+      <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="B64" s="25"/>
+        <v>408</v>
+      </c>
+      <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="B65" s="25"/>
+        <v>409</v>
+      </c>
+      <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B66" s="25"/>
+        <v>410</v>
+      </c>
+      <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="B67" s="25"/>
+        <v>492</v>
+      </c>
+      <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="B68" s="25"/>
+        <v>440</v>
+      </c>
+      <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="B69" s="25"/>
+        <v>411</v>
+      </c>
+      <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="B70" s="25"/>
+        <v>412</v>
+      </c>
+      <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="B71" s="25"/>
+        <v>413</v>
+      </c>
+      <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="B72" s="25"/>
+        <v>414</v>
+      </c>
+      <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="B73" s="25"/>
+        <v>415</v>
+      </c>
+      <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B74" s="25"/>
+        <v>416</v>
+      </c>
+      <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="B75" s="25"/>
+        <v>417</v>
+      </c>
+      <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="B76" s="25"/>
+        <v>418</v>
+      </c>
+      <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="B77" s="25"/>
+        <v>419</v>
+      </c>
+      <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="B78" s="25"/>
+        <v>493</v>
+      </c>
+      <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="B79" s="25"/>
+        <v>420</v>
+      </c>
+      <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="B80" s="25"/>
+        <v>421</v>
+      </c>
+      <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B81" s="25"/>
+        <v>494</v>
+      </c>
+      <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="B82" s="25"/>
+        <v>422</v>
+      </c>
+      <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B83" s="25"/>
+        <v>423</v>
+      </c>
+      <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B84" s="25"/>
+        <v>424</v>
+      </c>
+      <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="B85" s="25"/>
+        <v>425</v>
+      </c>
+      <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="B86" s="25"/>
+        <v>426</v>
+      </c>
+      <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="B87" s="25"/>
+        <v>495</v>
+      </c>
+      <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="B88" s="25"/>
+        <v>496</v>
+      </c>
+      <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="B89" s="25"/>
+        <v>497</v>
+      </c>
+      <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="B90" s="25"/>
+        <v>489</v>
+      </c>
+      <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="B91" s="25"/>
+        <v>441</v>
+      </c>
+      <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B92" s="25"/>
+        <v>450</v>
+      </c>
+      <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="B93" s="25"/>
+        <v>498</v>
+      </c>
+      <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="B94" s="25"/>
+        <v>499</v>
+      </c>
+      <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B95" s="25"/>
+        <v>427</v>
+      </c>
+      <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B96" s="25"/>
+        <v>428</v>
+      </c>
+      <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="B97" s="25"/>
+        <v>429</v>
+      </c>
+      <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="B98" s="25"/>
+        <v>430</v>
+      </c>
+      <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="B99" s="25"/>
+        <v>431</v>
+      </c>
+      <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="B100" s="25"/>
+        <v>500</v>
+      </c>
+      <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="B101" s="25"/>
+        <v>501</v>
+      </c>
+      <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="B102" s="25"/>
+        <v>502</v>
+      </c>
+      <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="B103" s="25"/>
+        <v>503</v>
+      </c>
+      <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="B104" s="25"/>
+        <v>504</v>
+      </c>
+      <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="B105" s="25"/>
+        <v>505</v>
+      </c>
+      <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="B106" s="25"/>
+        <v>506</v>
+      </c>
+      <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="B107" s="25"/>
+        <v>451</v>
+      </c>
+      <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="B108" s="25"/>
+        <v>507</v>
+      </c>
+      <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="B109" s="25"/>
+        <v>508</v>
+      </c>
+      <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="B110" s="25"/>
+        <v>509</v>
+      </c>
+      <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="B111" s="25"/>
+        <v>510</v>
+      </c>
+      <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="B112" s="25"/>
+        <v>511</v>
+      </c>
+      <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B113" s="25"/>
+        <v>452</v>
+      </c>
+      <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="B114" s="25"/>
+        <v>467</v>
+      </c>
+      <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="B115" s="25"/>
+        <v>466</v>
+      </c>
+      <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="B116" s="25"/>
+        <v>465</v>
+      </c>
+      <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="B117" s="25"/>
+        <v>453</v>
+      </c>
+      <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="B118" s="25"/>
+        <v>464</v>
+      </c>
+      <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="B119" s="25"/>
+        <v>463</v>
+      </c>
+      <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="B120" s="25"/>
+        <v>462</v>
+      </c>
+      <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="B121" s="25"/>
+        <v>461</v>
+      </c>
+      <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="B122" s="25"/>
+        <v>454</v>
+      </c>
+      <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B123" s="25"/>
+        <v>460</v>
+      </c>
+      <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="B124" s="25"/>
+        <v>432</v>
+      </c>
+      <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="B125" s="25"/>
+        <v>433</v>
+      </c>
+      <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B126" s="25"/>
+        <v>434</v>
+      </c>
+      <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="B127" s="25"/>
+        <v>459</v>
+      </c>
+      <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="B128" s="25"/>
+        <v>458</v>
+      </c>
+      <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="B129" s="25"/>
+        <v>457</v>
+      </c>
+      <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="B130" s="25"/>
+        <v>455</v>
+      </c>
+      <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="B131" s="25"/>
+        <v>456</v>
+      </c>
+      <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5081,1867 +5045,6 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0003C67-3768-3A4E-9F90-6843014614B3}">
-  <dimension ref="A1:O131"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I130"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="22"/>
-    <col min="8" max="8" width="10.83203125" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="22">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>250</v>
-      </c>
-      <c r="O1" s="23" t="str">
-        <f>TEXT(H2,"0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="I2" t="s">
-        <v>255</v>
-      </c>
-      <c r="O2" s="23" t="str">
-        <f>TEXT(H3,"0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="I3" t="s">
-        <v>256</v>
-      </c>
-      <c r="O3" s="23" t="str">
-        <f>TEXT(H4,"0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
-        <v>1.3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="I4" t="s">
-        <v>257</v>
-      </c>
-      <c r="O4" s="23" t="str">
-        <f>TEXT(H5,"0")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>251</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="I5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
-        <v>2.1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>258</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="I6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="I7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="I8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>253</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="I9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B10" t="s">
-        <v>260</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="I10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
-        <v>0.16737268518518519</v>
-      </c>
-      <c r="B11" t="s">
-        <v>261</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="I11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
-        <v>4.2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>262</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="I12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
-        <v>0.16806712962962964</v>
-      </c>
-      <c r="B13" t="s">
-        <v>263</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="I13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
-        <v>0.1680787037037037</v>
-      </c>
-      <c r="B14" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="I14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
-        <v>0.16809027777777777</v>
-      </c>
-      <c r="B15" t="s">
-        <v>265</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="I15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
-        <v>4.3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="22">
-        <v>4.3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B17" t="s">
-        <v>267</v>
-      </c>
-      <c r="H17" s="22">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I17" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>254</v>
-      </c>
-      <c r="H18" s="22">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B19" t="s">
-        <v>268</v>
-      </c>
-      <c r="H19" s="22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
-        <v>5.2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H20" s="22">
-        <v>5.2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
-        <v>5.3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>270</v>
-      </c>
-      <c r="H21" s="22">
-        <v>5.3</v>
-      </c>
-      <c r="I21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
-        <v>5.4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>271</v>
-      </c>
-      <c r="H22" s="22">
-        <v>5.4</v>
-      </c>
-      <c r="I22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
-        <v>5.5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>272</v>
-      </c>
-      <c r="H23" s="22">
-        <v>5.5</v>
-      </c>
-      <c r="I23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="22">
-        <v>0.21181712962962962</v>
-      </c>
-      <c r="B24" t="s">
-        <v>273</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="I24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="22">
-        <v>0.21182870370370369</v>
-      </c>
-      <c r="B25" t="s">
-        <v>274</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="I25" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
-        <v>0.21184027777777778</v>
-      </c>
-      <c r="B26" t="s">
-        <v>275</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="I26" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="22">
-        <v>0.21185185185185185</v>
-      </c>
-      <c r="B27" t="s">
-        <v>276</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="22">
-        <v>5.6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>277</v>
-      </c>
-      <c r="H28" s="22">
-        <v>5.6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="22">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>278</v>
-      </c>
-      <c r="H29" s="22">
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
-        <v>6.1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>279</v>
-      </c>
-      <c r="H30" s="22">
-        <v>6.1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="22">
-        <v>6.2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>280</v>
-      </c>
-      <c r="H31" s="22">
-        <v>6.2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="22">
-        <v>6.3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>281</v>
-      </c>
-      <c r="H32" s="22">
-        <v>6.3</v>
-      </c>
-      <c r="I32" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="22">
-        <v>0.25209490740740742</v>
-      </c>
-      <c r="B33" t="s">
-        <v>282</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="I33" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
-        <v>6.4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>283</v>
-      </c>
-      <c r="H34" s="22">
-        <v>6.4</v>
-      </c>
-      <c r="I34" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="22">
-        <v>6.5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>284</v>
-      </c>
-      <c r="H35" s="22">
-        <v>6.5</v>
-      </c>
-      <c r="I35" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="22">
-        <v>0.2534837962962963</v>
-      </c>
-      <c r="B36" t="s">
-        <v>285</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="I36" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="22">
-        <v>0.25349537037037034</v>
-      </c>
-      <c r="B37" t="s">
-        <v>286</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="I37" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="22">
-        <v>0.25350694444444444</v>
-      </c>
-      <c r="B38" t="s">
-        <v>287</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="I38" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="22">
-        <v>6.6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>288</v>
-      </c>
-      <c r="H39" s="22">
-        <v>6.6</v>
-      </c>
-      <c r="I39" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="22">
-        <v>0.25417824074074075</v>
-      </c>
-      <c r="B40" t="s">
-        <v>289</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="I40" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="22">
-        <v>0.25418981481481479</v>
-      </c>
-      <c r="B41" t="s">
-        <v>290</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="I41" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="22">
-        <v>0.25420138888888888</v>
-      </c>
-      <c r="B42" t="s">
-        <v>291</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="I42" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="22">
-        <v>6.7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>292</v>
-      </c>
-      <c r="H43" s="22">
-        <v>6.7</v>
-      </c>
-      <c r="I43" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="22">
-        <v>6.8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>293</v>
-      </c>
-      <c r="H44" s="22">
-        <v>6.8</v>
-      </c>
-      <c r="I44" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="22">
-        <v>0.25556712962962963</v>
-      </c>
-      <c r="B45" t="s">
-        <v>294</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="I45" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="22">
-        <v>0.25557870370370367</v>
-      </c>
-      <c r="B46" t="s">
-        <v>295</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="I46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="22">
-        <v>0.25559027777777776</v>
-      </c>
-      <c r="B47" t="s">
-        <v>296</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="I47" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="22">
-        <v>0.25560185185185186</v>
-      </c>
-      <c r="B48" t="s">
-        <v>297</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="I48" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="22">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>298</v>
-      </c>
-      <c r="H49" s="22">
-        <v>7</v>
-      </c>
-      <c r="I49" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="H50" s="22">
-        <v>7.1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="22">
-        <v>7.1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>300</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="I51" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="22">
-        <v>0.29237268518518517</v>
-      </c>
-      <c r="B52" t="s">
-        <v>301</v>
-      </c>
-      <c r="H52" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="I52" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="22">
-        <v>0.29238425925925926</v>
-      </c>
-      <c r="B53" t="s">
-        <v>302</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="I53" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="22">
-        <v>0.29239583333333335</v>
-      </c>
-      <c r="B54" t="s">
-        <v>303</v>
-      </c>
-      <c r="H54" s="22">
-        <v>7.2</v>
-      </c>
-      <c r="I54" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="22">
-        <v>7.2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>304</v>
-      </c>
-      <c r="H55" s="22">
-        <v>7.3</v>
-      </c>
-      <c r="I55" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="22">
-        <v>7.3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>305</v>
-      </c>
-      <c r="H56" s="22">
-        <v>7.4</v>
-      </c>
-      <c r="I56" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="22">
-        <v>7.4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>306</v>
-      </c>
-      <c r="H57" s="22">
-        <v>8</v>
-      </c>
-      <c r="I57" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="22">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>307</v>
-      </c>
-      <c r="H58" s="22">
-        <v>8.1</v>
-      </c>
-      <c r="I58" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="22">
-        <v>8.1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>308</v>
-      </c>
-      <c r="H59" s="22">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I59" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="22">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B60" t="s">
-        <v>309</v>
-      </c>
-      <c r="H60" s="22">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I60" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="22">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B61" t="s">
-        <v>310</v>
-      </c>
-      <c r="H61" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="I61" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="22">
-        <v>0.33542824074074074</v>
-      </c>
-      <c r="B62" t="s">
-        <v>311</v>
-      </c>
-      <c r="H62" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="I62" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="22">
-        <v>0.33543981481481483</v>
-      </c>
-      <c r="B63" t="s">
-        <v>312</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="I63" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="22">
-        <v>0.33545138888888887</v>
-      </c>
-      <c r="B64" t="s">
-        <v>313</v>
-      </c>
-      <c r="H64" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="I64" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="22">
-        <v>0.33546296296296302</v>
-      </c>
-      <c r="B65" t="s">
-        <v>314</v>
-      </c>
-      <c r="H65" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="I65" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="22">
-        <v>0.33547453703703706</v>
-      </c>
-      <c r="B66" t="s">
-        <v>315</v>
-      </c>
-      <c r="H66" s="22">
-        <v>8.4</v>
-      </c>
-      <c r="I66" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="22">
-        <v>8.4</v>
-      </c>
-      <c r="B67" t="s">
-        <v>316</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="I67" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="22">
-        <v>0.33612268518518523</v>
-      </c>
-      <c r="B68" t="s">
-        <v>317</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="I68" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="22">
-        <v>0.33613425925925927</v>
-      </c>
-      <c r="B69" t="s">
-        <v>318</v>
-      </c>
-      <c r="H69" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="I69" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="22">
-        <v>0.33614583333333337</v>
-      </c>
-      <c r="B70" t="s">
-        <v>319</v>
-      </c>
-      <c r="H70" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="I70" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="22">
-        <v>0.3361574074074074</v>
-      </c>
-      <c r="B71" t="s">
-        <v>320</v>
-      </c>
-      <c r="H71" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="I71" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="22">
-        <v>0.3361689814814815</v>
-      </c>
-      <c r="B72" t="s">
-        <v>321</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="I72" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="22">
-        <v>0.33618055555555554</v>
-      </c>
-      <c r="B73" t="s">
-        <v>322</v>
-      </c>
-      <c r="H73" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="I73" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="22">
-        <v>0.33619212962962958</v>
-      </c>
-      <c r="B74" t="s">
-        <v>323</v>
-      </c>
-      <c r="H74" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="I74" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="22">
-        <v>0.33620370370370373</v>
-      </c>
-      <c r="B75" t="s">
-        <v>324</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="I75" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="22">
-        <v>0.33621527777777777</v>
-      </c>
-      <c r="B76" t="s">
-        <v>325</v>
-      </c>
-      <c r="H76" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="I76" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="22">
-        <v>0.33622685185185186</v>
-      </c>
-      <c r="B77" t="s">
-        <v>326</v>
-      </c>
-      <c r="H77" s="22">
-        <v>8.5</v>
-      </c>
-      <c r="I77" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="22">
-        <v>8.5</v>
-      </c>
-      <c r="B78" t="s">
-        <v>327</v>
-      </c>
-      <c r="H78" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="I78" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="22">
-        <v>0.33681712962962962</v>
-      </c>
-      <c r="B79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H79" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="I79" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="22">
-        <v>0.33682870370370371</v>
-      </c>
-      <c r="B80" t="s">
-        <v>329</v>
-      </c>
-      <c r="H80" s="22">
-        <v>8.6</v>
-      </c>
-      <c r="I80" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="22">
-        <v>8.6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>330</v>
-      </c>
-      <c r="H81" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="I81" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="22">
-        <v>0.33751157407407412</v>
-      </c>
-      <c r="B82" t="s">
-        <v>331</v>
-      </c>
-      <c r="H82" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="I82" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="22">
-        <v>0.33752314814814816</v>
-      </c>
-      <c r="B83" t="s">
-        <v>332</v>
-      </c>
-      <c r="H83" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="I83" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="22">
-        <v>0.33753472222222225</v>
-      </c>
-      <c r="B84" t="s">
-        <v>333</v>
-      </c>
-      <c r="H84" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="I84" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="22">
-        <v>0.33754629629629629</v>
-      </c>
-      <c r="B85" t="s">
-        <v>334</v>
-      </c>
-      <c r="H85" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="I85" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="22">
-        <v>0.33755787037037038</v>
-      </c>
-      <c r="B86" t="s">
-        <v>335</v>
-      </c>
-      <c r="H86" s="22">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I86" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="22">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="B87" t="s">
-        <v>336</v>
-      </c>
-      <c r="H87" s="22">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I87" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="22">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B88" t="s">
-        <v>337</v>
-      </c>
-      <c r="H88" s="22">
-        <v>8.9</v>
-      </c>
-      <c r="I88" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="22">
-        <v>8.9</v>
-      </c>
-      <c r="B89" t="s">
-        <v>338</v>
-      </c>
-      <c r="H89" s="22">
-        <v>8.1</v>
-      </c>
-      <c r="I89" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="22">
-        <v>8.1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>339</v>
-      </c>
-      <c r="H90" s="22">
-        <v>8.11</v>
-      </c>
-      <c r="I90" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="22">
-        <v>8.11</v>
-      </c>
-      <c r="B91" t="s">
-        <v>340</v>
-      </c>
-      <c r="H91" s="22">
-        <v>9</v>
-      </c>
-      <c r="I91" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="22">
-        <v>9</v>
-      </c>
-      <c r="B92" t="s">
-        <v>341</v>
-      </c>
-      <c r="H92" s="22">
-        <v>9.1</v>
-      </c>
-      <c r="I92" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="22">
-        <v>9.1</v>
-      </c>
-      <c r="B93" t="s">
-        <v>342</v>
-      </c>
-      <c r="H93" s="22">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I93" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="22">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B94" t="s">
-        <v>343</v>
-      </c>
-      <c r="H94" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="I94" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="22">
-        <v>0.37640046296296298</v>
-      </c>
-      <c r="B95" t="s">
-        <v>344</v>
-      </c>
-      <c r="H95" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="I95" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="22">
-        <v>0.37641203703703702</v>
-      </c>
-      <c r="B96" t="s">
-        <v>345</v>
-      </c>
-      <c r="H96" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="I96" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="22">
-        <v>0.37642361111111106</v>
-      </c>
-      <c r="B97" t="s">
-        <v>346</v>
-      </c>
-      <c r="H97" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="I97" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="22">
-        <v>0.37643518518518521</v>
-      </c>
-      <c r="B98" t="s">
-        <v>347</v>
-      </c>
-      <c r="H98" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="I98" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="22">
-        <v>0.37644675925925924</v>
-      </c>
-      <c r="B99" t="s">
-        <v>348</v>
-      </c>
-      <c r="H99" s="22">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I99" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="22">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B100" t="s">
-        <v>349</v>
-      </c>
-      <c r="H100" s="22">
-        <v>9.4</v>
-      </c>
-      <c r="I100" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="22">
-        <v>9.4</v>
-      </c>
-      <c r="B101" t="s">
-        <v>350</v>
-      </c>
-      <c r="H101" s="22">
-        <v>9.5</v>
-      </c>
-      <c r="I101" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="22">
-        <v>9.5</v>
-      </c>
-      <c r="B102" t="s">
-        <v>351</v>
-      </c>
-      <c r="H102" s="22">
-        <v>9.6</v>
-      </c>
-      <c r="I102" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="22">
-        <v>9.6</v>
-      </c>
-      <c r="B103" t="s">
-        <v>352</v>
-      </c>
-      <c r="H103" s="22">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I103" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="22">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="B104" t="s">
-        <v>353</v>
-      </c>
-      <c r="H104" s="22">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I104" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="22">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="B105" t="s">
-        <v>354</v>
-      </c>
-      <c r="H105" s="22">
-        <v>9.9</v>
-      </c>
-      <c r="I105" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="22">
-        <v>9.9</v>
-      </c>
-      <c r="B106" t="s">
-        <v>355</v>
-      </c>
-      <c r="H106" s="22">
-        <v>10</v>
-      </c>
-      <c r="I106" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="22">
-        <v>10</v>
-      </c>
-      <c r="B107" t="s">
-        <v>356</v>
-      </c>
-      <c r="H107" s="22">
-        <v>10.1</v>
-      </c>
-      <c r="I107" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="22">
-        <v>10.1</v>
-      </c>
-      <c r="B108" t="s">
-        <v>357</v>
-      </c>
-      <c r="H108" s="22">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I108" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="22">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B109" t="s">
-        <v>358</v>
-      </c>
-      <c r="H109" s="22">
-        <v>10.3</v>
-      </c>
-      <c r="I109" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="22">
-        <v>10.3</v>
-      </c>
-      <c r="B110" t="s">
-        <v>359</v>
-      </c>
-      <c r="H110" s="22">
-        <v>10.4</v>
-      </c>
-      <c r="I110" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="22">
-        <v>10.4</v>
-      </c>
-      <c r="B111" t="s">
-        <v>360</v>
-      </c>
-      <c r="H111" s="22">
-        <v>10.5</v>
-      </c>
-      <c r="I111" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="22">
-        <v>10.5</v>
-      </c>
-      <c r="B112" t="s">
-        <v>361</v>
-      </c>
-      <c r="H112" s="22">
-        <v>11</v>
-      </c>
-      <c r="I112" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="22">
-        <v>11</v>
-      </c>
-      <c r="B113" t="s">
-        <v>362</v>
-      </c>
-      <c r="H113" s="22">
-        <v>11.1</v>
-      </c>
-      <c r="I113" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="22">
-        <v>11.1</v>
-      </c>
-      <c r="B114" t="s">
-        <v>363</v>
-      </c>
-      <c r="H114" s="22">
-        <v>11.2</v>
-      </c>
-      <c r="I114" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="22">
-        <v>11.2</v>
-      </c>
-      <c r="B115" t="s">
-        <v>364</v>
-      </c>
-      <c r="H115" s="22">
-        <v>11.3</v>
-      </c>
-      <c r="I115" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="22">
-        <v>11.3</v>
-      </c>
-      <c r="B116" t="s">
-        <v>365</v>
-      </c>
-      <c r="H116" s="22">
-        <v>12</v>
-      </c>
-      <c r="I116" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="22">
-        <v>12</v>
-      </c>
-      <c r="B117" t="s">
-        <v>366</v>
-      </c>
-      <c r="H117" s="22">
-        <v>12.1</v>
-      </c>
-      <c r="I117" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="22">
-        <v>12.1</v>
-      </c>
-      <c r="B118" t="s">
-        <v>367</v>
-      </c>
-      <c r="H118" s="22">
-        <v>12.2</v>
-      </c>
-      <c r="I118" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="22">
-        <v>12.2</v>
-      </c>
-      <c r="B119" t="s">
-        <v>368</v>
-      </c>
-      <c r="H119" s="22">
-        <v>12.3</v>
-      </c>
-      <c r="I119" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="22">
-        <v>12.3</v>
-      </c>
-      <c r="B120" t="s">
-        <v>369</v>
-      </c>
-      <c r="H120" s="22">
-        <v>12.4</v>
-      </c>
-      <c r="I120" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="22">
-        <v>12.4</v>
-      </c>
-      <c r="B121" t="s">
-        <v>370</v>
-      </c>
-      <c r="H121" s="22">
-        <v>13</v>
-      </c>
-      <c r="I121" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="22">
-        <v>13</v>
-      </c>
-      <c r="B122" t="s">
-        <v>371</v>
-      </c>
-      <c r="H122" s="22">
-        <v>13.1</v>
-      </c>
-      <c r="I122" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="22">
-        <v>13.1</v>
-      </c>
-      <c r="B123" t="s">
-        <v>372</v>
-      </c>
-      <c r="H123" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="I123" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="22">
-        <v>0.54237268518518522</v>
-      </c>
-      <c r="B124" t="s">
-        <v>373</v>
-      </c>
-      <c r="H124" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="I124" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="22">
-        <v>0.54238425925925926</v>
-      </c>
-      <c r="B125" t="s">
-        <v>374</v>
-      </c>
-      <c r="H125" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="I125" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="22">
-        <v>0.5423958333333333</v>
-      </c>
-      <c r="B126" t="s">
-        <v>375</v>
-      </c>
-      <c r="H126" s="22">
-        <v>13.2</v>
-      </c>
-      <c r="I126" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="22">
-        <v>13.2</v>
-      </c>
-      <c r="B127" t="s">
-        <v>376</v>
-      </c>
-      <c r="H127" s="22">
-        <v>13.3</v>
-      </c>
-      <c r="I127" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="22">
-        <v>13.3</v>
-      </c>
-      <c r="B128" t="s">
-        <v>377</v>
-      </c>
-      <c r="H128" s="22">
-        <v>13.4</v>
-      </c>
-      <c r="I128" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="22">
-        <v>13.4</v>
-      </c>
-      <c r="B129" t="s">
-        <v>378</v>
-      </c>
-      <c r="H129" s="22">
-        <v>14</v>
-      </c>
-      <c r="I129" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="22">
-        <v>14</v>
-      </c>
-      <c r="B130" t="s">
-        <v>379</v>
-      </c>
-      <c r="H130" s="22">
-        <v>15</v>
-      </c>
-      <c r="I130" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="22">
-        <v>15</v>
-      </c>
-      <c r="B131" t="s">
-        <v>380</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -7029,7 +5132,7 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7049,7 +5152,7 @@
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -7076,109 +5179,109 @@
       <c r="A1" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
@@ -7245,16 +5348,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7439,22 +5542,22 @@
         <v>143</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -7471,13 +5574,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>194</v>
@@ -7491,10 +5594,10 @@
         <v>147</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -7503,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>194</v>
@@ -7515,46 +5618,46 @@
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -7566,7 +5669,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -7588,7 +5691,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>179</v>
@@ -7679,7 +5782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C1AEE4-F75D-6D43-AB1C-E531FDBDDB3D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -7693,135 +5796,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B2" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="E2" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F2" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G2" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="H2" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B3" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C3" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D3" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="E3" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="F3" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="I3" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B4" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="C4" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D4" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="E4" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F4" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="G4" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B5" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="C5" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="D5" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="E5" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="F5" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="G5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="H5" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -7829,31 +5932,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C6" t="s">
         <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="E6" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F6" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="G6" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="H6" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -7957,61 +6060,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>543</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>546</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -8019,58 +6122,58 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="G2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I2" t="s">
+        <v>551</v>
+      </c>
+      <c r="J2" t="s">
+        <v>552</v>
+      </c>
+      <c r="K2" t="s">
         <v>553</v>
       </c>
-      <c r="C2" t="s">
+      <c r="L2" t="s">
         <v>554</v>
       </c>
-      <c r="D2" t="s">
+      <c r="M2" t="s">
         <v>555</v>
       </c>
-      <c r="E2" t="s">
+      <c r="N2" t="s">
         <v>556</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="O2" t="s">
         <v>557</v>
       </c>
-      <c r="G2" t="s">
+      <c r="P2" t="s">
         <v>558</v>
-      </c>
-      <c r="H2" t="s">
-        <v>559</v>
-      </c>
-      <c r="I2" t="s">
-        <v>560</v>
-      </c>
-      <c r="J2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K2" t="s">
-        <v>562</v>
-      </c>
-      <c r="L2" t="s">
-        <v>563</v>
-      </c>
-      <c r="M2" t="s">
-        <v>564</v>
-      </c>
-      <c r="N2" t="s">
-        <v>565</v>
-      </c>
-      <c r="O2" t="s">
-        <v>566</v>
-      </c>
-      <c r="P2" t="s">
-        <v>567</v>
       </c>
       <c r="Q2" t="s">
         <v>157</v>
       </c>
       <c r="R2" t="s">
-        <v>568</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>569</v>
+        <v>559</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -8078,58 +6181,58 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C3" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="G3" t="s">
+        <v>549</v>
+      </c>
+      <c r="H3" t="s">
+        <v>564</v>
+      </c>
+      <c r="I3" t="s">
+        <v>551</v>
+      </c>
+      <c r="J3" t="s">
+        <v>565</v>
+      </c>
+      <c r="K3" t="s">
+        <v>566</v>
+      </c>
+      <c r="L3" t="s">
+        <v>567</v>
+      </c>
+      <c r="M3" t="s">
         <v>555</v>
       </c>
-      <c r="E3" t="s">
-        <v>572</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="N3" t="s">
+        <v>556</v>
+      </c>
+      <c r="O3" t="s">
         <v>557</v>
       </c>
-      <c r="G3" t="s">
-        <v>558</v>
-      </c>
-      <c r="H3" t="s">
-        <v>573</v>
-      </c>
-      <c r="I3" t="s">
-        <v>560</v>
-      </c>
-      <c r="J3" t="s">
-        <v>574</v>
-      </c>
-      <c r="K3" t="s">
-        <v>575</v>
-      </c>
-      <c r="L3" t="s">
-        <v>576</v>
-      </c>
-      <c r="M3" t="s">
-        <v>564</v>
-      </c>
-      <c r="N3" t="s">
-        <v>565</v>
-      </c>
-      <c r="O3" t="s">
-        <v>566</v>
-      </c>
       <c r="P3" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="Q3" t="s">
         <v>157</v>
       </c>
       <c r="R3" t="s">
-        <v>568</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>569</v>
+        <v>559</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/invalid_section_levels.xlsx
+++ b/tests/integration_test_files/invalid_section_levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DAD37C-A86A-0442-BEE4-9AF63DDDEDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B8BDBE-189C-C84A-A9D8-4C9397C3E3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="560" windowWidth="33000" windowHeight="22600" firstSheet="9" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45220" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="4" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="620">
   <si>
     <t>Screening</t>
   </si>
@@ -1704,18 +1704,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -1752,12 +1746,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -1924,6 +1912,15 @@
   </si>
   <si>
     <t>-3..3 days</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2077,10 +2074,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2684,7 +2681,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>445</v>
@@ -2696,13 +2693,13 @@
         <v>525</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>51</v>
@@ -2710,10 +2707,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2727,24 +2724,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3" t="s">
+        <v>571</v>
+      </c>
+      <c r="G3" t="s">
         <v>574</v>
-      </c>
-      <c r="B3" t="s">
-        <v>575</v>
-      </c>
-      <c r="G3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G4" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -3809,7 +3806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -5201,34 +5198,34 @@
       <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5348,16 +5345,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5545,19 +5542,19 @@
         <v>445</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -5574,13 +5571,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>194</v>
@@ -5597,7 +5594,7 @@
         <v>525</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5606,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>194</v>
@@ -5618,46 +5615,46 @@
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5669,7 +5666,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5691,7 +5688,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>179</v>
@@ -5808,123 +5805,123 @@
         <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
+        <v>600</v>
+      </c>
+      <c r="I3" t="s">
         <v>604</v>
-      </c>
-      <c r="I3" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -5932,31 +5929,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C6" t="s">
         <v>194</v>
       </c>
       <c r="D6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F6" t="s">
+        <v>578</v>
+      </c>
+      <c r="G6" t="s">
         <v>615</v>
       </c>
-      <c r="E6" t="s">
-        <v>584</v>
-      </c>
-      <c r="F6" t="s">
-        <v>582</v>
-      </c>
-      <c r="G6" t="s">
-        <v>619</v>
-      </c>
       <c r="H6" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -6030,8 +6027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC86E4E-4F98-F24A-9FA9-F3A5D3D75133}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6131,49 +6128,49 @@
         <v>546</v>
       </c>
       <c r="E2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" t="s">
         <v>548</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I2" t="s">
         <v>549</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>550</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>551</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>552</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>553</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>554</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>555</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>556</v>
-      </c>
-      <c r="O2" t="s">
-        <v>557</v>
-      </c>
-      <c r="P2" t="s">
-        <v>558</v>
       </c>
       <c r="Q2" t="s">
         <v>157</v>
       </c>
       <c r="R2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -6181,58 +6178,58 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D3" t="s">
         <v>546</v>
       </c>
       <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="G3" t="s">
+        <v>548</v>
+      </c>
+      <c r="H3" t="s">
+        <v>619</v>
+      </c>
+      <c r="I3" t="s">
+        <v>549</v>
+      </c>
+      <c r="J3" t="s">
+        <v>561</v>
+      </c>
+      <c r="K3" t="s">
+        <v>562</v>
+      </c>
+      <c r="L3" t="s">
         <v>563</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>548</v>
-      </c>
-      <c r="G3" t="s">
-        <v>549</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>553</v>
+      </c>
+      <c r="N3" t="s">
+        <v>554</v>
+      </c>
+      <c r="O3" t="s">
+        <v>555</v>
+      </c>
+      <c r="P3" t="s">
         <v>564</v>
-      </c>
-      <c r="I3" t="s">
-        <v>551</v>
-      </c>
-      <c r="J3" t="s">
-        <v>565</v>
-      </c>
-      <c r="K3" t="s">
-        <v>566</v>
-      </c>
-      <c r="L3" t="s">
-        <v>567</v>
-      </c>
-      <c r="M3" t="s">
-        <v>555</v>
-      </c>
-      <c r="N3" t="s">
-        <v>556</v>
-      </c>
-      <c r="O3" t="s">
-        <v>557</v>
-      </c>
-      <c r="P3" t="s">
-        <v>568</v>
       </c>
       <c r="Q3" t="s">
         <v>157</v>
       </c>
       <c r="R3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/invalid_section_levels.xlsx
+++ b/tests/integration_test_files/invalid_section_levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B8BDBE-189C-C84A-A9D8-4C9397C3E3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79A3A1F-40AF-C448-9A68-584BFE0EAC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45220" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="4" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45220" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="4" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -229,9 +229,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Clinical status assessed using a 7-category ordinal scale at Day 28</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
   </si>
   <si>
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
   </si>
   <si>
     <t>Time to clinical improvement (TTCI) defined as a National Early Warning Score 2 (NEWS2) of &lt;=2 maintained for 24 hours</t>
@@ -1921,6 +1915,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2074,10 +2074,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2097,9 +2097,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2137,7 +2137,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2243,7 +2243,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2385,7 +2385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2412,10 +2412,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2427,7 +2427,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2484,10 +2484,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2544,10 +2544,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>17</v>
@@ -2568,10 +2568,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2615,13 +2615,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>47</v>
@@ -2629,13 +2629,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>48</v>
@@ -2643,13 +2643,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>49</v>
@@ -2681,25 +2681,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>51</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2724,24 +2724,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B4" t="s">
         <v>570</v>
       </c>
-      <c r="B4" t="s">
-        <v>572</v>
-      </c>
       <c r="G4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -2753,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2773,34 +2773,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>55</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>520</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>522</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>56</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2816,42 +2816,42 @@
         <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>58</v>
+        <v>618</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>62</v>
+        <v>619</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2860,16 +2860,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2878,16 +2878,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2896,16 +2896,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2914,16 +2914,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2932,16 +2932,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2950,16 +2950,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2968,16 +2968,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2986,16 +2986,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3004,16 +3004,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3022,16 +3022,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3336,90 +3336,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>103</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
         <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
         <v>132</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>133</v>
       </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s">
         <v>134</v>
-      </c>
-      <c r="E5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3448,65 +3448,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
         <v>152</v>
-      </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>156</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3539,137 +3539,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3696,104 +3696,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3820,16 +3820,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3838,1201 +3838,1201 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -5056,18 +5056,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
         <v>127</v>
-      </c>
-      <c r="B1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5123,13 +5123,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5143,13 +5143,13 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -5174,10 +5174,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -5185,10 +5185,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -5198,41 +5198,41 @@
       <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -5243,7 +5243,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -5254,7 +5254,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -5262,10 +5262,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>29</v>
@@ -5302,16 +5302,16 @@
         <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5319,16 +5319,16 @@
         <v>28</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5345,16 +5345,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5379,19 +5379,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>233</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5399,16 +5399,16 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5419,13 +5419,13 @@
         <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5453,13 +5453,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>220</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5467,10 +5467,10 @@
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5478,10 +5478,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5489,10 +5489,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5500,10 +5500,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5533,36 +5533,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>46</v>
@@ -5571,30 +5571,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5603,10 +5603,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5615,46 +5615,46 @@
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5666,7 +5666,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5688,22 +5688,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5714,7 +5714,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5793,135 +5793,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H2" t="s">
         <v>598</v>
-      </c>
-      <c r="E2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G2" t="s">
-        <v>599</v>
-      </c>
-      <c r="H2" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C3" t="s">
         <v>601</v>
       </c>
-      <c r="B3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C3" t="s">
-        <v>603</v>
-      </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D4" t="s">
         <v>605</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G4" t="s">
         <v>606</v>
-      </c>
-      <c r="C4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D4" t="s">
-        <v>607</v>
-      </c>
-      <c r="E4" t="s">
-        <v>578</v>
-      </c>
-      <c r="F4" t="s">
-        <v>578</v>
-      </c>
-      <c r="G4" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D5" t="s">
         <v>609</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>577</v>
+      </c>
+      <c r="F5" t="s">
+        <v>576</v>
+      </c>
+      <c r="G5" t="s">
         <v>610</v>
       </c>
-      <c r="C5" t="s">
-        <v>583</v>
-      </c>
-      <c r="D5" t="s">
-        <v>611</v>
-      </c>
-      <c r="E5" t="s">
-        <v>579</v>
-      </c>
-      <c r="F5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G5" t="s">
-        <v>612</v>
-      </c>
       <c r="H5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -5929,31 +5929,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E6" t="s">
+        <v>578</v>
+      </c>
+      <c r="F6" t="s">
+        <v>576</v>
+      </c>
+      <c r="G6" t="s">
         <v>613</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>598</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="C6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" t="s">
-        <v>611</v>
-      </c>
-      <c r="E6" t="s">
-        <v>580</v>
-      </c>
-      <c r="F6" t="s">
-        <v>578</v>
-      </c>
-      <c r="G6" t="s">
-        <v>615</v>
-      </c>
-      <c r="H6" t="s">
-        <v>600</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -5980,16 +5980,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>242</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5997,7 +5997,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6005,13 +6005,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6027,7 +6027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC86E4E-4F98-F24A-9FA9-F3A5D3D75133}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -6057,179 +6057,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>541</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D2" t="s">
         <v>544</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>546</v>
       </c>
-      <c r="E2" t="s">
-        <v>617</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="H2" t="s">
+        <v>616</v>
+      </c>
+      <c r="I2" t="s">
         <v>547</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>548</v>
       </c>
-      <c r="H2" t="s">
-        <v>618</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>549</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>550</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>551</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>552</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>553</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>554</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" t="s">
         <v>555</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="26" t="s">
         <v>556</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>157</v>
-      </c>
-      <c r="R2" t="s">
-        <v>557</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H3" t="s">
+        <v>617</v>
+      </c>
+      <c r="I3" t="s">
         <v>547</v>
       </c>
-      <c r="G3" t="s">
-        <v>548</v>
-      </c>
-      <c r="H3" t="s">
-        <v>619</v>
-      </c>
-      <c r="I3" t="s">
-        <v>549</v>
-      </c>
       <c r="J3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K3" t="s">
+        <v>560</v>
+      </c>
+      <c r="L3" t="s">
         <v>561</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>551</v>
+      </c>
+      <c r="N3" t="s">
+        <v>552</v>
+      </c>
+      <c r="O3" t="s">
+        <v>553</v>
+      </c>
+      <c r="P3" t="s">
         <v>562</v>
       </c>
-      <c r="L3" t="s">
-        <v>563</v>
-      </c>
-      <c r="M3" t="s">
-        <v>553</v>
-      </c>
-      <c r="N3" t="s">
-        <v>554</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" t="s">
         <v>555</v>
       </c>
-      <c r="P3" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R3" t="s">
-        <v>557</v>
-      </c>
       <c r="S3" s="26" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/invalid_section_levels.xlsx
+++ b/tests/integration_test_files/invalid_section_levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79A3A1F-40AF-C448-9A68-584BFE0EAC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9286E9-70E9-2844-9280-1E1B8C2D69A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45220" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="4" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45220" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="4" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="620">
   <si>
     <t>Screening</t>
   </si>
@@ -2074,10 +2074,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2753,7 +2753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -5198,34 +5198,34 @@
       <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5345,16 +5345,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5515,11 +5515,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" sqref="A1:H1048576"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5718,9 +5718,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -5744,9 +5742,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>

--- a/tests/integration_test_files/invalid_section_levels.xlsx
+++ b/tests/integration_test_files/invalid_section_levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C50D15F-D1D5-7C48-A331-EDEC82EA1B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76DD3EF-AC64-E54D-AF5B-33D450A0E331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50560" windowHeight="27240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51860" yWindow="500" windowWidth="50560" windowHeight="27240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="901">
   <si>
     <t>name</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>BASIC SCIENCE,    DEVICE FEASIBILITY</t>
-  </si>
-  <si>
-    <t>trialTypes</t>
   </si>
   <si>
     <t>Efficacy Study</t>
@@ -2747,6 +2744,12 @@
   </si>
   <si>
     <t>AP1234-FR</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
   </si>
 </sst>
 </file>
@@ -2816,7 +2819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2882,12 +2885,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3205,7 +3202,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3373,176 +3370,176 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
         <v>185</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>186</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>187</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>188</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" t="s">
         <v>190</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>191</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>192</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>193</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>194</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>195</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>196</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>197</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>198</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>199</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" t="s">
         <v>200</v>
       </c>
-      <c r="Q2" t="s">
-        <v>168</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="24" t="s">
         <v>201</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
         <v>203</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>204</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" t="s">
         <v>205</v>
       </c>
-      <c r="D3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" t="s">
         <v>206</v>
       </c>
-      <c r="I3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>207</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>208</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N3" t="s">
+        <v>197</v>
+      </c>
+      <c r="O3" t="s">
+        <v>198</v>
+      </c>
+      <c r="P3" t="s">
         <v>209</v>
       </c>
-      <c r="M3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N3" t="s">
-        <v>198</v>
-      </c>
-      <c r="O3" t="s">
-        <v>199</v>
-      </c>
-      <c r="P3" t="s">
-        <v>210</v>
-      </c>
       <c r="Q3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R3" t="s">
+        <v>200</v>
+      </c>
+      <c r="S3" s="24" t="s">
         <v>201</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3570,41 +3567,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
         <v>211</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>212</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
         <v>215</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>216</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3633,36 +3630,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" t="s">
         <v>224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>225</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3671,29 +3668,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
         <v>227</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
         <v>228</v>
-      </c>
-      <c r="G3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" t="s">
         <v>230</v>
-      </c>
-      <c r="G4" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3725,85 +3722,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>241</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>246</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3812,16 +3809,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3830,16 +3827,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3848,16 +3845,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3866,16 +3863,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3884,16 +3881,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3902,16 +3899,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3920,16 +3917,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3938,16 +3935,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3956,16 +3953,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3974,16 +3971,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4290,114 +4287,114 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
+        <v>895</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>896</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>281</v>
-      </c>
       <c r="J1" s="19" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" t="s">
         <v>282</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>283</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s">
         <v>284</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>285</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" t="s">
         <v>286</v>
       </c>
-      <c r="G2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" t="s">
-        <v>287</v>
-      </c>
       <c r="J2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" t="s">
         <v>290</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" t="s">
         <v>291</v>
       </c>
-      <c r="C5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>292</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I5" t="s">
         <v>293</v>
       </c>
-      <c r="G5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I5" t="s">
-        <v>294</v>
-      </c>
       <c r="J5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -4426,65 +4423,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" t="s">
         <v>301</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>302</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>303</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>304</v>
-      </c>
-      <c r="E2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" t="s">
         <v>306</v>
       </c>
-      <c r="B3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>307</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>308</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" t="s">
         <v>309</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4517,137 +4514,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>316</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4673,104 +4670,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>334</v>
-      </c>
       <c r="D1" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>316</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4793,18 +4790,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" t="s">
         <v>350</v>
-      </c>
-      <c r="B1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4831,699 +4828,699 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>375</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>377</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -5535,7 +5532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5558,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>30</v>
@@ -5595,7 +5592,7 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -5633,2709 +5630,2709 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>497</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>501</v>
-      </c>
       <c r="E2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="C3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>504</v>
-      </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="C4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>507</v>
-      </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="C5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>510</v>
-      </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>513</v>
-      </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="C7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>516</v>
-      </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>519</v>
-      </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>522</v>
-      </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="C10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>525</v>
-      </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="C11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>528</v>
-      </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="C12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>531</v>
-      </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="C13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>534</v>
-      </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="C14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>537</v>
-      </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>540</v>
-      </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>543</v>
-      </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>543</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="C17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>546</v>
-      </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>546</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="C18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>549</v>
-      </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>549</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="C19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>552</v>
-      </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>552</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="C20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>555</v>
-      </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>555</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="C21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>558</v>
-      </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>558</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="C22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>561</v>
-      </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>561</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="C23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>564</v>
-      </c>
       <c r="E23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>564</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="C24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>567</v>
-      </c>
       <c r="E24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>567</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="C25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>570</v>
-      </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>570</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="C26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>573</v>
-      </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>573</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="C27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>576</v>
-      </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>576</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="C28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>579</v>
-      </c>
       <c r="E28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>579</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C29" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>582</v>
-      </c>
       <c r="E29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>582</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="C30" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>585</v>
-      </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>585</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="C31" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>588</v>
-      </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>588</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="C32" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>591</v>
-      </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>591</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="C33" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>594</v>
-      </c>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>594</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="C34" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>597</v>
-      </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>597</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="C35" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>600</v>
-      </c>
       <c r="E35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>600</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="C36" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>603</v>
-      </c>
       <c r="E36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>603</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="C37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>606</v>
-      </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>606</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="C38" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>609</v>
-      </c>
       <c r="E38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>609</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C39" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>612</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="C40" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>615</v>
-      </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>615</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="C41" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>618</v>
-      </c>
       <c r="E41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>618</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="C42" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>621</v>
-      </c>
       <c r="E42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>621</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="C43" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>624</v>
-      </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>624</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="C44" t="s">
-        <v>168</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>627</v>
-      </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>627</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="C45" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>630</v>
-      </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>630</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="C46" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>633</v>
-      </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>633</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="C47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>636</v>
-      </c>
       <c r="E47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>636</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="C48" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>639</v>
-      </c>
       <c r="E48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>639</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C49" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>642</v>
-      </c>
       <c r="E49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F49" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>642</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="C50" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>645</v>
-      </c>
       <c r="E50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>645</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="C51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>648</v>
-      </c>
       <c r="E51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>648</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="C52" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>651</v>
-      </c>
       <c r="E52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>651</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="C53" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>654</v>
-      </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F53" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>654</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C54" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>657</v>
-      </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F54" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>657</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="C55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>660</v>
-      </c>
       <c r="E55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>660</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="C56" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>663</v>
-      </c>
       <c r="E56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>663</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="C57" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>666</v>
-      </c>
       <c r="E57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>666</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="C58" t="s">
-        <v>168</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>669</v>
-      </c>
       <c r="E58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>669</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="C59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="C59" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>672</v>
-      </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>672</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C60" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>675</v>
-      </c>
       <c r="E60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F60" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>675</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C61" t="s">
-        <v>168</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>678</v>
-      </c>
       <c r="E61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F61" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>678</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="C62" t="s">
-        <v>168</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>681</v>
-      </c>
       <c r="E62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F62" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>681</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="C63" t="s">
-        <v>168</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>684</v>
-      </c>
       <c r="E63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F63" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>684</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="C64" t="s">
-        <v>168</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>687</v>
-      </c>
       <c r="E64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>687</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="C65" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="C65" t="s">
-        <v>168</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>690</v>
-      </c>
       <c r="E65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F65" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>690</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="C66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="C66" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>693</v>
-      </c>
       <c r="E66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F66" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>693</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C67" t="s">
-        <v>168</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>696</v>
-      </c>
       <c r="E67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F67" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>696</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="C68" t="s">
-        <v>168</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>699</v>
-      </c>
       <c r="E68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F68" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>699</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="C69" t="s">
-        <v>168</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>702</v>
-      </c>
       <c r="E69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>702</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="C70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="C70" t="s">
-        <v>168</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>705</v>
-      </c>
       <c r="E70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F70" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>705</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="C71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="C71" t="s">
-        <v>168</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>708</v>
-      </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F71" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>708</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="C72" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="C72" t="s">
-        <v>168</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>711</v>
-      </c>
       <c r="E72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F72" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>711</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="C73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="C73" t="s">
-        <v>168</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>714</v>
-      </c>
       <c r="E73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F73" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>714</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="C74" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="C74" t="s">
-        <v>168</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>717</v>
-      </c>
       <c r="E74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F74" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>717</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="C75" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C75" t="s">
-        <v>168</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>720</v>
-      </c>
       <c r="E75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F75" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>720</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C76" t="s">
-        <v>168</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>723</v>
-      </c>
       <c r="E76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F76" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>723</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="C77" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="C77" t="s">
-        <v>168</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>726</v>
-      </c>
       <c r="E77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F77" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>726</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="C78" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="C78" t="s">
-        <v>168</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>729</v>
-      </c>
       <c r="E78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F78" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>729</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="C79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="C79" t="s">
-        <v>168</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>732</v>
-      </c>
       <c r="E79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F79" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>732</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="C80" t="s">
-        <v>168</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>735</v>
-      </c>
       <c r="E80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F80" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>735</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="C81" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="C81" t="s">
-        <v>168</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>738</v>
-      </c>
       <c r="E81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F81" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>738</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="C82" t="s">
-        <v>168</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="E82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F82" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>741</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="C83" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="C83" t="s">
-        <v>168</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>744</v>
-      </c>
       <c r="E83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F83" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>744</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="C84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>747</v>
-      </c>
       <c r="E84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F84" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>747</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="C85" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="C85" t="s">
-        <v>168</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>750</v>
-      </c>
       <c r="E85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>750</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="C86" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="C86" t="s">
-        <v>168</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>753</v>
-      </c>
       <c r="E86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>753</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="C87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="C87" t="s">
-        <v>168</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>756</v>
-      </c>
       <c r="E87" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>756</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="C88" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="C88" t="s">
-        <v>168</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>759</v>
-      </c>
       <c r="E88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>759</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>760</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="C89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="C89" t="s">
-        <v>168</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>762</v>
-      </c>
       <c r="E89" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>762</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C90" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="C90" t="s">
-        <v>168</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>764</v>
-      </c>
       <c r="E90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F90" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>764</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="C91" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="C91" t="s">
-        <v>168</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>767</v>
-      </c>
       <c r="E91" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>767</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="C92" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="C92" t="s">
-        <v>168</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>770</v>
-      </c>
       <c r="E92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F92" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>770</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="C93" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="C93" t="s">
-        <v>168</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>773</v>
-      </c>
       <c r="E93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F93" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>773</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="C94" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="C94" t="s">
-        <v>168</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>776</v>
-      </c>
       <c r="E94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F94" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>776</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="C95" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="C95" t="s">
-        <v>168</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>779</v>
-      </c>
       <c r="E95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F95" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>779</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="C96" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="C96" t="s">
-        <v>168</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>782</v>
-      </c>
       <c r="E96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F96" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>782</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="C97" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="C97" t="s">
-        <v>168</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>785</v>
-      </c>
       <c r="E97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F97" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>785</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="C98" t="s">
+        <v>167</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="C98" t="s">
-        <v>168</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>788</v>
-      </c>
       <c r="E98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F98" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>788</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="C99" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="C99" t="s">
-        <v>168</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>791</v>
-      </c>
       <c r="E99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>791</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="C100" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="C100" t="s">
-        <v>168</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>794</v>
-      </c>
       <c r="E100" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F100" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>794</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="C101" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="C101" t="s">
-        <v>168</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>797</v>
-      </c>
       <c r="E101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F101" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>797</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="C102" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="C102" t="s">
-        <v>168</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>800</v>
-      </c>
       <c r="E102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F102" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>800</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="C103" t="s">
+        <v>167</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>802</v>
       </c>
-      <c r="C103" t="s">
-        <v>168</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>803</v>
-      </c>
       <c r="E103" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F103" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>803</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="C104" t="s">
+        <v>167</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="C104" t="s">
-        <v>168</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>806</v>
-      </c>
       <c r="E104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F104" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>806</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="C105" t="s">
+        <v>167</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="C105" t="s">
-        <v>168</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>809</v>
-      </c>
       <c r="E105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F105" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>809</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="C106" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="C106" t="s">
-        <v>168</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>812</v>
-      </c>
       <c r="E106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F106" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>812</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="C107" t="s">
+        <v>167</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>814</v>
       </c>
-      <c r="C107" t="s">
-        <v>168</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>815</v>
-      </c>
       <c r="E107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F107" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>815</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="C108" t="s">
+        <v>167</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="C108" t="s">
-        <v>168</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>818</v>
-      </c>
       <c r="E108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F108" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>818</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="C109" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="C109" t="s">
-        <v>168</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>821</v>
-      </c>
       <c r="E109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F109" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>821</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="C110" t="s">
+        <v>167</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="C110" t="s">
-        <v>168</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>824</v>
-      </c>
       <c r="E110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F110" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>824</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="C111" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="C111" t="s">
-        <v>168</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>827</v>
-      </c>
       <c r="E111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F111" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>827</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="C112" t="s">
+        <v>167</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="C112" t="s">
-        <v>168</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>830</v>
-      </c>
       <c r="E112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F112" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>830</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="C113" t="s">
+        <v>167</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>832</v>
       </c>
-      <c r="C113" t="s">
-        <v>168</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>833</v>
-      </c>
       <c r="E113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F113" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>833</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="C114" t="s">
+        <v>167</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="C114" t="s">
-        <v>168</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>836</v>
-      </c>
       <c r="E114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F114" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>836</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="C115" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="C115" t="s">
-        <v>168</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>839</v>
-      </c>
       <c r="E115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F115" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>839</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="C116" t="s">
+        <v>167</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="C116" t="s">
-        <v>168</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>842</v>
-      </c>
       <c r="E116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F116" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>842</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="C117" t="s">
+        <v>167</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="C117" t="s">
-        <v>168</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>845</v>
-      </c>
       <c r="E117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F117" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>845</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="C118" t="s">
+        <v>167</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="C118" t="s">
-        <v>168</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>848</v>
-      </c>
       <c r="E118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F118" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>848</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>849</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="C119" t="s">
+        <v>167</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="C119" t="s">
-        <v>168</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>851</v>
-      </c>
       <c r="E119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>851</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="C120" t="s">
+        <v>167</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>853</v>
       </c>
-      <c r="C120" t="s">
-        <v>168</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>854</v>
-      </c>
       <c r="E120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F120" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>854</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>855</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="C121" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>856</v>
       </c>
-      <c r="C121" t="s">
-        <v>168</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>857</v>
-      </c>
       <c r="E121" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F121" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>857</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="C122" t="s">
+        <v>167</v>
+      </c>
+      <c r="D122" s="9" t="s">
         <v>859</v>
       </c>
-      <c r="C122" t="s">
-        <v>168</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="E122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F122" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>860</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>861</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="C123" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="C123" t="s">
-        <v>168</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>863</v>
-      </c>
       <c r="E123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F123" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>863</v>
+      </c>
+      <c r="B124" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="C124" t="s">
+        <v>167</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="C124" t="s">
-        <v>168</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>866</v>
-      </c>
       <c r="E124" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F124" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>866</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="C125" t="s">
+        <v>167</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>868</v>
       </c>
-      <c r="C125" t="s">
-        <v>168</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>869</v>
-      </c>
       <c r="E125" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F125" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>869</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="C126" t="s">
+        <v>167</v>
+      </c>
+      <c r="D126" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="C126" t="s">
-        <v>168</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>872</v>
-      </c>
       <c r="E126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F126" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>872</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="C127" t="s">
+        <v>167</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>874</v>
       </c>
-      <c r="C127" t="s">
-        <v>168</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>875</v>
-      </c>
       <c r="E127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F127" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>875</v>
+      </c>
+      <c r="B128" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="C128" t="s">
+        <v>167</v>
+      </c>
+      <c r="D128" s="9" t="s">
         <v>877</v>
       </c>
-      <c r="C128" t="s">
-        <v>168</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>878</v>
-      </c>
       <c r="E128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F128" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>878</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="C129" t="s">
+        <v>167</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>880</v>
       </c>
-      <c r="C129" t="s">
-        <v>168</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>881</v>
-      </c>
       <c r="E129" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F129" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>881</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="C130" t="s">
+        <v>167</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="C130" t="s">
-        <v>168</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>884</v>
-      </c>
       <c r="E130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F130" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>884</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="C131" t="s">
+        <v>167</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="C131" t="s">
-        <v>168</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>887</v>
-      </c>
       <c r="E131" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F131" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B132" s="10"/>
       <c r="C132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F132" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F133" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F134" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E135" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F135" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F136" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F137" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -8359,7 +8356,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>31</v>
@@ -8375,10 +8372,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B3" t="s">
         <v>898</v>
-      </c>
-      <c r="B3" t="s">
-        <v>899</v>
       </c>
     </row>
   </sheetData>
@@ -8388,10 +8385,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8427,7 +8424,7 @@
       <c r="A3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="26"/>
@@ -8438,7 +8435,7 @@
       <c r="A4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="26"/>
@@ -8449,7 +8446,7 @@
       <c r="A5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="26"/>
@@ -8469,10 +8466,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -8480,10 +8477,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -8491,10 +8488,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -8502,78 +8499,112 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>899</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="7" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="7" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="B17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
@@ -8608,53 +8639,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -8682,57 +8713,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8762,128 +8793,128 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8895,103 +8926,103 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -9020,164 +9051,164 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
         <v>141</v>
       </c>
-      <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>142</v>
-      </c>
-      <c r="H2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
         <v>144</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>145</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
         <v>146</v>
       </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" t="s">
         <v>147</v>
-      </c>
-      <c r="H3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
         <v>149</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
         <v>150</v>
       </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" t="s">
         <v>151</v>
-      </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
         <v>153</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
         <v>154</v>
       </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
         <v>155</v>
       </c>
-      <c r="E5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" t="s">
         <v>156</v>
-      </c>
-      <c r="H5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
         <v>158</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
         <v>159</v>
       </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="H6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -9204,38 +9235,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>164</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
         <v>168</v>
-      </c>
-      <c r="D3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/invalid_section_levels.xlsx
+++ b/tests/integration_test_files/invalid_section_levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76DD3EF-AC64-E54D-AF5B-33D450A0E331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88410407-820E-1A41-B9DF-E159C4A3F938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51860" yWindow="500" windowWidth="50560" windowHeight="27240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -773,9 +773,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
     <t>END1</t>
   </si>
   <si>
@@ -789,9 +786,6 @@
   </si>
   <si>
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
   </si>
   <si>
     <t>END2</t>
@@ -2751,12 +2745,18 @@
   <si>
     <t>trialSubTypes</t>
   </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2785,6 +2785,13 @@
       <color rgb="FF444444"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2819,7 +2826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2885,6 +2892,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3702,7 +3712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -3764,43 +3774,43 @@
       <c r="D2" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3809,16 +3819,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3827,16 +3837,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3845,16 +3855,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3863,16 +3873,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3881,16 +3891,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3899,16 +3909,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3917,16 +3927,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3935,16 +3945,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3953,16 +3963,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3971,16 +3981,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4287,114 +4297,114 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>895</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>277</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>279</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>236</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" t="s">
         <v>281</v>
-      </c>
-      <c r="B2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" t="s">
-        <v>283</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
         <v>184</v>
       </c>
       <c r="H2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G5" t="s">
         <v>202</v>
       </c>
       <c r="H5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -4423,65 +4433,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>297</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" t="s">
         <v>300</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>301</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>302</v>
-      </c>
-      <c r="D2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" t="s">
         <v>305</v>
       </c>
-      <c r="B3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>306</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" t="s">
         <v>307</v>
-      </c>
-      <c r="E3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4514,28 +4524,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>314</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -4546,22 +4556,22 @@
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4572,16 +4582,16 @@
         <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4592,19 +4602,19 @@
         <v>146</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4612,19 +4622,19 @@
         <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4632,19 +4642,19 @@
         <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -4670,19 +4680,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4693,13 +4703,13 @@
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4710,30 +4720,30 @@
         <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4744,30 +4754,30 @@
         <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -4790,18 +4800,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" t="s">
         <v>349</v>
-      </c>
-      <c r="B2" t="s">
-        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4828,699 +4838,699 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -5592,7 +5602,7 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -5630,2624 +5640,2624 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>495</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>503</v>
-      </c>
       <c r="E3" t="s">
         <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>506</v>
-      </c>
       <c r="E4" t="s">
         <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>509</v>
-      </c>
       <c r="E5" t="s">
         <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>512</v>
-      </c>
       <c r="E6" t="s">
         <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>515</v>
-      </c>
       <c r="E7" t="s">
         <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="C8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>518</v>
-      </c>
       <c r="E8" t="s">
         <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>521</v>
-      </c>
       <c r="E9" t="s">
         <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="C10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>524</v>
-      </c>
       <c r="E10" t="s">
         <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>527</v>
-      </c>
       <c r="E11" t="s">
         <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>526</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>530</v>
-      </c>
       <c r="E12" t="s">
         <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="C13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>533</v>
-      </c>
       <c r="E13" t="s">
         <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>532</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>536</v>
-      </c>
       <c r="E14" t="s">
         <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="C15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>539</v>
-      </c>
       <c r="E15" t="s">
         <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>538</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="C16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>542</v>
-      </c>
       <c r="E16" t="s">
         <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>541</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="C17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>545</v>
-      </c>
       <c r="E17" t="s">
         <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>544</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>548</v>
-      </c>
       <c r="E18" t="s">
         <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>547</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="C19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="E19" t="s">
         <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>550</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="C20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>554</v>
-      </c>
       <c r="E20" t="s">
         <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>553</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="C21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="E21" t="s">
         <v>167</v>
       </c>
       <c r="F21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>556</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>560</v>
-      </c>
       <c r="E22" t="s">
         <v>167</v>
       </c>
       <c r="F22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>559</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="C23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>563</v>
-      </c>
       <c r="E23" t="s">
         <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>562</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>566</v>
-      </c>
       <c r="E24" t="s">
         <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>565</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="C25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>569</v>
-      </c>
       <c r="E25" t="s">
         <v>167</v>
       </c>
       <c r="F25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>568</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="C26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>572</v>
-      </c>
       <c r="E26" t="s">
         <v>167</v>
       </c>
       <c r="F26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>571</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="C27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>575</v>
-      </c>
       <c r="E27" t="s">
         <v>167</v>
       </c>
       <c r="F27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>574</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="C28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>578</v>
-      </c>
       <c r="E28" t="s">
         <v>167</v>
       </c>
       <c r="F28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>577</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="C29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>581</v>
-      </c>
       <c r="E29" t="s">
         <v>167</v>
       </c>
       <c r="F29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>580</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="C30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>584</v>
-      </c>
       <c r="E30" t="s">
         <v>167</v>
       </c>
       <c r="F30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>583</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="C31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>587</v>
-      </c>
       <c r="E31" t="s">
         <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>586</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="C32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>590</v>
-      </c>
       <c r="E32" t="s">
         <v>167</v>
       </c>
       <c r="F32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>589</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="C33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>593</v>
-      </c>
       <c r="E33" t="s">
         <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>592</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>596</v>
-      </c>
       <c r="E34" t="s">
         <v>167</v>
       </c>
       <c r="F34" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>595</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="C35" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>599</v>
-      </c>
       <c r="E35" t="s">
         <v>167</v>
       </c>
       <c r="F35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>598</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="C36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>602</v>
-      </c>
       <c r="E36" t="s">
         <v>167</v>
       </c>
       <c r="F36" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>601</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="C37" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>605</v>
-      </c>
       <c r="E37" t="s">
         <v>167</v>
       </c>
       <c r="F37" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>604</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>608</v>
-      </c>
       <c r="E38" t="s">
         <v>167</v>
       </c>
       <c r="F38" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>607</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>611</v>
-      </c>
       <c r="E39" t="s">
         <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>610</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="C40" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>614</v>
-      </c>
       <c r="E40" t="s">
         <v>167</v>
       </c>
       <c r="F40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>613</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="C41" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>617</v>
-      </c>
       <c r="E41" t="s">
         <v>167</v>
       </c>
       <c r="F41" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>616</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="C42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>620</v>
-      </c>
       <c r="E42" t="s">
         <v>167</v>
       </c>
       <c r="F42" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>619</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="C43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>623</v>
-      </c>
       <c r="E43" t="s">
         <v>167</v>
       </c>
       <c r="F43" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>622</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="C44" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>626</v>
-      </c>
       <c r="E44" t="s">
         <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>625</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="C45" t="s">
-        <v>167</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>629</v>
-      </c>
       <c r="E45" t="s">
         <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>628</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="C46" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>632</v>
-      </c>
       <c r="E46" t="s">
         <v>167</v>
       </c>
       <c r="F46" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>631</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C47" t="s">
-        <v>167</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>635</v>
-      </c>
       <c r="E47" t="s">
         <v>167</v>
       </c>
       <c r="F47" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>634</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="C48" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>638</v>
-      </c>
       <c r="E48" t="s">
         <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>637</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="C49" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>641</v>
-      </c>
       <c r="E49" t="s">
         <v>167</v>
       </c>
       <c r="F49" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>640</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C50" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>644</v>
-      </c>
       <c r="E50" t="s">
         <v>167</v>
       </c>
       <c r="F50" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>643</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="C51" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>647</v>
-      </c>
       <c r="E51" t="s">
         <v>167</v>
       </c>
       <c r="F51" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>646</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="C52" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>650</v>
-      </c>
       <c r="E52" t="s">
         <v>167</v>
       </c>
       <c r="F52" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>649</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="C53" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>653</v>
-      </c>
       <c r="E53" t="s">
         <v>167</v>
       </c>
       <c r="F53" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>652</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="C54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="C54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>656</v>
-      </c>
       <c r="E54" t="s">
         <v>167</v>
       </c>
       <c r="F54" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>655</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="C55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>659</v>
-      </c>
       <c r="E55" t="s">
         <v>167</v>
       </c>
       <c r="F55" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>658</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="C56" t="s">
-        <v>167</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>662</v>
-      </c>
       <c r="E56" t="s">
         <v>167</v>
       </c>
       <c r="F56" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>661</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C57" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>665</v>
-      </c>
       <c r="E57" t="s">
         <v>167</v>
       </c>
       <c r="F57" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>664</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="C58" t="s">
-        <v>167</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>668</v>
-      </c>
       <c r="E58" t="s">
         <v>167</v>
       </c>
       <c r="F58" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>667</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="C59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="C59" t="s">
-        <v>167</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>671</v>
-      </c>
       <c r="E59" t="s">
         <v>167</v>
       </c>
       <c r="F59" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>670</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="C60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>674</v>
-      </c>
       <c r="E60" t="s">
         <v>167</v>
       </c>
       <c r="F60" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>673</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="C61" t="s">
-        <v>167</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>677</v>
-      </c>
       <c r="E61" t="s">
         <v>167</v>
       </c>
       <c r="F61" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>676</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="C62" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>680</v>
-      </c>
       <c r="E62" t="s">
         <v>167</v>
       </c>
       <c r="F62" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>679</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="C63" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>683</v>
-      </c>
       <c r="E63" t="s">
         <v>167</v>
       </c>
       <c r="F63" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>682</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="C64" t="s">
-        <v>167</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>686</v>
-      </c>
       <c r="E64" t="s">
         <v>167</v>
       </c>
       <c r="F64" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>685</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="C65" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="C65" t="s">
-        <v>167</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>689</v>
-      </c>
       <c r="E65" t="s">
         <v>167</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>688</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="C66" t="s">
-        <v>167</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>692</v>
-      </c>
       <c r="E66" t="s">
         <v>167</v>
       </c>
       <c r="F66" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>691</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="C67" t="s">
-        <v>167</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>695</v>
-      </c>
       <c r="E67" t="s">
         <v>167</v>
       </c>
       <c r="F67" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>694</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="C68" t="s">
-        <v>167</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>698</v>
-      </c>
       <c r="E68" t="s">
         <v>167</v>
       </c>
       <c r="F68" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>697</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="C69" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>701</v>
-      </c>
       <c r="E69" t="s">
         <v>167</v>
       </c>
       <c r="F69" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>700</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="C70" t="s">
-        <v>167</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>704</v>
-      </c>
       <c r="E70" t="s">
         <v>167</v>
       </c>
       <c r="F70" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>703</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="C71" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>707</v>
-      </c>
       <c r="E71" t="s">
         <v>167</v>
       </c>
       <c r="F71" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>706</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="C72" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C72" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>710</v>
-      </c>
       <c r="E72" t="s">
         <v>167</v>
       </c>
       <c r="F72" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>709</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="C73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="C73" t="s">
-        <v>167</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>713</v>
-      </c>
       <c r="E73" t="s">
         <v>167</v>
       </c>
       <c r="F73" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>712</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="C74" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="C74" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>716</v>
-      </c>
       <c r="E74" t="s">
         <v>167</v>
       </c>
       <c r="F74" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>715</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C75" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>718</v>
-      </c>
-      <c r="C75" t="s">
-        <v>167</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>719</v>
-      </c>
       <c r="E75" t="s">
         <v>167</v>
       </c>
       <c r="F75" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>718</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="C76" t="s">
-        <v>167</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>722</v>
-      </c>
       <c r="E76" t="s">
         <v>167</v>
       </c>
       <c r="F76" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>721</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="C77" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>724</v>
-      </c>
-      <c r="C77" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>725</v>
-      </c>
       <c r="E77" t="s">
         <v>167</v>
       </c>
       <c r="F77" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>724</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="C78" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="C78" t="s">
-        <v>167</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>728</v>
-      </c>
       <c r="E78" t="s">
         <v>167</v>
       </c>
       <c r="F78" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>727</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="C79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>730</v>
-      </c>
-      <c r="C79" t="s">
-        <v>167</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>731</v>
-      </c>
       <c r="E79" t="s">
         <v>167</v>
       </c>
       <c r="F79" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>730</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="C80" t="s">
-        <v>167</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>734</v>
-      </c>
       <c r="E80" t="s">
         <v>167</v>
       </c>
       <c r="F80" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>733</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="C81" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="C81" t="s">
-        <v>167</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>737</v>
-      </c>
       <c r="E81" t="s">
         <v>167</v>
       </c>
       <c r="F81" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>736</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>740</v>
-      </c>
       <c r="E82" t="s">
         <v>167</v>
       </c>
       <c r="F82" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>739</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="C83" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="C83" t="s">
-        <v>167</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>743</v>
-      </c>
       <c r="E83" t="s">
         <v>167</v>
       </c>
       <c r="F83" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>742</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="C84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="C84" t="s">
-        <v>167</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>746</v>
-      </c>
       <c r="E84" t="s">
         <v>167</v>
       </c>
       <c r="F84" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>745</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="C85" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>748</v>
-      </c>
-      <c r="C85" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>749</v>
-      </c>
       <c r="E85" t="s">
         <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>748</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="C86" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="C86" t="s">
-        <v>167</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>752</v>
-      </c>
       <c r="E86" t="s">
         <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>751</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="C87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="C87" t="s">
-        <v>167</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>755</v>
-      </c>
       <c r="E87" t="s">
         <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>754</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="C88" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>757</v>
-      </c>
-      <c r="C88" t="s">
-        <v>167</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>758</v>
-      </c>
       <c r="E88" t="s">
         <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>757</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="C89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="C89" t="s">
-        <v>167</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>761</v>
-      </c>
       <c r="E89" t="s">
         <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C90" t="s">
         <v>167</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E90" t="s">
         <v>167</v>
       </c>
       <c r="F90" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>762</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="C91" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>765</v>
-      </c>
-      <c r="C91" t="s">
-        <v>167</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>766</v>
-      </c>
       <c r="E91" t="s">
         <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>765</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="C92" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>768</v>
-      </c>
-      <c r="C92" t="s">
-        <v>167</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>769</v>
-      </c>
       <c r="E92" t="s">
         <v>167</v>
       </c>
       <c r="F92" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>768</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C93" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="C93" t="s">
-        <v>167</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>772</v>
-      </c>
       <c r="E93" t="s">
         <v>167</v>
       </c>
       <c r="F93" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>771</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="C94" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>774</v>
-      </c>
-      <c r="C94" t="s">
-        <v>167</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>775</v>
-      </c>
       <c r="E94" t="s">
         <v>167</v>
       </c>
       <c r="F94" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>774</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="C95" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>777</v>
-      </c>
-      <c r="C95" t="s">
-        <v>167</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>778</v>
-      </c>
       <c r="E95" t="s">
         <v>167</v>
       </c>
       <c r="F95" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>777</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="C96" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>780</v>
-      </c>
-      <c r="C96" t="s">
-        <v>167</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>781</v>
-      </c>
       <c r="E96" t="s">
         <v>167</v>
       </c>
       <c r="F96" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>780</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C97" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>783</v>
-      </c>
-      <c r="C97" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>784</v>
-      </c>
       <c r="E97" t="s">
         <v>167</v>
       </c>
       <c r="F97" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>783</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="C98" t="s">
+        <v>167</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="C98" t="s">
-        <v>167</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>787</v>
-      </c>
       <c r="E98" t="s">
         <v>167</v>
       </c>
       <c r="F98" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>786</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="C99" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>789</v>
-      </c>
-      <c r="C99" t="s">
-        <v>167</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>790</v>
-      </c>
       <c r="E99" t="s">
         <v>167</v>
       </c>
       <c r="F99" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>789</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C100" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>792</v>
-      </c>
-      <c r="C100" t="s">
-        <v>167</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>793</v>
-      </c>
       <c r="E100" t="s">
         <v>167</v>
       </c>
       <c r="F100" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>792</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="C101" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="C101" t="s">
-        <v>167</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>796</v>
-      </c>
       <c r="E101" t="s">
         <v>167</v>
       </c>
       <c r="F101" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>795</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="C102" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="C102" t="s">
-        <v>167</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>799</v>
-      </c>
       <c r="E102" t="s">
         <v>167</v>
       </c>
       <c r="F102" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>798</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="C103" t="s">
+        <v>167</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="C103" t="s">
-        <v>167</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>802</v>
-      </c>
       <c r="E103" t="s">
         <v>167</v>
       </c>
       <c r="F103" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>801</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="C104" t="s">
+        <v>167</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>804</v>
-      </c>
-      <c r="C104" t="s">
-        <v>167</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>805</v>
-      </c>
       <c r="E104" t="s">
         <v>167</v>
       </c>
       <c r="F104" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>804</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="C105" t="s">
+        <v>167</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C105" t="s">
-        <v>167</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>808</v>
-      </c>
       <c r="E105" t="s">
         <v>167</v>
       </c>
       <c r="F105" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>807</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C106" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>810</v>
-      </c>
-      <c r="C106" t="s">
-        <v>167</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>811</v>
-      </c>
       <c r="E106" t="s">
         <v>167</v>
       </c>
       <c r="F106" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>810</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="C107" t="s">
+        <v>167</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="C107" t="s">
-        <v>167</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>814</v>
-      </c>
       <c r="E107" t="s">
         <v>167</v>
       </c>
       <c r="F107" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>813</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="C108" t="s">
+        <v>167</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="C108" t="s">
-        <v>167</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>817</v>
-      </c>
       <c r="E108" t="s">
         <v>167</v>
       </c>
       <c r="F108" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>816</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="C109" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>819</v>
-      </c>
-      <c r="C109" t="s">
-        <v>167</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>820</v>
-      </c>
       <c r="E109" t="s">
         <v>167</v>
       </c>
       <c r="F109" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>819</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="C110" t="s">
+        <v>167</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>822</v>
-      </c>
-      <c r="C110" t="s">
-        <v>167</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>823</v>
-      </c>
       <c r="E110" t="s">
         <v>167</v>
       </c>
       <c r="F110" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>822</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="C111" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>825</v>
-      </c>
-      <c r="C111" t="s">
-        <v>167</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>826</v>
-      </c>
       <c r="E111" t="s">
         <v>167</v>
       </c>
       <c r="F111" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>825</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="C112" t="s">
+        <v>167</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="C112" t="s">
-        <v>167</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>829</v>
-      </c>
       <c r="E112" t="s">
         <v>167</v>
       </c>
       <c r="F112" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>828</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="C113" t="s">
+        <v>167</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="C113" t="s">
-        <v>167</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>832</v>
-      </c>
       <c r="E113" t="s">
         <v>167</v>
       </c>
       <c r="F113" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>831</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="C114" t="s">
+        <v>167</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="C114" t="s">
-        <v>167</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>835</v>
-      </c>
       <c r="E114" t="s">
         <v>167</v>
       </c>
       <c r="F114" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>834</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="C115" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>837</v>
-      </c>
-      <c r="C115" t="s">
-        <v>167</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>838</v>
-      </c>
       <c r="E115" t="s">
         <v>167</v>
       </c>
       <c r="F115" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>837</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="C116" t="s">
+        <v>167</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="C116" t="s">
-        <v>167</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>841</v>
-      </c>
       <c r="E116" t="s">
         <v>167</v>
       </c>
       <c r="F116" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>840</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="C117" t="s">
+        <v>167</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="C117" t="s">
-        <v>167</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>844</v>
-      </c>
       <c r="E117" t="s">
         <v>167</v>
       </c>
       <c r="F117" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>843</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="C118" t="s">
+        <v>167</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="C118" t="s">
-        <v>167</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>847</v>
-      </c>
       <c r="E118" t="s">
         <v>167</v>
       </c>
       <c r="F118" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>846</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="C119" t="s">
+        <v>167</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="C119" t="s">
-        <v>167</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>850</v>
-      </c>
       <c r="E119" t="s">
         <v>167</v>
       </c>
       <c r="F119" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>849</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="C120" t="s">
+        <v>167</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>851</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="C120" t="s">
-        <v>167</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>853</v>
-      </c>
       <c r="E120" t="s">
         <v>167</v>
       </c>
       <c r="F120" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>852</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="C121" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="C121" t="s">
-        <v>167</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>856</v>
-      </c>
       <c r="E121" t="s">
         <v>167</v>
       </c>
       <c r="F121" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>855</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="C122" t="s">
+        <v>167</v>
+      </c>
+      <c r="D122" s="9" t="s">
         <v>857</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="C122" t="s">
-        <v>167</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>859</v>
-      </c>
       <c r="E122" t="s">
         <v>167</v>
       </c>
       <c r="F122" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>858</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="C123" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>860</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="C123" t="s">
-        <v>167</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>862</v>
-      </c>
       <c r="E123" t="s">
         <v>167</v>
       </c>
       <c r="F123" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>861</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="C124" t="s">
+        <v>167</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>864</v>
-      </c>
-      <c r="C124" t="s">
-        <v>167</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>865</v>
-      </c>
       <c r="E124" t="s">
         <v>167</v>
       </c>
       <c r="F124" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>864</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="C125" t="s">
+        <v>167</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>867</v>
-      </c>
-      <c r="C125" t="s">
-        <v>167</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>868</v>
-      </c>
       <c r="E125" t="s">
         <v>167</v>
       </c>
       <c r="F125" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>867</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="C126" t="s">
+        <v>167</v>
+      </c>
+      <c r="D126" s="9" t="s">
         <v>869</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="C126" t="s">
-        <v>167</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>871</v>
-      </c>
       <c r="E126" t="s">
         <v>167</v>
       </c>
       <c r="F126" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>870</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="C127" t="s">
+        <v>167</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>872</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>873</v>
-      </c>
-      <c r="C127" t="s">
-        <v>167</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>874</v>
-      </c>
       <c r="E127" t="s">
         <v>167</v>
       </c>
       <c r="F127" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>873</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="C128" t="s">
+        <v>167</v>
+      </c>
+      <c r="D128" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>876</v>
-      </c>
-      <c r="C128" t="s">
-        <v>167</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>877</v>
-      </c>
       <c r="E128" t="s">
         <v>167</v>
       </c>
       <c r="F128" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>876</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="C129" t="s">
+        <v>167</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>878</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="C129" t="s">
-        <v>167</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>880</v>
-      </c>
       <c r="E129" t="s">
         <v>167</v>
       </c>
       <c r="F129" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>879</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="C130" t="s">
+        <v>167</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>882</v>
-      </c>
-      <c r="C130" t="s">
-        <v>167</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>883</v>
-      </c>
       <c r="E130" t="s">
         <v>167</v>
       </c>
       <c r="F130" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>882</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="C131" t="s">
+        <v>167</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>885</v>
-      </c>
-      <c r="C131" t="s">
-        <v>167</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>886</v>
-      </c>
       <c r="E131" t="s">
         <v>167</v>
       </c>
       <c r="F131" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B132" s="10"/>
       <c r="C132" t="s">
@@ -8257,12 +8267,12 @@
         <v>167</v>
       </c>
       <c r="F132" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" t="s">
@@ -8272,12 +8282,12 @@
         <v>167</v>
       </c>
       <c r="F133" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" t="s">
@@ -8287,12 +8297,12 @@
         <v>167</v>
       </c>
       <c r="F134" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" t="s">
@@ -8302,12 +8312,12 @@
         <v>167</v>
       </c>
       <c r="F135" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" t="s">
@@ -8317,12 +8327,12 @@
         <v>167</v>
       </c>
       <c r="F136" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" t="s">
@@ -8332,7 +8342,7 @@
         <v>167</v>
       </c>
       <c r="F137" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -8356,7 +8366,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>31</v>
@@ -8372,10 +8382,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -8387,7 +8397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -8466,7 +8476,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>56</v>
@@ -8530,7 +8540,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
@@ -8602,11 +8612,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
@@ -8615,6 +8620,11 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/invalid_section_levels.xlsx
+++ b/tests/integration_test_files/invalid_section_levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88410407-820E-1A41-B9DF-E159C4A3F938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9865009-4A07-7E46-A4B4-846915353896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>ClinicalTrials.gov</t>
   </si>
   <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>NCT12345678</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>ACME Pharma</t>
-  </si>
-  <si>
-    <t>Clinical Study Sponsor</t>
   </si>
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
@@ -2750,6 +2744,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -2888,13 +2888,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3380,176 +3380,176 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s">
         <v>184</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>185</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>186</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="H2" t="s">
         <v>189</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>190</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>191</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>192</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>193</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>194</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>195</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>196</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>197</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R2" t="s">
         <v>198</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="24" t="s">
         <v>199</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>167</v>
-      </c>
-      <c r="R2" t="s">
-        <v>200</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
         <v>202</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" t="s">
         <v>203</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" t="s">
         <v>204</v>
       </c>
-      <c r="D3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>205</v>
       </c>
-      <c r="I3" t="s">
-        <v>192</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>206</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P3" t="s">
         <v>207</v>
       </c>
-      <c r="L3" t="s">
-        <v>208</v>
-      </c>
-      <c r="M3" t="s">
-        <v>196</v>
-      </c>
-      <c r="N3" t="s">
-        <v>197</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R3" t="s">
         <v>198</v>
       </c>
-      <c r="P3" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>167</v>
-      </c>
-      <c r="R3" t="s">
-        <v>200</v>
-      </c>
       <c r="S3" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3577,41 +3577,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
         <v>210</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="C2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
         <v>214</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="C3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3640,36 +3640,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>220</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3678,29 +3678,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" t="s">
         <v>226</v>
-      </c>
-      <c r="B3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3712,7 +3712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -3732,85 +3732,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>900</v>
+        <v>246</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>898</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3819,16 +3819,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3837,16 +3837,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3855,16 +3855,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3873,16 +3873,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3891,16 +3891,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3909,16 +3909,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3927,16 +3927,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3945,16 +3945,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3963,16 +3963,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3981,16 +3981,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4297,114 +4297,114 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
+        <v>891</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>893</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>278</v>
-      </c>
       <c r="J1" s="19" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" t="s">
         <v>279</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" t="s">
         <v>280</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" t="s">
         <v>282</v>
       </c>
-      <c r="F2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I2" t="s">
-        <v>284</v>
-      </c>
       <c r="J2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" t="s">
         <v>287</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>288</v>
       </c>
-      <c r="C5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I5" t="s">
         <v>289</v>
       </c>
-      <c r="F5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G5" t="s">
-        <v>202</v>
-      </c>
-      <c r="H5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I5" t="s">
-        <v>291</v>
-      </c>
       <c r="J5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -4433,65 +4433,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" t="s">
         <v>298</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>299</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>300</v>
-      </c>
-      <c r="D2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" t="s">
         <v>303</v>
       </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>304</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" t="s">
         <v>305</v>
-      </c>
-      <c r="E3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4524,137 +4524,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>312</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4680,104 +4680,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4800,18 +4800,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" t="s">
         <v>347</v>
-      </c>
-      <c r="B2" t="s">
-        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4838,699 +4838,699 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -5542,7 +5542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5565,7 +5565,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>30</v>
@@ -5588,30 +5588,30 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>895</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>899</v>
+      </c>
+      <c r="F3" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5640,2709 +5640,2709 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>493</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>501</v>
-      </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>504</v>
-      </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>507</v>
-      </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>510</v>
-      </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>513</v>
-      </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="C8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>516</v>
-      </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="C9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>519</v>
-      </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>522</v>
-      </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>525</v>
-      </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>528</v>
-      </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>527</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="C13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>531</v>
-      </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>530</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="C14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>534</v>
-      </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>533</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>537</v>
-      </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>536</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="C16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>540</v>
-      </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>539</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="C17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>543</v>
-      </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>542</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="C18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>546</v>
-      </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>545</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="C19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>549</v>
-      </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>548</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="C20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>552</v>
-      </c>
       <c r="E20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>551</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="C21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>555</v>
-      </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>554</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>558</v>
-      </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>557</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="C23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>561</v>
-      </c>
       <c r="E23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>560</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="C24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>564</v>
-      </c>
       <c r="E24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>563</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="C25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>567</v>
-      </c>
       <c r="E25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="C26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>570</v>
-      </c>
       <c r="E26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>569</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="C27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>573</v>
-      </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F27" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>572</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="C28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>576</v>
-      </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F28" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>575</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="C29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>579</v>
-      </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>578</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="C30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>582</v>
-      </c>
       <c r="E30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>581</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="C31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>585</v>
-      </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F31" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>584</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="C32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>588</v>
-      </c>
       <c r="E32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>587</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="C33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>591</v>
-      </c>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F33" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>590</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>594</v>
-      </c>
       <c r="E34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F34" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>593</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="C35" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>597</v>
-      </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F35" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>596</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="C36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>600</v>
-      </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F36" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>599</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="C37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="C37" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>603</v>
-      </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F37" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>602</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="C38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>606</v>
-      </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>605</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="C39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>609</v>
-      </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F39" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>608</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="C40" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F40" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>611</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="C41" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>615</v>
-      </c>
       <c r="E41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F41" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>614</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="C42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>618</v>
-      </c>
       <c r="E42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F42" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>617</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="C43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>621</v>
-      </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F43" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>620</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="C44" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>624</v>
-      </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F44" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>623</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="C45" t="s">
-        <v>167</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>627</v>
-      </c>
       <c r="E45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F45" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>626</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="C46" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>630</v>
-      </c>
       <c r="E46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>629</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="C47" t="s">
-        <v>167</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>633</v>
-      </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>632</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C48" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="C48" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>636</v>
-      </c>
       <c r="E48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F48" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>635</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="C49" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>639</v>
-      </c>
       <c r="E49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F49" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>638</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="C50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="C50" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>642</v>
-      </c>
       <c r="E50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F50" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>641</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="C51" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>645</v>
-      </c>
       <c r="E51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F51" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>644</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="C52" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>648</v>
-      </c>
       <c r="E52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F52" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>647</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="C53" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>651</v>
-      </c>
       <c r="E53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F53" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>650</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="C54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>654</v>
-      </c>
       <c r="E54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F54" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>653</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="C55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>657</v>
-      </c>
       <c r="E55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F55" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>656</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>659</v>
-      </c>
-      <c r="C56" t="s">
-        <v>167</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>660</v>
-      </c>
       <c r="E56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F56" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>659</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="C57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>662</v>
-      </c>
-      <c r="C57" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>663</v>
-      </c>
       <c r="E57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F57" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>662</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="C58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>665</v>
-      </c>
-      <c r="C58" t="s">
-        <v>167</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>666</v>
-      </c>
       <c r="E58" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F58" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>665</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="C59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="C59" t="s">
-        <v>167</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>669</v>
-      </c>
       <c r="E59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F59" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>668</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="C60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>672</v>
-      </c>
       <c r="E60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F60" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>671</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="C61" t="s">
-        <v>167</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>675</v>
-      </c>
       <c r="E61" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F61" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>674</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="C62" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>677</v>
-      </c>
-      <c r="C62" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>678</v>
-      </c>
       <c r="E62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F62" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>677</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C63" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C63" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>681</v>
-      </c>
       <c r="E63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F63" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>680</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C64" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="C64" t="s">
-        <v>167</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>684</v>
-      </c>
       <c r="E64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F64" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>683</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="C65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="C65" t="s">
-        <v>167</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>687</v>
-      </c>
       <c r="E65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F65" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>686</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="C66" t="s">
-        <v>167</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>690</v>
-      </c>
       <c r="E66" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F66" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>689</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C67" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="C67" t="s">
-        <v>167</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>693</v>
-      </c>
       <c r="E67" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F67" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>692</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="C68" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="C68" t="s">
-        <v>167</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>696</v>
-      </c>
       <c r="E68" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F68" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>695</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="C69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="C69" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>699</v>
-      </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F69" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>698</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="C70" t="s">
-        <v>167</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>702</v>
-      </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F70" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>701</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="C71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C71" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>705</v>
-      </c>
       <c r="E71" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F71" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>704</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="C72" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>707</v>
-      </c>
-      <c r="C72" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>708</v>
-      </c>
       <c r="E72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F72" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>707</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="C73" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="C73" t="s">
-        <v>167</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>711</v>
-      </c>
       <c r="E73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F73" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>710</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="C74" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>714</v>
-      </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F74" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>713</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="C75" t="s">
-        <v>167</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>717</v>
-      </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F75" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>716</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="C76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>719</v>
-      </c>
-      <c r="C76" t="s">
-        <v>167</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>720</v>
-      </c>
       <c r="E76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F76" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>719</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C77" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="C77" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>723</v>
-      </c>
       <c r="E77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F77" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>722</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="C78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>725</v>
-      </c>
-      <c r="C78" t="s">
-        <v>167</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>726</v>
-      </c>
       <c r="E78" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F78" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>725</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="C79" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>728</v>
-      </c>
-      <c r="C79" t="s">
-        <v>167</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>729</v>
-      </c>
       <c r="E79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F79" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>728</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="C80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>731</v>
-      </c>
-      <c r="C80" t="s">
-        <v>167</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>732</v>
-      </c>
       <c r="E80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F80" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>731</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>734</v>
-      </c>
-      <c r="C81" t="s">
-        <v>167</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>735</v>
-      </c>
       <c r="E81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F81" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>734</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C82" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>738</v>
-      </c>
       <c r="E82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F82" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>737</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="C83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>740</v>
-      </c>
-      <c r="C83" t="s">
-        <v>167</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="E83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F83" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>740</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="C84" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="C84" t="s">
-        <v>167</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>744</v>
-      </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>743</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="C85" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="C85" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>747</v>
-      </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>746</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C86" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>749</v>
-      </c>
-      <c r="C86" t="s">
-        <v>167</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>750</v>
-      </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>749</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="C87" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>752</v>
-      </c>
-      <c r="C87" t="s">
-        <v>167</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>753</v>
-      </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>752</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C88" t="s">
+        <v>165</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="C88" t="s">
-        <v>167</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>756</v>
-      </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>755</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="C89" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>758</v>
-      </c>
-      <c r="C89" t="s">
-        <v>167</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>759</v>
-      </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F89" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>760</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="C91" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>763</v>
-      </c>
-      <c r="C91" t="s">
-        <v>167</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>764</v>
-      </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F91" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>763</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="C92" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>766</v>
-      </c>
-      <c r="C92" t="s">
-        <v>167</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>767</v>
-      </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F92" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>766</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="C93" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>769</v>
-      </c>
-      <c r="C93" t="s">
-        <v>167</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>770</v>
-      </c>
       <c r="E93" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F93" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>769</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="C94" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>772</v>
-      </c>
-      <c r="C94" t="s">
-        <v>167</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>773</v>
-      </c>
       <c r="E94" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F94" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>772</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="C95" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="C95" t="s">
-        <v>167</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>776</v>
-      </c>
       <c r="E95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F95" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>775</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="C96" t="s">
+        <v>165</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>778</v>
-      </c>
-      <c r="C96" t="s">
-        <v>167</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>779</v>
-      </c>
       <c r="E96" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F96" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>778</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="C97" t="s">
+        <v>165</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="C97" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>782</v>
-      </c>
       <c r="E97" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F97" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>781</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C98" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="C98" t="s">
-        <v>167</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>785</v>
-      </c>
       <c r="E98" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F98" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>784</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C99" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>787</v>
-      </c>
-      <c r="C99" t="s">
-        <v>167</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>788</v>
-      </c>
       <c r="E99" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F99" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>787</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="C100" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>790</v>
-      </c>
-      <c r="C100" t="s">
-        <v>167</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>791</v>
-      </c>
       <c r="E100" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F100" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>790</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="C101" t="s">
+        <v>165</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>793</v>
-      </c>
-      <c r="C101" t="s">
-        <v>167</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>794</v>
-      </c>
       <c r="E101" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F101" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>793</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="C102" t="s">
+        <v>165</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="C102" t="s">
-        <v>167</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>797</v>
-      </c>
       <c r="E102" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F102" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>796</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="C103" t="s">
+        <v>165</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="C103" t="s">
-        <v>167</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>800</v>
-      </c>
       <c r="E103" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F103" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>799</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="C104" t="s">
+        <v>165</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="C104" t="s">
-        <v>167</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>803</v>
-      </c>
       <c r="E104" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F104" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>802</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="C105" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="C105" t="s">
-        <v>167</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>806</v>
-      </c>
       <c r="E105" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F105" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>805</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C106" t="s">
+        <v>165</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="C106" t="s">
-        <v>167</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>809</v>
-      </c>
       <c r="E106" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F106" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>808</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="C107" t="s">
+        <v>165</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>811</v>
-      </c>
-      <c r="C107" t="s">
-        <v>167</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>812</v>
-      </c>
       <c r="E107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F107" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>811</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C108" t="s">
+        <v>165</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>814</v>
-      </c>
-      <c r="C108" t="s">
-        <v>167</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>815</v>
-      </c>
       <c r="E108" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F108" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>814</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="C109" t="s">
+        <v>165</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>817</v>
-      </c>
-      <c r="C109" t="s">
-        <v>167</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>818</v>
-      </c>
       <c r="E109" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F109" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>817</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="C110" t="s">
+        <v>165</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>819</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>820</v>
-      </c>
-      <c r="C110" t="s">
-        <v>167</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>821</v>
-      </c>
       <c r="E110" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F110" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>820</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="C111" t="s">
+        <v>165</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>822</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>823</v>
-      </c>
-      <c r="C111" t="s">
-        <v>167</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>824</v>
-      </c>
       <c r="E111" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F111" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>823</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="C112" t="s">
+        <v>165</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>825</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="C112" t="s">
-        <v>167</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>827</v>
-      </c>
       <c r="E112" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F112" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>826</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="C113" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>829</v>
-      </c>
-      <c r="C113" t="s">
-        <v>167</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>830</v>
-      </c>
       <c r="E113" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F113" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>829</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C114" t="s">
+        <v>165</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>831</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>832</v>
-      </c>
-      <c r="C114" t="s">
-        <v>167</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>833</v>
-      </c>
       <c r="E114" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F114" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>832</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="C115" t="s">
+        <v>165</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="C115" t="s">
-        <v>167</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>836</v>
-      </c>
       <c r="E115" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F115" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>835</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="C116" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="C116" t="s">
-        <v>167</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>839</v>
-      </c>
       <c r="E116" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F116" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>838</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="C117" t="s">
+        <v>165</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>840</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="C117" t="s">
-        <v>167</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>842</v>
-      </c>
       <c r="E117" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F117" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>841</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="C118" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="C118" t="s">
-        <v>167</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>845</v>
-      </c>
       <c r="E118" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F118" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>844</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="C119" t="s">
+        <v>165</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>846</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="C119" t="s">
-        <v>167</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>848</v>
-      </c>
       <c r="E119" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F119" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>847</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="C120" t="s">
+        <v>165</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>849</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="C120" t="s">
-        <v>167</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>851</v>
-      </c>
       <c r="E120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F120" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>850</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="C121" t="s">
+        <v>165</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="C121" t="s">
-        <v>167</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>854</v>
-      </c>
       <c r="E121" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F121" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>853</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="C122" t="s">
+        <v>165</v>
+      </c>
+      <c r="D122" s="9" t="s">
         <v>855</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="C122" t="s">
-        <v>167</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>857</v>
-      </c>
       <c r="E122" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F122" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>856</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="C123" t="s">
+        <v>165</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="C123" t="s">
-        <v>167</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="E123" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F123" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>859</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="C124" t="s">
+        <v>165</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>861</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>862</v>
-      </c>
-      <c r="C124" t="s">
-        <v>167</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>863</v>
-      </c>
       <c r="E124" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F124" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>862</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="C125" t="s">
+        <v>165</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>864</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="C125" t="s">
-        <v>167</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>866</v>
-      </c>
       <c r="E125" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F125" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>865</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="C126" t="s">
+        <v>165</v>
+      </c>
+      <c r="D126" s="9" t="s">
         <v>867</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>868</v>
-      </c>
-      <c r="C126" t="s">
-        <v>167</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>869</v>
-      </c>
       <c r="E126" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F126" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>868</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="C127" t="s">
+        <v>165</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>871</v>
-      </c>
-      <c r="C127" t="s">
-        <v>167</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>872</v>
-      </c>
       <c r="E127" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F127" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>871</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="C128" t="s">
+        <v>165</v>
+      </c>
+      <c r="D128" s="9" t="s">
         <v>873</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="C128" t="s">
-        <v>167</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>875</v>
-      </c>
       <c r="E128" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F128" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>874</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="C129" t="s">
+        <v>165</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>876</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>877</v>
-      </c>
-      <c r="C129" t="s">
-        <v>167</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>878</v>
-      </c>
       <c r="E129" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F129" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>877</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="C130" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>880</v>
-      </c>
-      <c r="C130" t="s">
-        <v>167</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>881</v>
-      </c>
       <c r="E130" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F130" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>880</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="C131" t="s">
+        <v>165</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>882</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>883</v>
-      </c>
-      <c r="C131" t="s">
-        <v>167</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>884</v>
-      </c>
       <c r="E131" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F131" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B132" s="10"/>
       <c r="C132" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E132" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F132" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E133" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F133" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F134" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E135" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F135" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E136" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F136" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E137" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F137" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -8366,7 +8366,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>31</v>
@@ -8377,15 +8377,15 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -8410,192 +8410,192 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+        <v>42</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+        <v>48</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+        <v>896</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+        <v>57</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+        <v>58</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>897</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+        <v>895</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -8612,6 +8612,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
@@ -8620,11 +8625,6 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8649,53 +8649,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -8723,57 +8723,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -8803,128 +8803,128 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="E2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8936,103 +8936,103 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -9061,164 +9061,164 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="E1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
         <v>139</v>
       </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" t="s">
         <v>140</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
         <v>143</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
         <v>144</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" t="s">
         <v>145</v>
-      </c>
-      <c r="D3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
         <v>148</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
         <v>149</v>
-      </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
         <v>152</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
         <v>153</v>
       </c>
-      <c r="C5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" t="s">
         <v>154</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
         <v>157</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -9245,38 +9245,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
         <v>166</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
